--- a/module/monitor.xlsx
+++ b/module/monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimke\OneDrive\Documents\investment and trading\stocks and equity\sandbox\WealthAndFreedom\module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_92397E357E67187EE94E24554E5DCE3A874767FF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3FC51C1-2F74-438D-8960-852C777A5912}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_D4A525C7BC58C27EE94E24554E5DCE3A87472920" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE0507FA-DC23-4F85-AD07-6AB9DFD39855}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="390" windowWidth="27870" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="6900" windowWidth="28110" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>2020-02-07</t>
   </si>
@@ -38,10 +38,7 @@
     <t>2020-02-10</t>
   </si>
   <si>
-    <t>5231</t>
-  </si>
-  <si>
-    <t>5275</t>
+    <t>2020-02-11</t>
   </si>
   <si>
     <t>0035</t>
@@ -50,16 +47,52 @@
     <t>7803</t>
   </si>
   <si>
-    <t>PELIKAN</t>
-  </si>
-  <si>
-    <t>MYNEWS</t>
+    <t>0167</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>7130</t>
+  </si>
+  <si>
+    <t>6068</t>
+  </si>
+  <si>
+    <t>5277</t>
+  </si>
+  <si>
+    <t>8419</t>
+  </si>
+  <si>
+    <t>5267</t>
   </si>
   <si>
     <t>OPCOM</t>
   </si>
   <si>
     <t>RUBEREX</t>
+  </si>
+  <si>
+    <t>MCLEAN</t>
+  </si>
+  <si>
+    <t>MYEG</t>
+  </si>
+  <si>
+    <t>KPOWER</t>
+  </si>
+  <si>
+    <t>PCCS</t>
+  </si>
+  <si>
+    <t>FPGROUP</t>
+  </si>
+  <si>
+    <t>PANSAR</t>
+  </si>
+  <si>
+    <t>XINHWA</t>
   </si>
 </sst>
 </file>
@@ -422,41 +455,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="7" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>1214</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>1215</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>935</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>1214</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1581033600</v>
       </c>
@@ -464,22 +512,40 @@
         <v>1581292800</v>
       </c>
       <c r="C2">
-        <v>1581033600</v>
+        <v>1581379200</v>
       </c>
       <c r="D2">
         <v>1581292800</v>
       </c>
       <c r="E2">
-        <v>1581033600</v>
+        <v>1581379200</v>
       </c>
       <c r="F2">
-        <v>1581292800</v>
+        <v>1581379200</v>
       </c>
       <c r="G2">
-        <v>1581292800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1581379200</v>
+      </c>
+      <c r="H2">
+        <v>1581379200</v>
+      </c>
+      <c r="I2">
+        <v>1581379200</v>
+      </c>
+      <c r="J2">
+        <v>1581379200</v>
+      </c>
+      <c r="K2">
+        <v>1581379200</v>
+      </c>
+      <c r="L2">
+        <v>1581379200</v>
+      </c>
+      <c r="M2">
+        <v>1581379200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -487,180 +553,324 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="B6">
+        <v>0.755</v>
+      </c>
+      <c r="C6">
+        <v>0.76</v>
+      </c>
+      <c r="D6">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <v>0.31</v>
+      </c>
+      <c r="G6">
+        <v>0.31</v>
+      </c>
+      <c r="H6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I6">
+        <v>1.92</v>
+      </c>
+      <c r="J6">
+        <v>0.4</v>
+      </c>
+      <c r="K6">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.64</v>
+      </c>
+      <c r="M6">
         <v>0.5</v>
       </c>
-      <c r="B6">
-        <v>0.54</v>
-      </c>
-      <c r="C6">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>0.8</v>
       </c>
-      <c r="D6">
-        <v>0.95</v>
-      </c>
-      <c r="E6">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="F6">
+      <c r="B7">
+        <v>0.79</v>
+      </c>
+      <c r="C7">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.73</v>
+      </c>
+      <c r="E7">
+        <v>0.71</v>
+      </c>
+      <c r="F7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H7">
+        <v>1.37</v>
+      </c>
+      <c r="I7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.43</v>
+      </c>
+      <c r="K7">
+        <v>0.93</v>
+      </c>
+      <c r="L7">
+        <v>0.68</v>
+      </c>
+      <c r="M7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>0.745</v>
+      </c>
+      <c r="C8">
+        <v>0.745</v>
+      </c>
+      <c r="D8">
+        <v>0.63</v>
+      </c>
+      <c r="E8">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.31</v>
+      </c>
+      <c r="G8">
+        <v>0.31</v>
+      </c>
+      <c r="H8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I8">
+        <v>1.92</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.64</v>
+      </c>
+      <c r="M8">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.77</v>
+      </c>
+      <c r="B9">
         <v>0.755</v>
       </c>
-      <c r="G6">
-        <v>0.63500000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="B7">
-        <v>0.59</v>
-      </c>
-      <c r="C7">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="D7">
-        <v>1.02</v>
-      </c>
-      <c r="E7">
-        <v>0.8</v>
-      </c>
-      <c r="F7">
-        <v>0.79</v>
-      </c>
-      <c r="G7">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.495</v>
-      </c>
-      <c r="B8">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="C8">
-        <v>0.8</v>
-      </c>
-      <c r="D8">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="E8">
-        <v>0.7</v>
-      </c>
-      <c r="F8">
-        <v>0.745</v>
-      </c>
-      <c r="G8">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="B9">
-        <v>0.55500000000000005</v>
-      </c>
       <c r="C9">
-        <v>0.94</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D9">
-        <v>0.94499999999999995</v>
+        <v>0.71</v>
       </c>
       <c r="E9">
-        <v>0.77</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="F9">
-        <v>0.755</v>
+        <v>0.33</v>
       </c>
       <c r="G9">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.33</v>
+      </c>
+      <c r="H9">
+        <v>1.33</v>
+      </c>
+      <c r="I9">
+        <v>2.17</v>
+      </c>
+      <c r="J9">
+        <v>0.43</v>
+      </c>
+      <c r="K9">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L9">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>26102600</v>
+        <v>379261</v>
       </c>
       <c r="B10">
-        <v>23552500</v>
+        <v>101877</v>
       </c>
       <c r="C10">
-        <v>7103700</v>
+        <v>71775</v>
       </c>
       <c r="D10">
-        <v>5215800</v>
+        <v>149002</v>
       </c>
       <c r="E10">
-        <v>37926100</v>
+        <v>58689</v>
       </c>
       <c r="F10">
-        <v>10187700</v>
+        <v>266564</v>
       </c>
       <c r="G10">
-        <v>14900200</v>
+        <v>266564</v>
+      </c>
+      <c r="H10">
+        <v>2810032</v>
+      </c>
+      <c r="I10">
+        <v>51333</v>
+      </c>
+      <c r="J10">
+        <v>70426</v>
+      </c>
+      <c r="K10">
+        <v>639668</v>
+      </c>
+      <c r="L10">
+        <v>135679</v>
+      </c>
+      <c r="M10">
+        <v>109117</v>
       </c>
     </row>
   </sheetData>

--- a/module/monitor.xlsx
+++ b/module/monitor.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FA10"/>
+  <dimension ref="A1:GU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,196 +392,196 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AQ1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AR1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BF1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BI1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BJ1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BK1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="BL1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BN1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BO1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BP1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BQ1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BR1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BS1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="BM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="BT1" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU1" s="1" t="n">
         <v>0</v>
@@ -605,136 +605,136 @@
         <v>6</v>
       </c>
       <c r="CB1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CE1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CF1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CG1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CH1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CI1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CJ1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CK1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="CL1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CM1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CN1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CO1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CP1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CQ1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CR1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="CT1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CU1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CV1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CW1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CX1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CY1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CZ1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="DA1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="DB1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="CW1" s="1" t="n">
+      <c r="DC1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="CX1" s="1" t="n">
+      <c r="DD1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CY1" s="1" t="n">
+      <c r="DE1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="CZ1" s="1" t="n">
+      <c r="DF1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="DG1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="DH1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DA1" s="1" t="n">
+      <c r="DI1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="DB1" s="1" t="n">
+      <c r="DJ1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="DC1" s="1" t="n">
+      <c r="DK1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="DD1" s="1" t="n">
+      <c r="DL1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="DE1" s="1" t="n">
+      <c r="DM1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DF1" s="1" t="n">
+      <c r="DO1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="DG1" s="1" t="n">
+      <c r="DP1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="DH1" s="1" t="n">
+      <c r="DQ1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="DI1" s="1" t="n">
+      <c r="DR1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="DJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="DM1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="DN1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="DO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="DR1" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="DS1" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DT1" s="1" t="n">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>3</v>
       </c>
       <c r="DX1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="DY1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DY1" s="1" t="n">
+      <c r="EA1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="DZ1" s="1" t="n">
+      <c r="EB1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="EA1" s="1" t="n">
+      <c r="EC1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="EB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC1" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="ED1" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EE1" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="EF1" s="1" t="n">
         <v>0</v>
@@ -782,28 +782,28 @@
         <v>2</v>
       </c>
       <c r="EI1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="EK1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="EL1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="EJ1" s="1" t="n">
+      <c r="EM1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="EK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="EN1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EO1" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EP1" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EQ1" s="1" t="n">
         <v>0</v>
@@ -812,30 +812,168 @@
         <v>1</v>
       </c>
       <c r="ES1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="EV1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="ET1" s="1" t="n">
+      <c r="EW1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="EU1" s="1" t="n">
+      <c r="EX1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="EV1" s="1" t="n">
+      <c r="FB1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="EW1" s="1" t="n">
+      <c r="FC1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="EX1" s="1" t="n">
+      <c r="FF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="EY1" s="1" t="n">
+      <c r="FI1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="FK1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="EZ1" s="1" t="n">
+      <c r="FL1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="FN1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="FA1" s="1" t="n">
+      <c r="FO1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="FQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="FT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -865,274 +1003,274 @@
         <v>1581465600</v>
       </c>
       <c r="I2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="J2" t="n">
         <v>1580688000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1580774400</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>1580860800</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="S2" t="n">
         <v>1580688000</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>1580774400</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1580860800</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>1580688000</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
         <v>1580774400</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
         <v>1580860800</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AE2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AF2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AH2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="AK2" t="n">
         <v>1580688000</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AL2" t="n">
         <v>1580774400</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AM2" t="n">
         <v>1580860800</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AN2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AO2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AP2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AQ2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AR2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AS2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="AT2" t="n">
         <v>1580688000</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AU2" t="n">
         <v>1580774400</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AV2" t="n">
         <v>1580860800</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AW2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AX2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AY2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AZ2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="BA2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="BB2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="BC2" t="n">
         <v>1580688000</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BD2" t="n">
         <v>1580774400</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="BE2" t="n">
         <v>1580860800</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BF2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BG2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BH2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BI2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BJ2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BK2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="BL2" t="n">
         <v>1580688000</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BM2" t="n">
         <v>1580774400</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BN2" t="n">
         <v>1580860800</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BO2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BP2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BQ2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BR2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BS2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BT2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="BU2" t="n">
         <v>1580688000</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BV2" t="n">
         <v>1580774400</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BW2" t="n">
         <v>1580860800</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BX2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BY2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BZ2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CA2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CB2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CC2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="CD2" t="n">
         <v>1580774400</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CE2" t="n">
         <v>1580860800</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CF2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CG2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CH2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CI2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CJ2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CK2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="CL2" t="n">
         <v>1580774400</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CM2" t="n">
         <v>1580860800</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CN2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CO2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CP2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CQ2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CR2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CS2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="CT2" t="n">
         <v>1580860800</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1580947200</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1581033600</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1581292800</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1581379200</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1581465600</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1580860800</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>1580947200</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1581033600</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1581292800</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>1581379200</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1581465600</v>
       </c>
       <c r="CU2" t="n">
         <v>1580947200</v>
@@ -1150,109 +1288,109 @@
         <v>1581465600</v>
       </c>
       <c r="CZ2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1580860800</v>
+      </c>
+      <c r="DB2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DC2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DD2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DE2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DF2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DG2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="DH2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DI2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DJ2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DK2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DL2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DM2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="DN2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DO2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DP2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DQ2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DR2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DS2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="DT2" t="n">
         <v>1580947200</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DU2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DV2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DW2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DX2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DY2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1580947200</v>
+      </c>
+      <c r="EA2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="EB2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="EC2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="ED2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="EE2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>1580947200</v>
+      </c>
+      <c r="EG2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="EH2" t="n">
         <v>1581292800</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1581379200</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1581465600</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>1581033600</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1581292800</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1581379200</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1581465600</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1581292800</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1581379200</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1581465600</v>
       </c>
       <c r="EI2" t="n">
         <v>1581379200</v>
@@ -1261,28 +1399,28 @@
         <v>1581465600</v>
       </c>
       <c r="EK2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1581033600</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1581292800</v>
+      </c>
+      <c r="EN2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EO2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="EM2" t="n">
-        <v>1581379200</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1581465600</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1581379200</v>
-      </c>
       <c r="EP2" t="n">
-        <v>1581465600</v>
+        <v>1581552000</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1581379200</v>
+        <v>1581033600</v>
       </c>
       <c r="ER2" t="n">
-        <v>1581465600</v>
+        <v>1581292800</v>
       </c>
       <c r="ES2" t="n">
         <v>1581379200</v>
@@ -1291,25 +1429,163 @@
         <v>1581465600</v>
       </c>
       <c r="EU2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1581033600</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1581292800</v>
+      </c>
+      <c r="EX2" t="n">
         <v>1581379200</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1581465600</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1581465600</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1581465600</v>
       </c>
       <c r="EY2" t="n">
         <v>1581465600</v>
       </c>
       <c r="EZ2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1581292800</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="FC2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FD2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="FF2" t="n">
         <v>1581465600</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1581552000</v>
       </c>
     </row>
     <row r="3">
@@ -1355,747 +1631,977 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>2020-02-03</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>2020-02-03</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2020-02-03</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>2020-02-03</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>2020-02-03</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
         <is>
           <t>2020-02-03</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="BD3" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="BE3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
+      <c r="BH3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BI3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
         <is>
           <t>2020-02-03</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BM3" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr">
+      <c r="BN3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
+      <c r="BO3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BP3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="BK3" t="inlineStr">
+      <c r="BR3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
+      <c r="BS3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
         <is>
           <t>2020-02-03</t>
         </is>
       </c>
-      <c r="BN3" t="inlineStr">
+      <c r="BV3" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="BO3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="BP3" t="inlineStr">
+      <c r="BX3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="BY3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="BZ3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="CA3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="CB3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="BU3" t="inlineStr">
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr">
+      <c r="CE3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="BW3" t="inlineStr">
+      <c r="CF3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="BX3" t="inlineStr">
+      <c r="CG3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="BY3" t="inlineStr">
+      <c r="CH3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr">
+      <c r="CI3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="CA3" t="inlineStr">
+      <c r="CJ3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="CB3" t="inlineStr">
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="CC3" t="inlineStr">
+      <c r="CM3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="CD3" t="inlineStr">
+      <c r="CN3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="CE3" t="inlineStr">
+      <c r="CO3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="CF3" t="inlineStr">
+      <c r="CP3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="CG3" t="inlineStr">
+      <c r="CQ3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="CH3" t="inlineStr">
+      <c r="CR3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="CI3" t="inlineStr">
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="CJ3" t="inlineStr">
+      <c r="CU3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="CK3" t="inlineStr">
+      <c r="CV3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="CL3" t="inlineStr">
+      <c r="CW3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="CM3" t="inlineStr">
+      <c r="CX3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="CN3" t="inlineStr">
+      <c r="CY3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="CO3" t="inlineStr">
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="CP3" t="inlineStr">
+      <c r="DB3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="CQ3" t="inlineStr">
+      <c r="DC3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="CR3" t="inlineStr">
+      <c r="DD3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="CS3" t="inlineStr">
+      <c r="DE3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="CT3" t="inlineStr">
+      <c r="DF3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="CU3" t="inlineStr">
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="CV3" t="inlineStr">
+      <c r="DI3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="CW3" t="inlineStr">
+      <c r="DJ3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="CX3" t="inlineStr">
+      <c r="DK3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="CY3" t="inlineStr">
+      <c r="DL3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="CZ3" t="inlineStr">
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="DA3" t="inlineStr">
+      <c r="DO3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="DB3" t="inlineStr">
+      <c r="DP3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="DC3" t="inlineStr">
+      <c r="DQ3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="DD3" t="inlineStr">
+      <c r="DR3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="DE3" t="inlineStr">
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="DT3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="DF3" t="inlineStr">
+      <c r="DU3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="DG3" t="inlineStr">
+      <c r="DV3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="DH3" t="inlineStr">
+      <c r="DW3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="DI3" t="inlineStr">
+      <c r="DX3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="DJ3" t="inlineStr">
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="DZ3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="DK3" t="inlineStr">
+      <c r="EA3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="DL3" t="inlineStr">
+      <c r="EB3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="DM3" t="inlineStr">
+      <c r="EC3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="DN3" t="inlineStr">
+      <c r="ED3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="DO3" t="inlineStr">
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="EF3" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="DP3" t="inlineStr">
+      <c r="EG3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="DQ3" t="inlineStr">
+      <c r="EH3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="DR3" t="inlineStr">
+      <c r="EI3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="DS3" t="inlineStr">
+      <c r="EJ3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="DT3" t="inlineStr">
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="DU3" t="inlineStr">
+      <c r="EM3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="DV3" t="inlineStr">
+      <c r="EN3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="DW3" t="inlineStr">
+      <c r="EO3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="DX3" t="inlineStr">
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="EQ3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="DY3" t="inlineStr">
+      <c r="ER3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="DZ3" t="inlineStr">
+      <c r="ES3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="EA3" t="inlineStr">
+      <c r="ET3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EB3" t="inlineStr">
+      <c r="EU3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="EV3" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="EC3" t="inlineStr">
+      <c r="EW3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="ED3" t="inlineStr">
+      <c r="EX3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="EE3" t="inlineStr">
+      <c r="EY3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EF3" t="inlineStr">
+      <c r="EZ3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="FA3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="EG3" t="inlineStr">
+      <c r="FB3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="EH3" t="inlineStr">
+      <c r="FC3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EI3" t="inlineStr">
+      <c r="FD3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="FE3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="EJ3" t="inlineStr">
+      <c r="FF3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EK3" t="inlineStr">
+      <c r="FG3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="FH3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="EL3" t="inlineStr">
+      <c r="FI3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EM3" t="inlineStr">
+      <c r="FJ3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="FK3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="EN3" t="inlineStr">
+      <c r="FL3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EO3" t="inlineStr">
+      <c r="FM3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="FN3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="EP3" t="inlineStr">
+      <c r="FO3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EQ3" t="inlineStr">
+      <c r="FP3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="FQ3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="ER3" t="inlineStr">
+      <c r="FR3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="ES3" t="inlineStr">
+      <c r="FS3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="FT3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="ET3" t="inlineStr">
+      <c r="FU3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EU3" t="inlineStr">
+      <c r="FV3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="FW3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="EV3" t="inlineStr">
+      <c r="FX3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EW3" t="inlineStr">
+      <c r="FY3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="FZ3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EX3" t="inlineStr">
+      <c r="GA3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GB3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EY3" t="inlineStr">
+      <c r="GC3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GD3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="EZ3" t="inlineStr">
+      <c r="GE3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GF3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="FA3" t="inlineStr">
+      <c r="GG3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GH3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="GI3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GJ3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GK3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GL3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GM3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GN3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GO3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GP3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GQ3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GR3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GS3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GT3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="GU3" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
         </is>
       </c>
     </row>
@@ -2142,747 +2648,977 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>5210</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0200</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>0200</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>0200</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0200</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>0200</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>0200</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>0200</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>0200</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0200</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0128</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>5149</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>5149</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>5149</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>5149</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>5149</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>5149</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>5149</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>5149</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>5149</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>0083</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="BH4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BI4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
+      <c r="BJ4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
         <is>
           <t>6963</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BM4" t="inlineStr">
         <is>
           <t>6963</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
         <is>
           <t>6963</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
+      <c r="BO4" t="inlineStr">
         <is>
           <t>6963</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
         <is>
           <t>6963</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>6963</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr">
+      <c r="BR4" t="inlineStr">
         <is>
           <t>6963</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BS4" t="inlineStr">
         <is>
           <t>6963</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>6963</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
         <is>
           <t>0120</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr">
+      <c r="BV4" t="inlineStr">
         <is>
           <t>0120</t>
         </is>
       </c>
-      <c r="BO4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
         <is>
           <t>0120</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
+      <c r="BX4" t="inlineStr">
         <is>
           <t>0120</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="BY4" t="inlineStr">
         <is>
           <t>0120</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="BZ4" t="inlineStr">
         <is>
           <t>0120</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="CA4" t="inlineStr">
         <is>
           <t>0120</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="CB4" t="inlineStr">
         <is>
           <t>0120</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr">
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
         <is>
           <t>0195</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr">
+      <c r="CE4" t="inlineStr">
         <is>
           <t>0195</t>
         </is>
       </c>
-      <c r="BW4" t="inlineStr">
+      <c r="CF4" t="inlineStr">
         <is>
           <t>0195</t>
         </is>
       </c>
-      <c r="BX4" t="inlineStr">
+      <c r="CG4" t="inlineStr">
         <is>
           <t>0195</t>
         </is>
       </c>
-      <c r="BY4" t="inlineStr">
+      <c r="CH4" t="inlineStr">
         <is>
           <t>0195</t>
         </is>
       </c>
-      <c r="BZ4" t="inlineStr">
+      <c r="CI4" t="inlineStr">
         <is>
           <t>0195</t>
         </is>
       </c>
-      <c r="CA4" t="inlineStr">
+      <c r="CJ4" t="inlineStr">
         <is>
           <t>0195</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr">
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="CC4" t="inlineStr">
+      <c r="CM4" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="CE4" t="inlineStr">
+      <c r="CO4" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="CF4" t="inlineStr">
+      <c r="CP4" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
+      <c r="CQ4" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr">
+      <c r="CR4" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="CI4" t="inlineStr">
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
         <is>
           <t>4383</t>
         </is>
       </c>
-      <c r="CJ4" t="inlineStr">
+      <c r="CU4" t="inlineStr">
         <is>
           <t>4383</t>
         </is>
       </c>
-      <c r="CK4" t="inlineStr">
+      <c r="CV4" t="inlineStr">
         <is>
           <t>4383</t>
         </is>
       </c>
-      <c r="CL4" t="inlineStr">
+      <c r="CW4" t="inlineStr">
         <is>
           <t>4383</t>
         </is>
       </c>
-      <c r="CM4" t="inlineStr">
+      <c r="CX4" t="inlineStr">
         <is>
           <t>4383</t>
         </is>
       </c>
-      <c r="CN4" t="inlineStr">
+      <c r="CY4" t="inlineStr">
         <is>
           <t>4383</t>
         </is>
       </c>
-      <c r="CO4" t="inlineStr">
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="DA4" t="inlineStr">
         <is>
           <t>8966</t>
         </is>
       </c>
-      <c r="CP4" t="inlineStr">
+      <c r="DB4" t="inlineStr">
         <is>
           <t>8966</t>
         </is>
       </c>
-      <c r="CQ4" t="inlineStr">
+      <c r="DC4" t="inlineStr">
         <is>
           <t>8966</t>
         </is>
       </c>
-      <c r="CR4" t="inlineStr">
+      <c r="DD4" t="inlineStr">
         <is>
           <t>8966</t>
         </is>
       </c>
-      <c r="CS4" t="inlineStr">
+      <c r="DE4" t="inlineStr">
         <is>
           <t>8966</t>
         </is>
       </c>
-      <c r="CT4" t="inlineStr">
+      <c r="DF4" t="inlineStr">
         <is>
           <t>8966</t>
         </is>
       </c>
-      <c r="CU4" t="inlineStr">
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
         <is>
           <t>0084</t>
         </is>
       </c>
-      <c r="CV4" t="inlineStr">
+      <c r="DI4" t="inlineStr">
         <is>
           <t>0084</t>
         </is>
       </c>
-      <c r="CW4" t="inlineStr">
+      <c r="DJ4" t="inlineStr">
         <is>
           <t>0084</t>
         </is>
       </c>
-      <c r="CX4" t="inlineStr">
+      <c r="DK4" t="inlineStr">
         <is>
           <t>0084</t>
         </is>
       </c>
-      <c r="CY4" t="inlineStr">
+      <c r="DL4" t="inlineStr">
         <is>
           <t>0084</t>
         </is>
       </c>
-      <c r="CZ4" t="inlineStr">
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="DN4" t="inlineStr">
         <is>
           <t>0183</t>
         </is>
       </c>
-      <c r="DA4" t="inlineStr">
+      <c r="DO4" t="inlineStr">
         <is>
           <t>0183</t>
         </is>
       </c>
-      <c r="DB4" t="inlineStr">
+      <c r="DP4" t="inlineStr">
         <is>
           <t>0183</t>
         </is>
       </c>
-      <c r="DC4" t="inlineStr">
+      <c r="DQ4" t="inlineStr">
         <is>
           <t>0183</t>
         </is>
       </c>
-      <c r="DD4" t="inlineStr">
+      <c r="DR4" t="inlineStr">
         <is>
           <t>0183</t>
         </is>
       </c>
-      <c r="DE4" t="inlineStr">
+      <c r="DS4" t="inlineStr">
+        <is>
+          <t>0183</t>
+        </is>
+      </c>
+      <c r="DT4" t="inlineStr">
         <is>
           <t>7228</t>
         </is>
       </c>
-      <c r="DF4" t="inlineStr">
+      <c r="DU4" t="inlineStr">
         <is>
           <t>7228</t>
         </is>
       </c>
-      <c r="DG4" t="inlineStr">
+      <c r="DV4" t="inlineStr">
         <is>
           <t>7228</t>
         </is>
       </c>
-      <c r="DH4" t="inlineStr">
+      <c r="DW4" t="inlineStr">
         <is>
           <t>7228</t>
         </is>
       </c>
-      <c r="DI4" t="inlineStr">
+      <c r="DX4" t="inlineStr">
         <is>
           <t>7228</t>
         </is>
       </c>
-      <c r="DJ4" t="inlineStr">
+      <c r="DY4" t="inlineStr">
+        <is>
+          <t>7228</t>
+        </is>
+      </c>
+      <c r="DZ4" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="DK4" t="inlineStr">
+      <c r="EA4" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="DL4" t="inlineStr">
+      <c r="EB4" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="DM4" t="inlineStr">
+      <c r="EC4" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="DN4" t="inlineStr">
+      <c r="ED4" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="DO4" t="inlineStr">
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="EF4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="DP4" t="inlineStr">
+      <c r="EG4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="DQ4" t="inlineStr">
+      <c r="EH4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="DR4" t="inlineStr">
+      <c r="EI4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="DS4" t="inlineStr">
+      <c r="EJ4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="DT4" t="inlineStr">
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="EL4" t="inlineStr">
         <is>
           <t>5231</t>
         </is>
       </c>
-      <c r="DU4" t="inlineStr">
+      <c r="EM4" t="inlineStr">
         <is>
           <t>5231</t>
         </is>
       </c>
-      <c r="DV4" t="inlineStr">
+      <c r="EN4" t="inlineStr">
         <is>
           <t>5231</t>
         </is>
       </c>
-      <c r="DW4" t="inlineStr">
+      <c r="EO4" t="inlineStr">
         <is>
           <t>5231</t>
         </is>
       </c>
-      <c r="DX4" t="inlineStr">
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>5231</t>
+        </is>
+      </c>
+      <c r="EQ4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="DY4" t="inlineStr">
+      <c r="ER4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="DZ4" t="inlineStr">
+      <c r="ES4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="EA4" t="inlineStr">
+      <c r="ET4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="EB4" t="inlineStr">
+      <c r="EU4" t="inlineStr">
+        <is>
+          <t>5275</t>
+        </is>
+      </c>
+      <c r="EV4" t="inlineStr">
         <is>
           <t>0035</t>
         </is>
       </c>
-      <c r="EC4" t="inlineStr">
+      <c r="EW4" t="inlineStr">
         <is>
           <t>0035</t>
         </is>
       </c>
-      <c r="ED4" t="inlineStr">
+      <c r="EX4" t="inlineStr">
         <is>
           <t>0035</t>
         </is>
       </c>
-      <c r="EE4" t="inlineStr">
+      <c r="EY4" t="inlineStr">
         <is>
           <t>0035</t>
         </is>
       </c>
-      <c r="EF4" t="inlineStr">
+      <c r="EZ4" t="inlineStr">
+        <is>
+          <t>0035</t>
+        </is>
+      </c>
+      <c r="FA4" t="inlineStr">
         <is>
           <t>7803</t>
         </is>
       </c>
-      <c r="EG4" t="inlineStr">
+      <c r="FB4" t="inlineStr">
         <is>
           <t>7803</t>
         </is>
       </c>
-      <c r="EH4" t="inlineStr">
+      <c r="FC4" t="inlineStr">
         <is>
           <t>7803</t>
         </is>
       </c>
-      <c r="EI4" t="inlineStr">
+      <c r="FD4" t="inlineStr">
+        <is>
+          <t>7803</t>
+        </is>
+      </c>
+      <c r="FE4" t="inlineStr">
         <is>
           <t>0167</t>
         </is>
       </c>
-      <c r="EJ4" t="inlineStr">
+      <c r="FF4" t="inlineStr">
         <is>
           <t>0167</t>
         </is>
       </c>
-      <c r="EK4" t="inlineStr">
+      <c r="FG4" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="FH4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="EL4" t="inlineStr">
+      <c r="FI4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="EM4" t="inlineStr">
+      <c r="FJ4" t="inlineStr">
+        <is>
+          <t>0138</t>
+        </is>
+      </c>
+      <c r="FK4" t="inlineStr">
         <is>
           <t>7130</t>
         </is>
       </c>
-      <c r="EN4" t="inlineStr">
+      <c r="FL4" t="inlineStr">
         <is>
           <t>7130</t>
         </is>
       </c>
-      <c r="EO4" t="inlineStr">
+      <c r="FM4" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="FN4" t="inlineStr">
         <is>
           <t>6068</t>
         </is>
       </c>
-      <c r="EP4" t="inlineStr">
+      <c r="FO4" t="inlineStr">
         <is>
           <t>6068</t>
         </is>
       </c>
-      <c r="EQ4" t="inlineStr">
+      <c r="FP4" t="inlineStr">
+        <is>
+          <t>6068</t>
+        </is>
+      </c>
+      <c r="FQ4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="ER4" t="inlineStr">
+      <c r="FR4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="ES4" t="inlineStr">
+      <c r="FS4" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="FT4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="ET4" t="inlineStr">
+      <c r="FU4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="EU4" t="inlineStr">
+      <c r="FV4" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="FW4" t="inlineStr">
         <is>
           <t>5267</t>
         </is>
       </c>
-      <c r="EV4" t="inlineStr">
+      <c r="FX4" t="inlineStr">
         <is>
           <t>5267</t>
         </is>
       </c>
-      <c r="EW4" t="inlineStr">
+      <c r="FY4" t="inlineStr">
+        <is>
+          <t>5267</t>
+        </is>
+      </c>
+      <c r="FZ4" t="inlineStr">
         <is>
           <t>5227</t>
         </is>
       </c>
-      <c r="EX4" t="inlineStr">
+      <c r="GA4" t="inlineStr">
+        <is>
+          <t>5227</t>
+        </is>
+      </c>
+      <c r="GB4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="EY4" t="inlineStr">
+      <c r="GC4" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="GD4" t="inlineStr">
         <is>
           <t>5703</t>
         </is>
       </c>
-      <c r="EZ4" t="inlineStr">
+      <c r="GE4" t="inlineStr">
+        <is>
+          <t>5703</t>
+        </is>
+      </c>
+      <c r="GF4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="FA4" t="inlineStr">
+      <c r="GG4" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="GH4" t="inlineStr">
         <is>
           <t>7095</t>
+        </is>
+      </c>
+      <c r="GI4" t="inlineStr">
+        <is>
+          <t>7095</t>
+        </is>
+      </c>
+      <c r="GJ4" t="inlineStr">
+        <is>
+          <t>3204</t>
+        </is>
+      </c>
+      <c r="GK4" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="GL4" t="inlineStr">
+        <is>
+          <t>9679</t>
+        </is>
+      </c>
+      <c r="GM4" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="GN4" t="inlineStr">
+        <is>
+          <t>5098</t>
+        </is>
+      </c>
+      <c r="GO4" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="GP4" t="inlineStr">
+        <is>
+          <t>5253</t>
+        </is>
+      </c>
+      <c r="GQ4" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="GR4" t="inlineStr">
+        <is>
+          <t>8877</t>
+        </is>
+      </c>
+      <c r="GS4" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="GT4" t="inlineStr">
+        <is>
+          <t>9261</t>
+        </is>
+      </c>
+      <c r="GU4" t="inlineStr">
+        <is>
+          <t>1589</t>
         </is>
       </c>
     </row>
@@ -2929,747 +3665,977 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>ARMADA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>REVENUE</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>REVENUE</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>REVENUE</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>REVENUE</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>REVENUE</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>REVENUE</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>REVENUE</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>REVENUE</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>REVENUE</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>FRONTKN</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>TAS</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>TAS</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>TAS</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>TAS</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>TAS</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>TAS</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>TAS</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>TAS</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>NOTION</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="BD5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr">
+      <c r="BI5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
+      <c r="BJ5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>JAKS</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
         <is>
           <t>VS</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BM5" t="inlineStr">
         <is>
           <t>VS</t>
         </is>
       </c>
-      <c r="BG5" t="inlineStr">
+      <c r="BN5" t="inlineStr">
         <is>
           <t>VS</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
+      <c r="BO5" t="inlineStr">
         <is>
           <t>VS</t>
         </is>
       </c>
-      <c r="BI5" t="inlineStr">
+      <c r="BP5" t="inlineStr">
         <is>
           <t>VS</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
+      <c r="BQ5" t="inlineStr">
         <is>
           <t>VS</t>
         </is>
       </c>
-      <c r="BK5" t="inlineStr">
+      <c r="BR5" t="inlineStr">
         <is>
           <t>VS</t>
         </is>
       </c>
-      <c r="BL5" t="inlineStr">
+      <c r="BS5" t="inlineStr">
         <is>
           <t>VS</t>
         </is>
       </c>
-      <c r="BM5" t="inlineStr">
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
         <is>
           <t>VIS</t>
         </is>
       </c>
-      <c r="BN5" t="inlineStr">
+      <c r="BV5" t="inlineStr">
         <is>
           <t>VIS</t>
         </is>
       </c>
-      <c r="BO5" t="inlineStr">
+      <c r="BW5" t="inlineStr">
         <is>
           <t>VIS</t>
         </is>
       </c>
-      <c r="BP5" t="inlineStr">
+      <c r="BX5" t="inlineStr">
         <is>
           <t>VIS</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr">
+      <c r="BY5" t="inlineStr">
         <is>
           <t>VIS</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr">
+      <c r="BZ5" t="inlineStr">
         <is>
           <t>VIS</t>
         </is>
       </c>
-      <c r="BS5" t="inlineStr">
+      <c r="CA5" t="inlineStr">
         <is>
           <t>VIS</t>
         </is>
       </c>
-      <c r="BT5" t="inlineStr">
+      <c r="CB5" t="inlineStr">
         <is>
           <t>VIS</t>
         </is>
       </c>
-      <c r="BU5" t="inlineStr">
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>VIS</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
         <is>
           <t>BINACOM</t>
         </is>
       </c>
-      <c r="BV5" t="inlineStr">
+      <c r="CE5" t="inlineStr">
         <is>
           <t>BINACOM</t>
         </is>
       </c>
-      <c r="BW5" t="inlineStr">
+      <c r="CF5" t="inlineStr">
         <is>
           <t>BINACOM</t>
         </is>
       </c>
-      <c r="BX5" t="inlineStr">
+      <c r="CG5" t="inlineStr">
         <is>
           <t>BINACOM</t>
         </is>
       </c>
-      <c r="BY5" t="inlineStr">
+      <c r="CH5" t="inlineStr">
         <is>
           <t>BINACOM</t>
         </is>
       </c>
-      <c r="BZ5" t="inlineStr">
+      <c r="CI5" t="inlineStr">
         <is>
           <t>BINACOM</t>
         </is>
       </c>
-      <c r="CA5" t="inlineStr">
+      <c r="CJ5" t="inlineStr">
         <is>
           <t>BINACOM</t>
         </is>
       </c>
-      <c r="CB5" t="inlineStr">
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
         <is>
           <t>CARIMIN</t>
         </is>
       </c>
-      <c r="CC5" t="inlineStr">
+      <c r="CM5" t="inlineStr">
         <is>
           <t>CARIMIN</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr">
+      <c r="CN5" t="inlineStr">
         <is>
           <t>CARIMIN</t>
         </is>
       </c>
-      <c r="CE5" t="inlineStr">
+      <c r="CO5" t="inlineStr">
         <is>
           <t>CARIMIN</t>
         </is>
       </c>
-      <c r="CF5" t="inlineStr">
+      <c r="CP5" t="inlineStr">
         <is>
           <t>CARIMIN</t>
         </is>
       </c>
-      <c r="CG5" t="inlineStr">
+      <c r="CQ5" t="inlineStr">
         <is>
           <t>CARIMIN</t>
         </is>
       </c>
-      <c r="CH5" t="inlineStr">
+      <c r="CR5" t="inlineStr">
         <is>
           <t>CARIMIN</t>
         </is>
       </c>
-      <c r="CI5" t="inlineStr">
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="CT5" t="inlineStr">
         <is>
           <t>JTIASA</t>
         </is>
       </c>
-      <c r="CJ5" t="inlineStr">
+      <c r="CU5" t="inlineStr">
         <is>
           <t>JTIASA</t>
         </is>
       </c>
-      <c r="CK5" t="inlineStr">
+      <c r="CV5" t="inlineStr">
         <is>
           <t>JTIASA</t>
         </is>
       </c>
-      <c r="CL5" t="inlineStr">
+      <c r="CW5" t="inlineStr">
         <is>
           <t>JTIASA</t>
         </is>
       </c>
-      <c r="CM5" t="inlineStr">
+      <c r="CX5" t="inlineStr">
         <is>
           <t>JTIASA</t>
         </is>
       </c>
-      <c r="CN5" t="inlineStr">
+      <c r="CY5" t="inlineStr">
         <is>
           <t>JTIASA</t>
         </is>
       </c>
-      <c r="CO5" t="inlineStr">
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="DA5" t="inlineStr">
         <is>
           <t>PRLEXUS</t>
         </is>
       </c>
-      <c r="CP5" t="inlineStr">
+      <c r="DB5" t="inlineStr">
         <is>
           <t>PRLEXUS</t>
         </is>
       </c>
-      <c r="CQ5" t="inlineStr">
+      <c r="DC5" t="inlineStr">
         <is>
           <t>PRLEXUS</t>
         </is>
       </c>
-      <c r="CR5" t="inlineStr">
+      <c r="DD5" t="inlineStr">
         <is>
           <t>PRLEXUS</t>
         </is>
       </c>
-      <c r="CS5" t="inlineStr">
+      <c r="DE5" t="inlineStr">
         <is>
           <t>PRLEXUS</t>
         </is>
       </c>
-      <c r="CT5" t="inlineStr">
+      <c r="DF5" t="inlineStr">
         <is>
           <t>PRLEXUS</t>
         </is>
       </c>
-      <c r="CU5" t="inlineStr">
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>PRLEXUS</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr">
         <is>
           <t>TECFAST</t>
         </is>
       </c>
-      <c r="CV5" t="inlineStr">
+      <c r="DI5" t="inlineStr">
         <is>
           <t>TECFAST</t>
         </is>
       </c>
-      <c r="CW5" t="inlineStr">
+      <c r="DJ5" t="inlineStr">
         <is>
           <t>TECFAST</t>
         </is>
       </c>
-      <c r="CX5" t="inlineStr">
+      <c r="DK5" t="inlineStr">
         <is>
           <t>TECFAST</t>
         </is>
       </c>
-      <c r="CY5" t="inlineStr">
+      <c r="DL5" t="inlineStr">
         <is>
           <t>TECFAST</t>
         </is>
       </c>
-      <c r="CZ5" t="inlineStr">
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr">
         <is>
           <t>SALUTE</t>
         </is>
       </c>
-      <c r="DA5" t="inlineStr">
+      <c r="DO5" t="inlineStr">
         <is>
           <t>SALUTE</t>
         </is>
       </c>
-      <c r="DB5" t="inlineStr">
+      <c r="DP5" t="inlineStr">
         <is>
           <t>SALUTE</t>
         </is>
       </c>
-      <c r="DC5" t="inlineStr">
+      <c r="DQ5" t="inlineStr">
         <is>
           <t>SALUTE</t>
         </is>
       </c>
-      <c r="DD5" t="inlineStr">
+      <c r="DR5" t="inlineStr">
         <is>
           <t>SALUTE</t>
         </is>
       </c>
-      <c r="DE5" t="inlineStr">
+      <c r="DS5" t="inlineStr">
+        <is>
+          <t>SALUTE</t>
+        </is>
+      </c>
+      <c r="DT5" t="inlineStr">
         <is>
           <t>T7GLOBAL</t>
         </is>
       </c>
-      <c r="DF5" t="inlineStr">
+      <c r="DU5" t="inlineStr">
         <is>
           <t>T7GLOBAL</t>
         </is>
       </c>
-      <c r="DG5" t="inlineStr">
+      <c r="DV5" t="inlineStr">
         <is>
           <t>T7GLOBAL</t>
         </is>
       </c>
-      <c r="DH5" t="inlineStr">
+      <c r="DW5" t="inlineStr">
         <is>
           <t>T7GLOBAL</t>
         </is>
       </c>
-      <c r="DI5" t="inlineStr">
+      <c r="DX5" t="inlineStr">
         <is>
           <t>T7GLOBAL</t>
         </is>
       </c>
-      <c r="DJ5" t="inlineStr">
+      <c r="DY5" t="inlineStr">
+        <is>
+          <t>T7GLOBAL</t>
+        </is>
+      </c>
+      <c r="DZ5" t="inlineStr">
         <is>
           <t>HUMEIND</t>
         </is>
       </c>
-      <c r="DK5" t="inlineStr">
+      <c r="EA5" t="inlineStr">
         <is>
           <t>HUMEIND</t>
         </is>
       </c>
-      <c r="DL5" t="inlineStr">
+      <c r="EB5" t="inlineStr">
         <is>
           <t>HUMEIND</t>
         </is>
       </c>
-      <c r="DM5" t="inlineStr">
+      <c r="EC5" t="inlineStr">
         <is>
           <t>HUMEIND</t>
         </is>
       </c>
-      <c r="DN5" t="inlineStr">
+      <c r="ED5" t="inlineStr">
         <is>
           <t>HUMEIND</t>
         </is>
       </c>
-      <c r="DO5" t="inlineStr">
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>HUMEIND</t>
+        </is>
+      </c>
+      <c r="EF5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="DP5" t="inlineStr">
+      <c r="EG5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="DQ5" t="inlineStr">
+      <c r="EH5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="DR5" t="inlineStr">
+      <c r="EI5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="DS5" t="inlineStr">
+      <c r="EJ5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="DT5" t="inlineStr">
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
         <is>
           <t>PELIKAN</t>
         </is>
       </c>
-      <c r="DU5" t="inlineStr">
+      <c r="EM5" t="inlineStr">
         <is>
           <t>PELIKAN</t>
         </is>
       </c>
-      <c r="DV5" t="inlineStr">
+      <c r="EN5" t="inlineStr">
         <is>
           <t>PELIKAN</t>
         </is>
       </c>
-      <c r="DW5" t="inlineStr">
+      <c r="EO5" t="inlineStr">
         <is>
           <t>PELIKAN</t>
         </is>
       </c>
-      <c r="DX5" t="inlineStr">
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>PELIKAN</t>
+        </is>
+      </c>
+      <c r="EQ5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="DY5" t="inlineStr">
+      <c r="ER5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="DZ5" t="inlineStr">
+      <c r="ES5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="EA5" t="inlineStr">
+      <c r="ET5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="EB5" t="inlineStr">
+      <c r="EU5" t="inlineStr">
+        <is>
+          <t>MYNEWS</t>
+        </is>
+      </c>
+      <c r="EV5" t="inlineStr">
         <is>
           <t>OPCOM</t>
         </is>
       </c>
-      <c r="EC5" t="inlineStr">
+      <c r="EW5" t="inlineStr">
         <is>
           <t>OPCOM</t>
         </is>
       </c>
-      <c r="ED5" t="inlineStr">
+      <c r="EX5" t="inlineStr">
         <is>
           <t>OPCOM</t>
         </is>
       </c>
-      <c r="EE5" t="inlineStr">
+      <c r="EY5" t="inlineStr">
         <is>
           <t>OPCOM</t>
         </is>
       </c>
-      <c r="EF5" t="inlineStr">
+      <c r="EZ5" t="inlineStr">
+        <is>
+          <t>OPCOM</t>
+        </is>
+      </c>
+      <c r="FA5" t="inlineStr">
         <is>
           <t>RUBEREX</t>
         </is>
       </c>
-      <c r="EG5" t="inlineStr">
+      <c r="FB5" t="inlineStr">
         <is>
           <t>RUBEREX</t>
         </is>
       </c>
-      <c r="EH5" t="inlineStr">
+      <c r="FC5" t="inlineStr">
         <is>
           <t>RUBEREX</t>
         </is>
       </c>
-      <c r="EI5" t="inlineStr">
+      <c r="FD5" t="inlineStr">
+        <is>
+          <t>RUBEREX</t>
+        </is>
+      </c>
+      <c r="FE5" t="inlineStr">
         <is>
           <t>MCLEAN</t>
         </is>
       </c>
-      <c r="EJ5" t="inlineStr">
+      <c r="FF5" t="inlineStr">
         <is>
           <t>MCLEAN</t>
         </is>
       </c>
-      <c r="EK5" t="inlineStr">
+      <c r="FG5" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="FH5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="EL5" t="inlineStr">
+      <c r="FI5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="EM5" t="inlineStr">
+      <c r="FJ5" t="inlineStr">
+        <is>
+          <t>MYEG</t>
+        </is>
+      </c>
+      <c r="FK5" t="inlineStr">
         <is>
           <t>KPOWER</t>
         </is>
       </c>
-      <c r="EN5" t="inlineStr">
+      <c r="FL5" t="inlineStr">
         <is>
           <t>KPOWER</t>
         </is>
       </c>
-      <c r="EO5" t="inlineStr">
+      <c r="FM5" t="inlineStr">
+        <is>
+          <t>KPOWER</t>
+        </is>
+      </c>
+      <c r="FN5" t="inlineStr">
         <is>
           <t>PCCS</t>
         </is>
       </c>
-      <c r="EP5" t="inlineStr">
+      <c r="FO5" t="inlineStr">
         <is>
           <t>PCCS</t>
         </is>
       </c>
-      <c r="EQ5" t="inlineStr">
+      <c r="FP5" t="inlineStr">
+        <is>
+          <t>PCCS</t>
+        </is>
+      </c>
+      <c r="FQ5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="ER5" t="inlineStr">
+      <c r="FR5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="ES5" t="inlineStr">
+      <c r="FS5" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="FT5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="ET5" t="inlineStr">
+      <c r="FU5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="EU5" t="inlineStr">
+      <c r="FV5" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="FW5" t="inlineStr">
         <is>
           <t>XINHWA</t>
         </is>
       </c>
-      <c r="EV5" t="inlineStr">
+      <c r="FX5" t="inlineStr">
         <is>
           <t>XINHWA</t>
         </is>
       </c>
-      <c r="EW5" t="inlineStr">
+      <c r="FY5" t="inlineStr">
+        <is>
+          <t>XINHWA</t>
+        </is>
+      </c>
+      <c r="FZ5" t="inlineStr">
         <is>
           <t>IGBREIT</t>
         </is>
       </c>
-      <c r="EX5" t="inlineStr">
+      <c r="GA5" t="inlineStr">
+        <is>
+          <t>IGBREIT</t>
+        </is>
+      </c>
+      <c r="GB5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="EY5" t="inlineStr">
+      <c r="GC5" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="GD5" t="inlineStr">
         <is>
           <t>MUHIBAH</t>
         </is>
       </c>
-      <c r="EZ5" t="inlineStr">
+      <c r="GE5" t="inlineStr">
+        <is>
+          <t>MUHIBAH</t>
+        </is>
+      </c>
+      <c r="GF5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="FA5" t="inlineStr">
+      <c r="GG5" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="GH5" t="inlineStr">
         <is>
           <t>PIE</t>
+        </is>
+      </c>
+      <c r="GI5" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="GJ5" t="inlineStr">
+        <is>
+          <t>GKENT</t>
+        </is>
+      </c>
+      <c r="GK5" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="GL5" t="inlineStr">
+        <is>
+          <t>WCT</t>
+        </is>
+      </c>
+      <c r="GM5" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="GN5" t="inlineStr">
+        <is>
+          <t>MASTEEL</t>
+        </is>
+      </c>
+      <c r="GO5" t="inlineStr">
+        <is>
+          <t>LIONIND</t>
+        </is>
+      </c>
+      <c r="GP5" t="inlineStr">
+        <is>
+          <t>ECONBHD</t>
+        </is>
+      </c>
+      <c r="GQ5" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="GR5" t="inlineStr">
+        <is>
+          <t>EKOVEST</t>
+        </is>
+      </c>
+      <c r="GS5" t="inlineStr">
+        <is>
+          <t>MRCB</t>
+        </is>
+      </c>
+      <c r="GT5" t="inlineStr">
+        <is>
+          <t>GADANG</t>
+        </is>
+      </c>
+      <c r="GU5" t="inlineStr">
+        <is>
+          <t>IWCITY</t>
         </is>
       </c>
     </row>
@@ -3699,451 +4665,589 @@
         <v>0.375</v>
       </c>
       <c r="I6" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="J6" t="n">
         <v>1.24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.34</v>
       </c>
       <c r="K6" t="n">
         <v>1.34</v>
       </c>
       <c r="L6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.35</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1.4</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>1.37</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1.36</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>1.37</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.27</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.43</v>
       </c>
       <c r="T6" t="n">
         <v>2.44</v>
       </c>
       <c r="U6" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.55</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>2.48</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>2.46</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>2.51</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.78</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
         <v>1.94</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
         <v>2.01</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
         <v>1.98</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AF6" t="n">
         <v>2.01</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
         <v>1.99</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
         <v>1.97</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>1.96</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AJ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" t="n">
         <v>0.35</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AL6" t="n">
         <v>0.385</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AM6" t="n">
         <v>0.39</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AN6" t="n">
         <v>0.385</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AO6" t="n">
         <v>0.375</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AP6" t="n">
         <v>0.37</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AQ6" t="n">
         <v>0.375</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AR6" t="n">
         <v>0.35</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AS6" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="AT6" t="n">
         <v>1.16</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>1.25</v>
       </c>
       <c r="AV6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW6" t="n">
         <v>1.27</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AX6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC6" t="n">
         <v>1.21</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="BD6" t="n">
         <v>1.32</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="BE6" t="n">
         <v>1.33</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BF6" t="n">
         <v>1.34</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BG6" t="n">
         <v>1.37</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BH6" t="n">
         <v>1.37</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BI6" t="n">
         <v>1.47</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BJ6" t="n">
         <v>1.45</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BK6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL6" t="n">
         <v>1.31</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BM6" t="n">
         <v>1.4</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BN6" t="n">
         <v>1.45</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BO6" t="n">
         <v>1.43</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BP6" t="n">
         <v>1.42</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BQ6" t="n">
         <v>1.41</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BR6" t="n">
         <v>1.41</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BS6" t="n">
         <v>1.43</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BT6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BU6" t="n">
         <v>0.57</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BV6" t="n">
         <v>0.665</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BW6" t="n">
         <v>0.67</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BX6" t="n">
         <v>0.67</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BY6" t="n">
         <v>0.725</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BZ6" t="n">
         <v>0.715</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="CA6" t="n">
         <v>0.72</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="CB6" t="n">
         <v>0.735</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="CC6" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="CD6" t="n">
         <v>0.395</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="CE6" t="n">
         <v>0.47</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="CF6" t="n">
         <v>0.47</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CG6" t="n">
         <v>0.47</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="CH6" t="n">
         <v>0.535</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CI6" t="n">
         <v>0.55</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CJ6" t="n">
         <v>0.575</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CK6" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CL6" t="n">
         <v>0.97</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CM6" t="n">
         <v>1.08</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CN6" t="n">
         <v>1.09</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CO6" t="n">
         <v>1.11</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CP6" t="n">
         <v>1.05</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CQ6" t="n">
         <v>1.08</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CR6" t="n">
         <v>1.07</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CS6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="CT6" t="n">
         <v>0.74</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CU6" t="n">
         <v>0.835</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CV6" t="n">
         <v>0.86</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CW6" t="n">
         <v>0.82</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CX6" t="n">
         <v>0.8</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CY6" t="n">
         <v>0.825</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CZ6" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="DA6" t="n">
         <v>0.755</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="DB6" t="n">
         <v>0.84</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="DC6" t="n">
         <v>0.825</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="DD6" t="n">
         <v>0.79</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="DE6" t="n">
         <v>0.77</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="DF6" t="n">
         <v>0.765</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="DG6" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="DH6" t="n">
         <v>0.475</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="DI6" t="n">
         <v>0.525</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="DJ6" t="n">
         <v>0.515</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="DK6" t="n">
         <v>0.5</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="DL6" t="n">
         <v>0.505</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DM6" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="DN6" t="n">
         <v>0.885</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DO6" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DP6" t="n">
         <v>0.96</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DQ6" t="n">
         <v>1</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DR6" t="n">
         <v>0.99</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DS6" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="DT6" t="n">
         <v>0.43</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DU6" t="n">
         <v>0.455</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="DV6" t="n">
         <v>0.45</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DW6" t="n">
         <v>0.445</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DX6" t="n">
         <v>0.435</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DY6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DZ6" t="n">
         <v>1.4</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="EA6" t="n">
         <v>1.47</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="EB6" t="n">
         <v>1.44</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="EC6" t="n">
         <v>1.47</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="ED6" t="n">
         <v>1.53</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="EE6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="EF6" t="n">
         <v>0.845</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="EG6" t="n">
         <v>0.995</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="EH6" t="n">
         <v>1.02</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="EI6" t="n">
         <v>1.1</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="EJ6" t="n">
         <v>1.11</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="EK6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="EL6" t="n">
         <v>0.5</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="EM6" t="n">
         <v>0.54</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="EN6" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="EO6" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="EP6" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="EQ6" t="n">
         <v>0.8</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="ER6" t="n">
         <v>0.95</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="ES6" t="n">
         <v>0.945</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="ET6" t="n">
         <v>0.955</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EU6" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="EV6" t="n">
         <v>0.715</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="EW6" t="n">
         <v>0.755</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EX6" t="n">
         <v>0.76</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EY6" t="n">
         <v>0.765</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EZ6" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="FA6" t="n">
         <v>0.635</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="FB6" t="n">
         <v>0.7</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="FC6" t="n">
         <v>0.695</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="FD6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="FE6" t="n">
         <v>0.31</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="FF6" t="n">
         <v>0.33</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="FG6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="FH6" t="n">
         <v>1.16</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="FI6" t="n">
         <v>1.32</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="FJ6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="FK6" t="n">
         <v>1.92</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="FL6" t="n">
         <v>2.19</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="FM6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="FN6" t="n">
         <v>0.4</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="FO6" t="n">
         <v>0.435</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="FP6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="FQ6" t="n">
         <v>0.855</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="FR6" t="n">
         <v>0.925</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="FS6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="FT6" t="n">
         <v>0.64</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="FU6" t="n">
         <v>0.68</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="FV6" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="FW6" t="n">
         <v>0.5</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="FX6" t="n">
         <v>0.58</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="FY6" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="FZ6" t="n">
         <v>1.92</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="GA6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="GB6" t="n">
         <v>0.545</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="GC6" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="GD6" t="n">
         <v>1.73</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="GE6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="GF6" t="n">
         <v>3.09</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="GG6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="GH6" t="n">
         <v>1.42</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>0.705</v>
       </c>
     </row>
     <row r="7">
@@ -4172,451 +5276,589 @@
         <v>0.385</v>
       </c>
       <c r="I7" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="J7" t="n">
         <v>1.32</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>1.36</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>1.34</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.4</v>
       </c>
       <c r="N7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.37</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1.39</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>1.41</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.47</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>2.52</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>2.48</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>2.55</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>2.56</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>2.52</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>2.52</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>2.54</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AB7" t="n">
         <v>1.92</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
         <v>1.99</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
         <v>2.02</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
         <v>2.03</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AF7" t="n">
         <v>2.03</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AG7" t="n">
         <v>2.01</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AH7" t="n">
         <v>2</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
         <v>2.01</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AJ7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK7" t="n">
         <v>0.39</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AL7" t="n">
         <v>0.405</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AM7" t="n">
         <v>0.395</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AN7" t="n">
         <v>0.39</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AO7" t="n">
         <v>0.385</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AP7" t="n">
         <v>0.385</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AQ7" t="n">
         <v>0.375</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AR7" t="n">
         <v>0.37</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AS7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AT7" t="n">
         <v>1.26</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AU7" t="n">
         <v>1.27</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AV7" t="n">
         <v>1.29</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AW7" t="n">
         <v>1.29</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AX7" t="n">
         <v>1.27</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AY7" t="n">
         <v>1.29</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AZ7" t="n">
         <v>1.29</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="BA7" t="n">
         <v>1.36</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="BB7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC7" t="n">
         <v>1.33</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="BD7" t="n">
         <v>1.37</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="BE7" t="n">
         <v>1.34</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BF7" t="n">
         <v>1.39</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BG7" t="n">
         <v>1.42</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BH7" t="n">
         <v>1.47</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BI7" t="n">
         <v>1.48</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BJ7" t="n">
         <v>1.5</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BK7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL7" t="n">
         <v>1.41</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BM7" t="n">
         <v>1.44</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BN7" t="n">
         <v>1.45</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BO7" t="n">
         <v>1.44</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BP7" t="n">
         <v>1.42</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BQ7" t="n">
         <v>1.41</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BR7" t="n">
         <v>1.46</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BS7" t="n">
         <v>1.45</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BT7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BU7" t="n">
         <v>0.66</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BV7" t="n">
         <v>0.695</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BW7" t="n">
         <v>0.675</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BX7" t="n">
         <v>0.735</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BY7" t="n">
         <v>0.74</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BZ7" t="n">
         <v>0.74</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="CA7" t="n">
         <v>0.755</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="CB7" t="n">
         <v>0.76</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="CC7" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="CD7" t="n">
         <v>0.465</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="CE7" t="n">
         <v>0.505</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="CF7" t="n">
         <v>0.485</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="CG7" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="CH7" t="n">
         <v>0.58</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CI7" t="n">
         <v>0.585</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CJ7" t="n">
         <v>0.6</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CK7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="CL7" t="n">
         <v>1.07</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CM7" t="n">
         <v>1.11</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CN7" t="n">
         <v>1.11</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CO7" t="n">
         <v>1.11</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CP7" t="n">
         <v>1.05</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CQ7" t="n">
         <v>1.09</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CR7" t="n">
         <v>1.11</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CS7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="CT7" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CU7" t="n">
         <v>0.855</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CV7" t="n">
         <v>0.86</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CW7" t="n">
         <v>0.825</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CX7" t="n">
         <v>0.84</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CY7" t="n">
         <v>0.83</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CZ7" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="DA7" t="n">
         <v>0.84</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="DB7" t="n">
         <v>0.865</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="DC7" t="n">
         <v>0.83</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="DD7" t="n">
         <v>0.79</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="DE7" t="n">
         <v>0.785</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="DF7" t="n">
         <v>0.775</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="DG7" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="DH7" t="n">
         <v>0.52</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="DI7" t="n">
         <v>0.535</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="DJ7" t="n">
         <v>0.52</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="DK7" t="n">
         <v>0.515</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="DL7" t="n">
         <v>0.545</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="DM7" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="DN7" t="n">
         <v>0.93</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DO7" t="n">
         <v>0.995</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DP7" t="n">
         <v>1.02</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DQ7" t="n">
         <v>1</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DR7" t="n">
         <v>1.03</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DS7" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="DT7" t="n">
         <v>0.46</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DU7" t="n">
         <v>0.455</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="DV7" t="n">
         <v>0.46</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DW7" t="n">
         <v>0.445</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DX7" t="n">
         <v>0.435</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DY7" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="DZ7" t="n">
         <v>1.49</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="EA7" t="n">
         <v>1.53</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="EB7" t="n">
         <v>1.5</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="EC7" t="n">
         <v>1.54</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="ED7" t="n">
         <v>1.65</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="EE7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="EF7" t="n">
         <v>1.03</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="EG7" t="n">
         <v>1.06</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="EH7" t="n">
         <v>1.24</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="EI7" t="n">
         <v>1.19</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="EJ7" t="n">
         <v>1.15</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="EK7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="EL7" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="EM7" t="n">
         <v>0.59</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="EN7" t="n">
         <v>0.575</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="EO7" t="n">
         <v>0.59</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="EP7" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="EQ7" t="n">
         <v>0.955</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="ER7" t="n">
         <v>1.02</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="ES7" t="n">
         <v>0.965</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="ET7" t="n">
         <v>0.96</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EU7" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="EV7" t="n">
         <v>0.8</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="EW7" t="n">
         <v>0.79</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EX7" t="n">
         <v>0.775</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EY7" t="n">
         <v>0.775</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EZ7" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="FA7" t="n">
         <v>0.73</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="FB7" t="n">
         <v>0.71</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="FC7" t="n">
         <v>0.73</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="FD7" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="FE7" t="n">
         <v>0.335</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="FF7" t="n">
         <v>0.34</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="FG7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="FH7" t="n">
         <v>1.37</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="FI7" t="n">
         <v>1.36</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="FJ7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="FK7" t="n">
         <v>2.2</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="FL7" t="n">
         <v>2.57</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="FM7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="FN7" t="n">
         <v>0.43</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="FO7" t="n">
         <v>0.455</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="FP7" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="FQ7" t="n">
         <v>0.93</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="FR7" t="n">
         <v>0.965</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="FS7" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="FT7" t="n">
         <v>0.68</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="FU7" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="FV7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="FW7" t="n">
         <v>0.58</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="FX7" t="n">
         <v>0.615</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="FY7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="FZ7" t="n">
         <v>2</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="GA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB7" t="n">
         <v>0.645</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="GC7" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="GD7" t="n">
         <v>1.89</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="GE7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="GF7" t="n">
         <v>3.35</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="GG7" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="GH7" t="n">
         <v>1.6</v>
+      </c>
+      <c r="GI7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="GJ7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="GK7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="GO7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="GR7" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="8">
@@ -4645,451 +5887,589 @@
         <v>0.37</v>
       </c>
       <c r="I8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="J8" t="n">
         <v>1.15</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>1.3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>1.32</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>1.35</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1.36</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>1.34</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>1.36</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>1.35</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.98</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>2.35</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>2.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.49</v>
       </c>
       <c r="V8" t="n">
         <v>2.44</v>
       </c>
       <c r="W8" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y8" t="n">
         <v>2.45</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>2.48</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AB8" t="n">
         <v>1.75</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AC8" t="n">
         <v>1.94</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
         <v>1.96</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
         <v>1.98</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AF8" t="n">
         <v>1.98</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AG8" t="n">
         <v>1.95</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AH8" t="n">
         <v>1.95</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>1.95</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK8" t="n">
         <v>0.31</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AL8" t="n">
         <v>0.375</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AM8" t="n">
         <v>0.365</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AN8" t="n">
         <v>0.37</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AO8" t="n">
         <v>0.37</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AP8" t="n">
         <v>0.36</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AQ8" t="n">
         <v>0.35</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AR8" t="n">
         <v>0.34</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AS8" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="AT8" t="n">
         <v>1.13</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AU8" t="n">
         <v>1.2</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AV8" t="n">
         <v>1.22</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AW8" t="n">
         <v>1.26</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AX8" t="n">
         <v>1.23</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AY8" t="n">
         <v>1.23</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AZ8" t="n">
         <v>1.25</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="BA8" t="n">
         <v>1.27</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="BB8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC8" t="n">
         <v>1.17</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="BD8" t="n">
         <v>1.3</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="BE8" t="n">
         <v>1.29</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BF8" t="n">
         <v>1.33</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BG8" t="n">
         <v>1.36</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BH8" t="n">
         <v>1.35</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BI8" t="n">
         <v>1.42</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BJ8" t="n">
         <v>1.43</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BK8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL8" t="n">
         <v>1.31</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BM8" t="n">
         <v>1.4</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BN8" t="n">
         <v>1.41</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BO8" t="n">
         <v>1.41</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BP8" t="n">
         <v>1.4</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BQ8" t="n">
         <v>1.39</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BR8" t="n">
         <v>1.4</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BS8" t="n">
         <v>1.4</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BT8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BU8" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BV8" t="n">
         <v>0.64</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BW8" t="n">
         <v>0.65</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BX8" t="n">
         <v>0.67</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BY8" t="n">
         <v>0.7</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BZ8" t="n">
         <v>0.7</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="CA8" t="n">
         <v>0.715</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="CB8" t="n">
         <v>0.72</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="CC8" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="CD8" t="n">
         <v>0.395</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="CE8" t="n">
         <v>0.45</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="CF8" t="n">
         <v>0.455</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="CG8" t="n">
         <v>0.46</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="CH8" t="n">
         <v>0.525</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CI8" t="n">
         <v>0.54</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CJ8" t="n">
         <v>0.55</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CK8" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CL8" t="n">
         <v>0.97</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CM8" t="n">
         <v>1.04</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CN8" t="n">
         <v>1.07</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CO8" t="n">
         <v>1.06</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CP8" t="n">
         <v>1.03</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CQ8" t="n">
         <v>1.06</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CR8" t="n">
         <v>1.06</v>
       </c>
-      <c r="CI8" t="n">
+      <c r="CS8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="CT8" t="n">
         <v>0.735</v>
       </c>
-      <c r="CJ8" t="n">
+      <c r="CU8" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CV8" t="n">
         <v>0.82</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CW8" t="n">
         <v>0.795</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CX8" t="n">
         <v>0.8</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="CY8" t="n">
         <v>0.79</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CZ8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="DA8" t="n">
         <v>0.73</v>
       </c>
-      <c r="CP8" t="n">
+      <c r="DB8" t="n">
         <v>0.795</v>
       </c>
-      <c r="CQ8" t="n">
+      <c r="DC8" t="n">
         <v>0.795</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="DD8" t="n">
         <v>0.755</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="DE8" t="n">
         <v>0.75</v>
       </c>
-      <c r="CT8" t="n">
+      <c r="DF8" t="n">
         <v>0.755</v>
       </c>
-      <c r="CU8" t="n">
+      <c r="DG8" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="DH8" t="n">
         <v>0.475</v>
       </c>
-      <c r="CV8" t="n">
+      <c r="DI8" t="n">
         <v>0.51</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="DJ8" t="n">
         <v>0.5</v>
       </c>
-      <c r="CX8" t="n">
+      <c r="DK8" t="n">
         <v>0.495</v>
       </c>
-      <c r="CY8" t="n">
+      <c r="DL8" t="n">
         <v>0.505</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="DM8" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DN8" t="n">
         <v>0.88</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DO8" t="n">
         <v>0.925</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DP8" t="n">
         <v>0.955</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DQ8" t="n">
         <v>0.965</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DR8" t="n">
         <v>0.955</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DS8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="DT8" t="n">
         <v>0.43</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="DU8" t="n">
         <v>0.445</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="DV8" t="n">
         <v>0.445</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="DW8" t="n">
         <v>0.435</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DX8" t="n">
         <v>0.425</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DY8" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="DZ8" t="n">
         <v>1.4</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="EA8" t="n">
         <v>1.37</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="EB8" t="n">
         <v>1.44</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="EC8" t="n">
         <v>1.45</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="ED8" t="n">
         <v>1.53</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="EE8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="EF8" t="n">
         <v>0.845</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="EG8" t="n">
         <v>0.985</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="EH8" t="n">
         <v>1.01</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="EI8" t="n">
         <v>1.02</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="EJ8" t="n">
         <v>1.08</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="EK8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="EL8" t="n">
         <v>0.495</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="EM8" t="n">
         <v>0.535</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="EN8" t="n">
         <v>0.545</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="EO8" t="n">
         <v>0.55</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="EP8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EQ8" t="n">
         <v>0.8</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="ER8" t="n">
         <v>0.895</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="ES8" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="ET8" t="n">
         <v>0.92</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EU8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="EV8" t="n">
         <v>0.7</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="EW8" t="n">
         <v>0.745</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EX8" t="n">
         <v>0.745</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EY8" t="n">
         <v>0.74</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EZ8" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="FA8" t="n">
         <v>0.63</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="FB8" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="FC8" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="FD8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="FE8" t="n">
         <v>0.31</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="FF8" t="n">
         <v>0.33</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="FG8" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="FH8" t="n">
         <v>1.15</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="FI8" t="n">
         <v>1.3</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="FJ8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="FK8" t="n">
         <v>1.92</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="FL8" t="n">
         <v>2.12</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="FM8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="FN8" t="n">
         <v>0.4</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="FO8" t="n">
         <v>0.43</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="FP8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="FQ8" t="n">
         <v>0.855</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="FR8" t="n">
         <v>0.925</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="FS8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="FT8" t="n">
         <v>0.64</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="FU8" t="n">
         <v>0.675</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="FV8" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="FW8" t="n">
         <v>0.495</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="FX8" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="FY8" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="FZ8" t="n">
         <v>1.9</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="GA8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="GB8" t="n">
         <v>0.535</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="GC8" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="GD8" t="n">
         <v>1.73</v>
       </c>
-      <c r="EZ8" t="n">
+      <c r="GE8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="GF8" t="n">
         <v>3.09</v>
       </c>
-      <c r="FA8" t="n">
+      <c r="GG8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="GH8" t="n">
         <v>1.42</v>
+      </c>
+      <c r="GI8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="GJ8" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="GK8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="GL8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="GM8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="GN8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="GO8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="GP8" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="GQ8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="GR8" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="GS8" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>0.695</v>
       </c>
     </row>
     <row r="9">
@@ -5118,451 +6498,589 @@
         <v>0.375</v>
       </c>
       <c r="I9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="J9" t="n">
         <v>1.32</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>1.31</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>1.34</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>1.39</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>1.38</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.36</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.38</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.44</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>2.4</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>2.43</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>2.53</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>2.5</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>2.46</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>2.48</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>2.49</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AB9" t="n">
         <v>1.92</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AC9" t="n">
         <v>1.98</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AD9" t="n">
         <v>1.96</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AE9" t="n">
         <v>2.02</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AF9" t="n">
         <v>2.01</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AG9" t="n">
         <v>1.95</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AH9" t="n">
         <v>1.96</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>1.98</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AJ9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK9" t="n">
         <v>0.385</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AL9" t="n">
         <v>0.385</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AM9" t="n">
         <v>0.38</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AN9" t="n">
         <v>0.375</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AO9" t="n">
         <v>0.37</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AP9" t="n">
         <v>0.36</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AQ9" t="n">
         <v>0.35</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AR9" t="n">
         <v>0.35</v>
       </c>
-      <c r="AO9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AS9" t="n">
-        <v>1.26</v>
+        <v>0.35</v>
       </c>
       <c r="AT9" t="n">
         <v>1.24</v>
       </c>
       <c r="AU9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW9" t="n">
         <v>1.26</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AX9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA9" t="n">
         <v>1.34</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="BB9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC9" t="n">
         <v>1.32</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="BD9" t="n">
         <v>1.31</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="BE9" t="n">
         <v>1.32</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="BF9" t="n">
         <v>1.36</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BG9" t="n">
         <v>1.38</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BH9" t="n">
         <v>1.44</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BI9" t="n">
         <v>1.45</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BJ9" t="n">
         <v>1.47</v>
       </c>
-      <c r="BE9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>1.4</v>
-      </c>
       <c r="BK9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="BL9" t="n">
         <v>1.4</v>
       </c>
       <c r="BM9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BU9" t="n">
         <v>0.655</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BV9" t="n">
         <v>0.655</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BW9" t="n">
         <v>0.66</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BX9" t="n">
         <v>0.725</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BY9" t="n">
         <v>0.715</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BZ9" t="n">
         <v>0.71</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="CA9" t="n">
         <v>0.735</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="CB9" t="n">
         <v>0.73</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="CC9" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CD9" t="n">
         <v>0.465</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="CE9" t="n">
         <v>0.465</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="CF9" t="n">
         <v>0.475</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="CG9" t="n">
         <v>0.54</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="CH9" t="n">
         <v>0.54</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CI9" t="n">
         <v>0.575</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CJ9" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CK9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CL9" t="n">
         <v>1.07</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CM9" t="n">
         <v>1.05</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CN9" t="n">
         <v>1.1</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CO9" t="n">
         <v>1.06</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CP9" t="n">
         <v>1.05</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CQ9" t="n">
         <v>1.07</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CR9" t="n">
         <v>1.1</v>
       </c>
-      <c r="CI9" t="n">
+      <c r="CS9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="CT9" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="CJ9" t="n">
+      <c r="CU9" t="n">
         <v>0.85</v>
       </c>
-      <c r="CK9" t="n">
+      <c r="CV9" t="n">
         <v>0.825</v>
       </c>
-      <c r="CL9" t="n">
+      <c r="CW9" t="n">
         <v>0.8</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="CX9" t="n">
         <v>0.83</v>
       </c>
-      <c r="CN9" t="n">
+      <c r="CY9" t="n">
         <v>0.8</v>
       </c>
-      <c r="CO9" t="n">
+      <c r="CZ9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="DA9" t="n">
         <v>0.825</v>
       </c>
-      <c r="CP9" t="n">
+      <c r="DB9" t="n">
         <v>0.835</v>
       </c>
-      <c r="CQ9" t="n">
+      <c r="DC9" t="n">
         <v>0.795</v>
       </c>
-      <c r="CR9" t="n">
+      <c r="DD9" t="n">
         <v>0.76</v>
       </c>
-      <c r="CS9" t="n">
+      <c r="DE9" t="n">
         <v>0.775</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="DF9" t="n">
         <v>0.775</v>
       </c>
-      <c r="CU9" t="n">
+      <c r="DG9" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="DH9" t="n">
         <v>0.52</v>
       </c>
-      <c r="CV9" t="n">
+      <c r="DI9" t="n">
         <v>0.52</v>
       </c>
-      <c r="CW9" t="n">
+      <c r="DJ9" t="n">
         <v>0.5</v>
       </c>
-      <c r="CX9" t="n">
+      <c r="DK9" t="n">
         <v>0.505</v>
       </c>
-      <c r="CY9" t="n">
+      <c r="DL9" t="n">
         <v>0.54</v>
       </c>
-      <c r="CZ9" t="n">
+      <c r="DM9" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="DN9" t="n">
         <v>0.93</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DO9" t="n">
         <v>0.97</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DP9" t="n">
         <v>0.995</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DQ9" t="n">
         <v>0.99</v>
       </c>
-      <c r="DD9" t="n">
+      <c r="DR9" t="n">
         <v>0.975</v>
       </c>
-      <c r="DE9" t="n">
+      <c r="DS9" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="DT9" t="n">
         <v>0.455</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="DU9" t="n">
         <v>0.45</v>
       </c>
-      <c r="DG9" t="n">
+      <c r="DV9" t="n">
         <v>0.445</v>
       </c>
-      <c r="DH9" t="n">
+      <c r="DW9" t="n">
         <v>0.435</v>
       </c>
-      <c r="DI9" t="n">
+      <c r="DX9" t="n">
         <v>0.43</v>
       </c>
-      <c r="DJ9" t="n">
+      <c r="DY9" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DZ9" t="n">
         <v>1.47</v>
       </c>
-      <c r="DK9" t="n">
+      <c r="EA9" t="n">
         <v>1.53</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="EB9" t="n">
         <v>1.46</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="EC9" t="n">
         <v>1.53</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="ED9" t="n">
         <v>1.64</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="EE9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="EF9" t="n">
         <v>1.01</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="EG9" t="n">
         <v>1.03</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="EH9" t="n">
         <v>1.1</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="EI9" t="n">
         <v>1.1</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="EJ9" t="n">
         <v>1.13</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="EK9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="EL9" t="n">
         <v>0.55</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="EM9" t="n">
         <v>0.555</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="EN9" t="n">
         <v>0.555</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="EO9" t="n">
         <v>0.57</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="EP9" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="EQ9" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="ER9" t="n">
         <v>0.945</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="ES9" t="n">
         <v>0.955</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="ET9" t="n">
         <v>0.925</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EU9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="EV9" t="n">
         <v>0.77</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="EW9" t="n">
         <v>0.755</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EX9" t="n">
         <v>0.765</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EY9" t="n">
         <v>0.745</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EZ9" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="FA9" t="n">
         <v>0.71</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="FB9" t="n">
         <v>0.695</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="FC9" t="n">
         <v>0.705</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="FD9" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="FE9" t="n">
         <v>0.33</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="FF9" t="n">
         <v>0.33</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="FG9" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="FH9" t="n">
         <v>1.33</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="FI9" t="n">
         <v>1.32</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="FJ9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="FK9" t="n">
         <v>2.17</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="FL9" t="n">
         <v>2.52</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="FM9" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="FN9" t="n">
         <v>0.43</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="FO9" t="n">
         <v>0.45</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="FP9" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="FQ9" t="n">
         <v>0.925</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="FR9" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="FS9" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="FT9" t="n">
         <v>0.675</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="FU9" t="n">
         <v>0.68</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="FV9" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="FW9" t="n">
         <v>0.58</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="FX9" t="n">
         <v>0.575</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="FY9" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="FZ9" t="n">
         <v>2</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="GA9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="GB9" t="n">
         <v>0.625</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="GC9" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="GD9" t="n">
         <v>1.87</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="GE9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="GF9" t="n">
         <v>3.32</v>
       </c>
-      <c r="FA9" t="n">
+      <c r="GG9" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="GH9" t="n">
         <v>1.57</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="GJ9" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="GK9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="GO9" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="GP9" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="GQ9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="GR9" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="10">
@@ -5591,451 +7109,589 @@
         <v>484031</v>
       </c>
       <c r="I10" t="n">
+        <v>197374</v>
+      </c>
+      <c r="J10" t="n">
         <v>104049</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>35347</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>22219</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>52133</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>24149</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>19039</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>18846</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>61369</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
+        <v>30132</v>
+      </c>
+      <c r="S10" t="n">
         <v>280216</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>84633</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>43018</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>46387</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>19055</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>30241</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>30856</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>42048</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
+        <v>73376</v>
+      </c>
+      <c r="AB10" t="n">
         <v>63488</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AC10" t="n">
         <v>30603</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
         <v>11761</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AE10" t="n">
         <v>24160</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
         <v>14107</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AG10" t="n">
         <v>21132</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
         <v>13259</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
         <v>17007</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="n">
+        <v>14589</v>
+      </c>
+      <c r="AK10" t="n">
         <v>90095</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AL10" t="n">
         <v>88673</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AM10" t="n">
         <v>20741</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AN10" t="n">
         <v>52509</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AO10" t="n">
         <v>49703</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AP10" t="n">
         <v>36267</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AQ10" t="n">
         <v>25676</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AR10" t="n">
         <v>49793</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AS10" t="n">
+        <v>17997</v>
+      </c>
+      <c r="AT10" t="n">
         <v>192687</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AU10" t="n">
         <v>78343</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AV10" t="n">
         <v>120754</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AW10" t="n">
         <v>82725</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AX10" t="n">
         <v>52267</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AY10" t="n">
         <v>51518</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AZ10" t="n">
         <v>60294</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="BA10" t="n">
         <v>243412</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="BB10" t="n">
+        <v>123024</v>
+      </c>
+      <c r="BC10" t="n">
         <v>423891</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="BD10" t="n">
         <v>168988</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="BE10" t="n">
         <v>79916</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="BF10" t="n">
         <v>159107</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BG10" t="n">
         <v>152256</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BH10" t="n">
         <v>227901</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BI10" t="n">
         <v>147288</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BJ10" t="n">
         <v>203856</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BK10" t="n">
+        <v>74876</v>
+      </c>
+      <c r="BL10" t="n">
         <v>125115</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BM10" t="n">
         <v>76317</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BN10" t="n">
         <v>103767</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BO10" t="n">
         <v>43833</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BP10" t="n">
         <v>31942</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BQ10" t="n">
         <v>40227</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BR10" t="n">
         <v>128177</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BS10" t="n">
         <v>144960</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BT10" t="n">
+        <v>108407</v>
+      </c>
+      <c r="BU10" t="n">
         <v>223041</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BV10" t="n">
         <v>151728</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BW10" t="n">
         <v>69290</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BX10" t="n">
         <v>171769</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BY10" t="n">
         <v>117682</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BZ10" t="n">
         <v>49756</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="CA10" t="n">
         <v>191069</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="CB10" t="n">
         <v>85409</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="CC10" t="n">
+        <v>46854</v>
+      </c>
+      <c r="CD10" t="n">
         <v>428207</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="CE10" t="n">
         <v>563114</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="CF10" t="n">
         <v>156779</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="CG10" t="n">
         <v>943599</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="CH10" t="n">
         <v>380838</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CI10" t="n">
         <v>412458</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CJ10" t="n">
         <v>472964</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CK10" t="n">
+        <v>174161</v>
+      </c>
+      <c r="CL10" t="n">
         <v>53881</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CM10" t="n">
         <v>23673</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CN10" t="n">
         <v>24966</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CO10" t="n">
         <v>13029</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CP10" t="n">
         <v>7565</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CQ10" t="n">
         <v>9107</v>
       </c>
-      <c r="CH10" t="n">
+      <c r="CR10" t="n">
         <v>20004</v>
       </c>
-      <c r="CI10" t="n">
+      <c r="CS10" t="n">
+        <v>18933</v>
+      </c>
+      <c r="CT10" t="n">
         <v>184841</v>
       </c>
-      <c r="CJ10" t="n">
+      <c r="CU10" t="n">
         <v>105847</v>
       </c>
-      <c r="CK10" t="n">
+      <c r="CV10" t="n">
         <v>67634</v>
       </c>
-      <c r="CL10" t="n">
+      <c r="CW10" t="n">
         <v>26916</v>
       </c>
-      <c r="CM10" t="n">
+      <c r="CX10" t="n">
         <v>57599</v>
       </c>
-      <c r="CN10" t="n">
+      <c r="CY10" t="n">
         <v>43726</v>
       </c>
-      <c r="CO10" t="n">
+      <c r="CZ10" t="n">
+        <v>28653</v>
+      </c>
+      <c r="DA10" t="n">
         <v>48993</v>
       </c>
-      <c r="CP10" t="n">
+      <c r="DB10" t="n">
         <v>52886</v>
       </c>
-      <c r="CQ10" t="n">
+      <c r="DC10" t="n">
         <v>5979</v>
       </c>
-      <c r="CR10" t="n">
+      <c r="DD10" t="n">
         <v>3304</v>
       </c>
-      <c r="CS10" t="n">
+      <c r="DE10" t="n">
         <v>10676</v>
       </c>
-      <c r="CT10" t="n">
+      <c r="DF10" t="n">
         <v>2279</v>
       </c>
-      <c r="CU10" t="n">
+      <c r="DG10" t="n">
+        <v>3356</v>
+      </c>
+      <c r="DH10" t="n">
         <v>55893</v>
       </c>
-      <c r="CV10" t="n">
+      <c r="DI10" t="n">
         <v>39457</v>
       </c>
-      <c r="CW10" t="n">
+      <c r="DJ10" t="n">
         <v>12744</v>
       </c>
-      <c r="CX10" t="n">
+      <c r="DK10" t="n">
         <v>16417</v>
       </c>
-      <c r="CY10" t="n">
+      <c r="DL10" t="n">
         <v>174198</v>
       </c>
-      <c r="CZ10" t="n">
+      <c r="DM10" t="n">
+        <v>229106</v>
+      </c>
+      <c r="DN10" t="n">
         <v>36131</v>
       </c>
-      <c r="DA10" t="n">
+      <c r="DO10" t="n">
         <v>236476</v>
       </c>
-      <c r="DB10" t="n">
+      <c r="DP10" t="n">
         <v>210504</v>
       </c>
-      <c r="DC10" t="n">
+      <c r="DQ10" t="n">
         <v>52690</v>
       </c>
-      <c r="DD10" t="n">
+      <c r="DR10" t="n">
         <v>158557</v>
       </c>
-      <c r="DE10" t="n">
+      <c r="DS10" t="n">
+        <v>49210</v>
+      </c>
+      <c r="DT10" t="n">
         <v>51530</v>
       </c>
-      <c r="DF10" t="n">
+      <c r="DU10" t="n">
         <v>6122</v>
       </c>
-      <c r="DG10" t="n">
+      <c r="DV10" t="n">
         <v>23445</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="DW10" t="n">
         <v>9090</v>
       </c>
-      <c r="DI10" t="n">
+      <c r="DX10" t="n">
         <v>10165</v>
       </c>
-      <c r="DJ10" t="n">
+      <c r="DY10" t="n">
+        <v>13470</v>
+      </c>
+      <c r="DZ10" t="n">
         <v>37397</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="EA10" t="n">
         <v>29931</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="EB10" t="n">
         <v>7379</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="EC10" t="n">
         <v>16965</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="ED10" t="n">
         <v>46663</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="EE10" t="n">
+        <v>48458</v>
+      </c>
+      <c r="EF10" t="n">
         <v>452463</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="EG10" t="n">
         <v>245978</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="EH10" t="n">
         <v>438393</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="EI10" t="n">
         <v>268788</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="EJ10" t="n">
         <v>80463</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="EK10" t="n">
+        <v>146573</v>
+      </c>
+      <c r="EL10" t="n">
         <v>261026</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="EM10" t="n">
         <v>235525</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="EN10" t="n">
         <v>55894</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="EO10" t="n">
         <v>151724</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="EP10" t="n">
+        <v>68742</v>
+      </c>
+      <c r="EQ10" t="n">
         <v>71037</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="ER10" t="n">
         <v>52158</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="ES10" t="n">
         <v>2175</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="ET10" t="n">
         <v>40612</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EU10" t="n">
+        <v>17231</v>
+      </c>
+      <c r="EV10" t="n">
         <v>379261</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="EW10" t="n">
         <v>101877</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EX10" t="n">
         <v>71775</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EY10" t="n">
         <v>115697</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EZ10" t="n">
+        <v>44197</v>
+      </c>
+      <c r="FA10" t="n">
         <v>149002</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="FB10" t="n">
         <v>58689</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="FC10" t="n">
         <v>64810</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="FD10" t="n">
+        <v>16827</v>
+      </c>
+      <c r="FE10" t="n">
         <v>266564</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="FF10" t="n">
         <v>130652</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="FG10" t="n">
+        <v>242107</v>
+      </c>
+      <c r="FH10" t="n">
         <v>2810032</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="FI10" t="n">
         <v>1062992</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="FJ10" t="n">
+        <v>555854</v>
+      </c>
+      <c r="FK10" t="n">
         <v>51333</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="FL10" t="n">
         <v>60780</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="FM10" t="n">
+        <v>41424</v>
+      </c>
+      <c r="FN10" t="n">
         <v>70426</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="FO10" t="n">
         <v>117335</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="FP10" t="n">
+        <v>19367</v>
+      </c>
+      <c r="FQ10" t="n">
         <v>639668</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="FR10" t="n">
         <v>441600</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="FS10" t="n">
+        <v>117658</v>
+      </c>
+      <c r="FT10" t="n">
         <v>135679</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="FU10" t="n">
         <v>81749</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="FV10" t="n">
+        <v>34434</v>
+      </c>
+      <c r="FW10" t="n">
         <v>109117</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="FX10" t="n">
         <v>135376</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="FY10" t="n">
+        <v>70191</v>
+      </c>
+      <c r="FZ10" t="n">
         <v>54402</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="GA10" t="n">
+        <v>31812</v>
+      </c>
+      <c r="GB10" t="n">
         <v>78068</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="GC10" t="n">
+        <v>19648</v>
+      </c>
+      <c r="GD10" t="n">
         <v>45519</v>
       </c>
-      <c r="EZ10" t="n">
+      <c r="GE10" t="n">
+        <v>24544</v>
+      </c>
+      <c r="GF10" t="n">
         <v>54760</v>
       </c>
-      <c r="FA10" t="n">
+      <c r="GG10" t="n">
+        <v>44751</v>
+      </c>
+      <c r="GH10" t="n">
         <v>76674</v>
+      </c>
+      <c r="GI10" t="n">
+        <v>59297</v>
+      </c>
+      <c r="GJ10" t="n">
+        <v>68675</v>
+      </c>
+      <c r="GK10" t="n">
+        <v>50715</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>148469</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>40948</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>100293</v>
+      </c>
+      <c r="GO10" t="n">
+        <v>112446</v>
+      </c>
+      <c r="GP10" t="n">
+        <v>237350</v>
+      </c>
+      <c r="GQ10" t="n">
+        <v>40514</v>
+      </c>
+      <c r="GR10" t="n">
+        <v>573079</v>
+      </c>
+      <c r="GS10" t="n">
+        <v>483325</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>79627</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>408576</v>
       </c>
     </row>
   </sheetData>

--- a/module/monitor.xlsx
+++ b/module/monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimke\OneDrive\Documents\investment and trading\stocks and equity\sandbox\WealthAndFreedom\module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="114_{76AE63C5-D422-42C8-B695-F6B1AA4E55A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{153C099D-3399-4EF6-A896-2DF4CDC165BB}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_A20D9A7F3841587EE94E24554E5DCE3A874662A7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7EAC71B5-514E-4916-A522-8E5456FBB7F2}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="0" windowWidth="17445" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1365" yWindow="14175" windowWidth="17445" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
-  <si>
-    <t>2020-02-14</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>2020-02-17</t>
   </si>
@@ -41,13 +38,7 @@
     <t>2020-02-18</t>
   </si>
   <si>
-    <t>5259</t>
-  </si>
-  <si>
-    <t>5073</t>
-  </si>
-  <si>
-    <t>9008</t>
+    <t>2020-02-19</t>
   </si>
   <si>
     <t>4723</t>
@@ -62,13 +53,10 @@
     <t>1538</t>
   </si>
   <si>
-    <t>EATECH</t>
-  </si>
-  <si>
-    <t>NAIM</t>
-  </si>
-  <si>
-    <t>OMESTI</t>
+    <t>9466</t>
+  </si>
+  <si>
+    <t>5286</t>
   </si>
   <si>
     <t>JAKS</t>
@@ -81,6 +69,12 @@
   </si>
   <si>
     <t>SYMLIFE</t>
+  </si>
+  <si>
+    <t>KKB</t>
+  </si>
+  <si>
+    <t>MI</t>
   </si>
 </sst>
 </file>
@@ -443,15 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I10"/>
+      <selection activeCell="A6" sqref="A6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -489,69 +486,51 @@
         <v>0</v>
       </c>
       <c r="M1" s="1">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1">
         <v>0</v>
       </c>
-      <c r="O1" s="1">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1581638400</v>
+        <v>1581897600</v>
       </c>
       <c r="B2">
+        <v>1581984000</v>
+      </c>
+      <c r="C2">
+        <v>1582070400</v>
+      </c>
+      <c r="D2">
         <v>1581897600</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>1581984000</v>
       </c>
-      <c r="D2">
-        <v>1581638400</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>1582070400</v>
+      </c>
+      <c r="G2">
         <v>1581897600</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1581984000</v>
       </c>
-      <c r="G2">
-        <v>1581638400</v>
-      </c>
-      <c r="H2">
-        <v>1581897600</v>
-      </c>
       <c r="I2">
+        <v>1582070400</v>
+      </c>
+      <c r="J2">
         <v>1581984000</v>
       </c>
-      <c r="J2">
-        <v>1581897600</v>
-      </c>
       <c r="K2">
-        <v>1581984000</v>
+        <v>1582070400</v>
       </c>
       <c r="L2">
-        <v>1581897600</v>
+        <v>1582070400</v>
       </c>
       <c r="M2">
-        <v>1581984000</v>
-      </c>
-      <c r="N2">
-        <v>1581897600</v>
-      </c>
-      <c r="O2">
-        <v>1581984000</v>
-      </c>
-      <c r="P2">
-        <v>1581984000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1582070400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -586,22 +565,13 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -639,316 +609,253 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.33</v>
+        <v>1.47</v>
       </c>
       <c r="B6">
-        <v>0.38</v>
+        <v>1.54</v>
       </c>
       <c r="C6">
-        <v>0.37</v>
+        <v>1.49</v>
       </c>
       <c r="D6">
-        <v>1.24</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="E6">
-        <v>1.36</v>
+        <v>0.74</v>
       </c>
       <c r="F6">
-        <v>1.33</v>
+        <v>0.71</v>
       </c>
       <c r="G6">
-        <v>0.55500000000000005</v>
+        <v>0.745</v>
       </c>
       <c r="H6">
-        <v>0.61</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="I6">
-        <v>0.60499999999999998</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="J6">
+        <v>0.4</v>
+      </c>
+      <c r="K6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="L6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M6">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.55</v>
+      </c>
+      <c r="B7">
+        <v>1.55</v>
+      </c>
+      <c r="C7">
+        <v>1.53</v>
+      </c>
+      <c r="D7">
+        <v>0.74</v>
+      </c>
+      <c r="E7">
+        <v>0.745</v>
+      </c>
+      <c r="F7">
+        <v>0.78</v>
+      </c>
+      <c r="G7">
+        <v>0.82</v>
+      </c>
+      <c r="H7">
+        <v>0.9</v>
+      </c>
+      <c r="I7">
+        <v>0.88</v>
+      </c>
+      <c r="J7">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.46</v>
+      </c>
+      <c r="L7">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M7">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.46</v>
+      </c>
+      <c r="B8">
         <v>1.47</v>
       </c>
-      <c r="K6">
+      <c r="C8">
+        <v>1.49</v>
+      </c>
+      <c r="D8">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.71</v>
+      </c>
+      <c r="F8">
+        <v>0.71</v>
+      </c>
+      <c r="G8">
+        <v>0.74</v>
+      </c>
+      <c r="H8">
+        <v>0.82</v>
+      </c>
+      <c r="I8">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L8">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M8">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1.54</v>
       </c>
-      <c r="L6">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="M6">
-        <v>0.74</v>
-      </c>
-      <c r="N6">
-        <v>0.745</v>
-      </c>
-      <c r="O6">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="P6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="B7">
-        <v>0.39</v>
-      </c>
-      <c r="C7">
-        <v>0.37</v>
-      </c>
-      <c r="D7">
-        <v>1.37</v>
-      </c>
-      <c r="E7">
-        <v>1.41</v>
-      </c>
-      <c r="F7">
-        <v>1.36</v>
-      </c>
-      <c r="G7">
-        <v>0.61</v>
-      </c>
-      <c r="H7">
-        <v>0.63</v>
-      </c>
-      <c r="I7">
-        <v>0.61</v>
-      </c>
-      <c r="J7">
-        <v>1.55</v>
-      </c>
-      <c r="K7">
-        <v>1.55</v>
-      </c>
-      <c r="L7">
-        <v>0.74</v>
-      </c>
-      <c r="M7">
-        <v>0.745</v>
-      </c>
-      <c r="N7">
-        <v>0.82</v>
-      </c>
-      <c r="O7">
-        <v>0.9</v>
-      </c>
-      <c r="P7">
-        <v>0.46500000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.33</v>
-      </c>
-      <c r="B8">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.35</v>
-      </c>
-      <c r="D8">
-        <v>1.24</v>
-      </c>
-      <c r="E8">
-        <v>1.33</v>
-      </c>
-      <c r="F8">
-        <v>1.31</v>
-      </c>
-      <c r="G8">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="H8">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="I8">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="J8">
-        <v>1.46</v>
-      </c>
-      <c r="K8">
-        <v>1.47</v>
-      </c>
-      <c r="L8">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="M8">
-        <v>0.71</v>
-      </c>
-      <c r="N8">
-        <v>0.74</v>
-      </c>
-      <c r="O8">
-        <v>0.82</v>
-      </c>
-      <c r="P8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.38500000000000001</v>
-      </c>
       <c r="B9">
-        <v>0.37</v>
+        <v>1.49</v>
       </c>
       <c r="C9">
-        <v>0.35</v>
+        <v>1.52</v>
       </c>
       <c r="D9">
-        <v>1.36</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="E9">
-        <v>1.34</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="F9">
-        <v>1.33</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="G9">
-        <v>0.6</v>
+        <v>0.81</v>
       </c>
       <c r="H9">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="I9">
-        <v>0.57999999999999996</v>
+        <v>0.875</v>
       </c>
       <c r="J9">
-        <v>1.54</v>
+        <v>0.46</v>
       </c>
       <c r="K9">
-        <v>1.49</v>
+        <v>0.45</v>
       </c>
       <c r="L9">
-        <v>0.73499999999999999</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="M9">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="N9">
-        <v>0.81</v>
-      </c>
-      <c r="O9">
-        <v>0.86</v>
-      </c>
-      <c r="P9">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>83977</v>
+        <v>252788</v>
       </c>
       <c r="B10">
-        <v>49244</v>
+        <v>151765</v>
       </c>
       <c r="C10">
-        <v>34472</v>
+        <v>91240</v>
       </c>
       <c r="D10">
-        <v>236252</v>
+        <v>139048</v>
       </c>
       <c r="E10">
-        <v>98265</v>
+        <v>38926</v>
       </c>
       <c r="F10">
-        <v>30101</v>
+        <v>112753</v>
       </c>
       <c r="G10">
-        <v>121218</v>
+        <v>157314</v>
       </c>
       <c r="H10">
-        <v>109651</v>
+        <v>516909</v>
       </c>
       <c r="I10">
-        <v>29570</v>
+        <v>173554</v>
       </c>
       <c r="J10">
-        <v>252788</v>
+        <v>56745</v>
       </c>
       <c r="K10">
-        <v>151765</v>
+        <v>14960</v>
       </c>
       <c r="L10">
-        <v>139048</v>
+        <v>38086</v>
       </c>
       <c r="M10">
-        <v>38926</v>
-      </c>
-      <c r="N10">
-        <v>157314</v>
-      </c>
-      <c r="O10">
-        <v>516909</v>
-      </c>
-      <c r="P10">
-        <v>56745</v>
+        <v>77447</v>
       </c>
     </row>
   </sheetData>

--- a/module/monitor.xlsx
+++ b/module/monitor.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GE10"/>
+  <dimension ref="A1:HJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,172 +404,172 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AK1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AR1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AT1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BF1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BJ1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BK1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BL1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BN1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BO1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="BJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO1" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="BP1" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BQ1" s="1" t="n">
         <v>0</v>
@@ -593,97 +593,97 @@
         <v>6</v>
       </c>
       <c r="BX1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BZ1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BZ1" s="1" t="n">
+      <c r="CA1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="CA1" s="1" t="n">
+      <c r="CB1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CC1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CD1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CE1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CF1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="CG1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CH1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CI1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CJ1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CK1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CL1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CM1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CP1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CQ1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CR1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CS1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CT1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CU1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="CV1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CW1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CX1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CY1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CZ1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="DA1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="CW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="DA1" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="DB1" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DC1" s="1" t="n">
         <v>0</v>
@@ -704,112 +704,112 @@
         <v>5</v>
       </c>
       <c r="DI1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="DJ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DJ1" s="1" t="n">
+      <c r="DK1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="DK1" s="1" t="n">
+      <c r="DL1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="DL1" s="1" t="n">
+      <c r="DM1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="DM1" s="1" t="n">
+      <c r="DN1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="DN1" s="1" t="n">
+      <c r="DO1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="DO1" s="1" t="n">
+      <c r="DP1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="DQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DP1" s="1" t="n">
+      <c r="DR1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="DQ1" s="1" t="n">
+      <c r="DS1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="DR1" s="1" t="n">
+      <c r="DT1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="DS1" s="1" t="n">
+      <c r="DU1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="DT1" s="1" t="n">
+      <c r="DV1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="DU1" s="1" t="n">
+      <c r="DW1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="DV1" s="1" t="n">
+      <c r="DY1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="DW1" s="1" t="n">
+      <c r="DZ1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="DX1" s="1" t="n">
+      <c r="EA1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="DY1" s="1" t="n">
+      <c r="EB1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="DZ1" s="1" t="n">
+      <c r="EC1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="EA1" s="1" t="n">
+      <c r="ED1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="EE1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="EB1" s="1" t="n">
+      <c r="EF1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="EC1" s="1" t="n">
+      <c r="EG1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="ED1" s="1" t="n">
+      <c r="EH1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="EE1" s="1" t="n">
+      <c r="EI1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="EF1" s="1" t="n">
+      <c r="EJ1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="EG1" s="1" t="n">
+      <c r="EK1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="EL1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="EH1" s="1" t="n">
+      <c r="EM1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="EI1" s="1" t="n">
+      <c r="EN1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="EJ1" s="1" t="n">
+      <c r="EO1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="EK1" s="1" t="n">
+      <c r="EP1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="EL1" s="1" t="n">
+      <c r="EQ1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="EM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="EP1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="EQ1" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="ER1" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="ES1" s="1" t="n">
         <v>0</v>
@@ -827,106 +827,199 @@
         <v>4</v>
       </c>
       <c r="EX1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="EY1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="EZ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="EY1" s="1" t="n">
+      <c r="FA1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="EZ1" s="1" t="n">
+      <c r="FB1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="FA1" s="1" t="n">
+      <c r="FC1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="FB1" s="1" t="n">
+      <c r="FD1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="FC1" s="1" t="n">
+      <c r="FE1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="FF1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="FD1" s="1" t="n">
+      <c r="FH1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="FE1" s="1" t="n">
+      <c r="FI1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="FF1" s="1" t="n">
+      <c r="FJ1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="FG1" s="1" t="n">
+      <c r="FK1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="FH1" s="1" t="n">
+      <c r="FL1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="FM1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="FN1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="FI1" s="1" t="n">
+      <c r="FO1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="FJ1" s="1" t="n">
+      <c r="FP1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="FK1" s="1" t="n">
+      <c r="FQ1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="FL1" s="1" t="n">
+      <c r="FR1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="FM1" s="1" t="n">
+      <c r="FS1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="FT1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="FN1" s="1" t="n">
+      <c r="FU1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="FO1" s="1" t="n">
+      <c r="FV1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="FP1" s="1" t="n">
+      <c r="FW1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="FQ1" s="1" t="n">
+      <c r="FX1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="FY1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="FZ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="FR1" s="1" t="n">
+      <c r="GA1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="FS1" s="1" t="n">
+      <c r="GB1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="FT1" s="1" t="n">
+      <c r="GC1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="FU1" s="1" t="n">
+      <c r="GD1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GE1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="GF1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="FV1" s="1" t="n">
+      <c r="GG1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="FW1" s="1" t="n">
+      <c r="GH1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="FX1" s="1" t="n">
+      <c r="GI1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="FY1" s="1" t="n">
+      <c r="GJ1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GK1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="GL1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="FZ1" s="1" t="n">
+      <c r="GM1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GA1" s="1" t="n">
+      <c r="GN1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GB1" s="1" t="n">
+      <c r="GO1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GC1" s="1" t="n">
+      <c r="GR1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GD1" s="1" t="n">
+      <c r="GS1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GV1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GE1" s="1" t="n">
+      <c r="GW1" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -967,172 +1060,172 @@
         <v>1582156800</v>
       </c>
       <c r="M2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="N2" t="n">
         <v>1581033600</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1581292800</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="AH2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AK2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AL2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AM2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AN2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AO2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AR2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AS2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AT2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AU2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AV2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AW2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AX2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AY2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="BA2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="BB2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BC2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="BD2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BE2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BF2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BG2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BH2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="BI2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BJ2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BK2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BL2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BM2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BN2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BO2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="BJ2" t="n">
-        <v>1581465600</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1581552000</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1581638400</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1581897600</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1581984000</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1582070400</v>
-      </c>
       <c r="BP2" t="n">
-        <v>1582156800</v>
+        <v>1582243200</v>
       </c>
       <c r="BQ2" t="n">
         <v>1581465600</v>
@@ -1156,97 +1249,97 @@
         <v>1582156800</v>
       </c>
       <c r="BX2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="BY2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CF2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="CH2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CI2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CJ2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CK2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CL2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CM2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CN2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="CO2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CP2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CQ2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CR2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CS2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CT2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CU2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="CV2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CW2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CX2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CY2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CZ2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DA2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="CW2" t="n">
-        <v>1581552000</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>1581638400</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1581897600</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1581984000</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>1582070400</v>
-      </c>
       <c r="DB2" t="n">
-        <v>1582156800</v>
+        <v>1582243200</v>
       </c>
       <c r="DC2" t="n">
         <v>1581552000</v>
@@ -1267,157 +1360,157 @@
         <v>1582156800</v>
       </c>
       <c r="DI2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="DJ2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="DQ2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DR2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DS2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DT2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DU2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DV2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DW2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="DX2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DY2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DZ2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="EA2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="EB2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EC2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="ED2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="EE2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EF2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="EG2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EH2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EI2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EJ2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EK2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="EL2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EM2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EN2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EO2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EP2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EQ2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="ER2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="ES2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="ET2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EU2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EV2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="EW2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="EX2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="EY2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="FA2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="FB2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="FC2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="FD2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="FE2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="EX2" t="n">
-        <v>1581638400</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1581897600</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1581984000</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1582070400</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>1582156800</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1581638400</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1581897600</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1581984000</v>
-      </c>
       <c r="FF2" t="n">
-        <v>1582070400</v>
+        <v>1582243200</v>
       </c>
       <c r="FG2" t="n">
-        <v>1582156800</v>
+        <v>1581552000</v>
       </c>
       <c r="FH2" t="n">
         <v>1581638400</v>
@@ -1435,28 +1528,28 @@
         <v>1582156800</v>
       </c>
       <c r="FM2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="FO2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FP2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FQ2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="FP2" t="n">
+      <c r="FR2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="FQ2" t="n">
-        <v>1581897600</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1581984000</v>
-      </c>
       <c r="FS2" t="n">
-        <v>1582070400</v>
+        <v>1582243200</v>
       </c>
       <c r="FT2" t="n">
-        <v>1582156800</v>
+        <v>1581638400</v>
       </c>
       <c r="FU2" t="n">
         <v>1581897600</v>
@@ -1471,25 +1564,118 @@
         <v>1582156800</v>
       </c>
       <c r="FY2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="GB2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GC2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="GA2" t="n">
+      <c r="GD2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GE2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="GI2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GJ2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GK2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="GN2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GO2" t="n">
         <v>1582156800</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1582243200</v>
       </c>
     </row>
     <row r="3">
@@ -1555,877 +1741,1032 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2020-02-10</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="BC3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="BD3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BE3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BK3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BL3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr">
+      <c r="BM3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
+      <c r="BN3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BO3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="BK3" t="inlineStr">
+      <c r="BR3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
+      <c r="BS3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="BN3" t="inlineStr">
+      <c r="BU3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="BO3" t="inlineStr">
+      <c r="BV3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="BP3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="BZ3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="CA3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="CB3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="BU3" t="inlineStr">
+      <c r="CC3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr">
+      <c r="CD3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="BW3" t="inlineStr">
+      <c r="CE3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="BX3" t="inlineStr">
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="BY3" t="inlineStr">
+      <c r="CH3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr">
+      <c r="CI3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="CA3" t="inlineStr">
+      <c r="CJ3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="CB3" t="inlineStr">
+      <c r="CK3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="CC3" t="inlineStr">
+      <c r="CL3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="CD3" t="inlineStr">
+      <c r="CM3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="CE3" t="inlineStr">
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="CF3" t="inlineStr">
+      <c r="CP3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="CG3" t="inlineStr">
+      <c r="CQ3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="CH3" t="inlineStr">
+      <c r="CR3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="CI3" t="inlineStr">
+      <c r="CS3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="CJ3" t="inlineStr">
+      <c r="CT3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="CK3" t="inlineStr">
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="CL3" t="inlineStr">
+      <c r="CW3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="CM3" t="inlineStr">
+      <c r="CX3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="CN3" t="inlineStr">
+      <c r="CY3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="CO3" t="inlineStr">
+      <c r="CZ3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="CP3" t="inlineStr">
+      <c r="DA3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="CQ3" t="inlineStr">
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="CR3" t="inlineStr">
+      <c r="DD3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="CS3" t="inlineStr">
+      <c r="DE3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="CT3" t="inlineStr">
+      <c r="DF3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="CU3" t="inlineStr">
+      <c r="DG3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="CV3" t="inlineStr">
+      <c r="DH3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="CW3" t="inlineStr">
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="CX3" t="inlineStr">
+      <c r="DK3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="CY3" t="inlineStr">
+      <c r="DL3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="CZ3" t="inlineStr">
+      <c r="DM3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="DA3" t="inlineStr">
+      <c r="DN3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="DB3" t="inlineStr">
+      <c r="DO3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="DC3" t="inlineStr">
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="DD3" t="inlineStr">
+      <c r="DR3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="DE3" t="inlineStr">
+      <c r="DS3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="DF3" t="inlineStr">
+      <c r="DT3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="DG3" t="inlineStr">
+      <c r="DU3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="DH3" t="inlineStr">
+      <c r="DV3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="DI3" t="inlineStr">
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="DX3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="DJ3" t="inlineStr">
+      <c r="DY3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="DK3" t="inlineStr">
+      <c r="DZ3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="DL3" t="inlineStr">
+      <c r="EA3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="DM3" t="inlineStr">
+      <c r="EB3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="DN3" t="inlineStr">
+      <c r="EC3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="DO3" t="inlineStr">
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="EE3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="DP3" t="inlineStr">
+      <c r="EF3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="DQ3" t="inlineStr">
+      <c r="EG3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="DR3" t="inlineStr">
+      <c r="EH3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="DS3" t="inlineStr">
+      <c r="EI3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="DT3" t="inlineStr">
+      <c r="EJ3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="DU3" t="inlineStr">
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="EL3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="DV3" t="inlineStr">
+      <c r="EM3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="DW3" t="inlineStr">
+      <c r="EN3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="DX3" t="inlineStr">
+      <c r="EO3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="DY3" t="inlineStr">
+      <c r="EP3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="DZ3" t="inlineStr">
+      <c r="EQ3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="EA3" t="inlineStr">
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="ES3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="EB3" t="inlineStr">
+      <c r="ET3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="EC3" t="inlineStr">
+      <c r="EU3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="ED3" t="inlineStr">
+      <c r="EV3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="EE3" t="inlineStr">
+      <c r="EW3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="EF3" t="inlineStr">
+      <c r="EX3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="EG3" t="inlineStr">
+      <c r="EY3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="EZ3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="EH3" t="inlineStr">
+      <c r="FA3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="EI3" t="inlineStr">
+      <c r="FB3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="EJ3" t="inlineStr">
+      <c r="FC3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="EK3" t="inlineStr">
+      <c r="FD3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="EL3" t="inlineStr">
+      <c r="FE3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="EM3" t="inlineStr">
+      <c r="FF3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="FG3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="EN3" t="inlineStr">
+      <c r="FH3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="EO3" t="inlineStr">
+      <c r="FI3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="EP3" t="inlineStr">
+      <c r="FJ3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="EQ3" t="inlineStr">
+      <c r="FK3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="ER3" t="inlineStr">
+      <c r="FL3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="ES3" t="inlineStr">
+      <c r="FM3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="FN3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="ET3" t="inlineStr">
+      <c r="FO3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="EU3" t="inlineStr">
+      <c r="FP3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="EV3" t="inlineStr">
+      <c r="FQ3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="EW3" t="inlineStr">
+      <c r="FR3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="EX3" t="inlineStr">
+      <c r="FS3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="FT3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="EY3" t="inlineStr">
+      <c r="FU3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="EZ3" t="inlineStr">
+      <c r="FV3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="FA3" t="inlineStr">
+      <c r="FW3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="FB3" t="inlineStr">
+      <c r="FX3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="FC3" t="inlineStr">
+      <c r="FY3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="FZ3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="FD3" t="inlineStr">
+      <c r="GA3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="FE3" t="inlineStr">
+      <c r="GB3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="FF3" t="inlineStr">
+      <c r="GC3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="FG3" t="inlineStr">
+      <c r="GD3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="FH3" t="inlineStr">
+      <c r="GE3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="GF3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="FI3" t="inlineStr">
+      <c r="GG3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="FJ3" t="inlineStr">
+      <c r="GH3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="FK3" t="inlineStr">
+      <c r="GI3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="FL3" t="inlineStr">
+      <c r="GJ3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="FM3" t="inlineStr">
+      <c r="GK3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="GL3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="FN3" t="inlineStr">
+      <c r="GM3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="FO3" t="inlineStr">
+      <c r="GN3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="FP3" t="inlineStr">
+      <c r="GO3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="FQ3" t="inlineStr">
+      <c r="GP3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="GQ3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="FR3" t="inlineStr">
+      <c r="GR3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="FS3" t="inlineStr">
+      <c r="GS3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="FT3" t="inlineStr">
+      <c r="GT3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="FU3" t="inlineStr">
+      <c r="GU3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="GV3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="FV3" t="inlineStr">
+      <c r="GW3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="FW3" t="inlineStr">
+      <c r="GX3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="FX3" t="inlineStr">
+      <c r="GY3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="FY3" t="inlineStr">
+      <c r="GZ3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="HA3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="FZ3" t="inlineStr">
+      <c r="HB3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="GA3" t="inlineStr">
+      <c r="HC3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="GB3" t="inlineStr">
+      <c r="HD3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="HE3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="GC3" t="inlineStr">
+      <c r="HF3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="GD3" t="inlineStr">
+      <c r="HG3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="HH3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="GE3" t="inlineStr">
+      <c r="HI3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="HJ3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
         </is>
       </c>
     </row>
@@ -2492,875 +2833,1030 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>4383</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>5275</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>5275</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0138</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>5267</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>5267</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>5267</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="BC4" t="inlineStr">
         <is>
           <t>5267</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
         <is>
           <t>5267</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
         <is>
           <t>5267</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>5267</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>5267</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>5267</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
+      <c r="BJ4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BK4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BL4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr">
+      <c r="BM4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BO4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>5703</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr">
+      <c r="BR4" t="inlineStr">
         <is>
           <t>5703</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BS4" t="inlineStr">
         <is>
           <t>5703</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
         <is>
           <t>5703</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr">
+      <c r="BU4" t="inlineStr">
         <is>
           <t>5703</t>
         </is>
       </c>
-      <c r="BO4" t="inlineStr">
+      <c r="BV4" t="inlineStr">
         <is>
           <t>5703</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
         <is>
           <t>5703</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>5703</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="BZ4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="CA4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="CB4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr">
+      <c r="CC4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr">
+      <c r="CD4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="BW4" t="inlineStr">
+      <c r="CE4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="BX4" t="inlineStr">
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="BY4" t="inlineStr">
+      <c r="CH4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="BZ4" t="inlineStr">
+      <c r="CI4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="CA4" t="inlineStr">
+      <c r="CJ4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr">
+      <c r="CK4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="CC4" t="inlineStr">
+      <c r="CL4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr">
+      <c r="CM4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="CE4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>7095</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
         <is>
           <t>3204</t>
         </is>
       </c>
-      <c r="CF4" t="inlineStr">
+      <c r="CP4" t="inlineStr">
         <is>
           <t>3204</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
+      <c r="CQ4" t="inlineStr">
         <is>
           <t>3204</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr">
+      <c r="CR4" t="inlineStr">
         <is>
           <t>3204</t>
         </is>
       </c>
-      <c r="CI4" t="inlineStr">
+      <c r="CS4" t="inlineStr">
         <is>
           <t>3204</t>
         </is>
       </c>
-      <c r="CJ4" t="inlineStr">
+      <c r="CT4" t="inlineStr">
         <is>
           <t>3204</t>
         </is>
       </c>
-      <c r="CK4" t="inlineStr">
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>3204</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
         <is>
           <t>7293</t>
         </is>
       </c>
-      <c r="CL4" t="inlineStr">
+      <c r="CW4" t="inlineStr">
         <is>
           <t>7293</t>
         </is>
       </c>
-      <c r="CM4" t="inlineStr">
+      <c r="CX4" t="inlineStr">
         <is>
           <t>7293</t>
         </is>
       </c>
-      <c r="CN4" t="inlineStr">
+      <c r="CY4" t="inlineStr">
         <is>
           <t>7293</t>
         </is>
       </c>
-      <c r="CO4" t="inlineStr">
+      <c r="CZ4" t="inlineStr">
         <is>
           <t>7293</t>
         </is>
       </c>
-      <c r="CP4" t="inlineStr">
+      <c r="DA4" t="inlineStr">
         <is>
           <t>7293</t>
         </is>
       </c>
-      <c r="CQ4" t="inlineStr">
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
         <is>
           <t>9679</t>
         </is>
       </c>
-      <c r="CR4" t="inlineStr">
+      <c r="DD4" t="inlineStr">
         <is>
           <t>9679</t>
         </is>
       </c>
-      <c r="CS4" t="inlineStr">
+      <c r="DE4" t="inlineStr">
         <is>
           <t>9679</t>
         </is>
       </c>
-      <c r="CT4" t="inlineStr">
+      <c r="DF4" t="inlineStr">
         <is>
           <t>9679</t>
         </is>
       </c>
-      <c r="CU4" t="inlineStr">
+      <c r="DG4" t="inlineStr">
         <is>
           <t>9679</t>
         </is>
       </c>
-      <c r="CV4" t="inlineStr">
+      <c r="DH4" t="inlineStr">
         <is>
           <t>9679</t>
         </is>
       </c>
-      <c r="CW4" t="inlineStr">
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>9679</t>
+        </is>
+      </c>
+      <c r="DJ4" t="inlineStr">
         <is>
           <t>5226</t>
         </is>
       </c>
-      <c r="CX4" t="inlineStr">
+      <c r="DK4" t="inlineStr">
         <is>
           <t>5226</t>
         </is>
       </c>
-      <c r="CY4" t="inlineStr">
+      <c r="DL4" t="inlineStr">
         <is>
           <t>5226</t>
         </is>
       </c>
-      <c r="CZ4" t="inlineStr">
+      <c r="DM4" t="inlineStr">
         <is>
           <t>5226</t>
         </is>
       </c>
-      <c r="DA4" t="inlineStr">
+      <c r="DN4" t="inlineStr">
         <is>
           <t>5226</t>
         </is>
       </c>
-      <c r="DB4" t="inlineStr">
+      <c r="DO4" t="inlineStr">
         <is>
           <t>5226</t>
         </is>
       </c>
-      <c r="DC4" t="inlineStr">
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="DQ4" t="inlineStr">
         <is>
           <t>5098</t>
         </is>
       </c>
-      <c r="DD4" t="inlineStr">
+      <c r="DR4" t="inlineStr">
         <is>
           <t>5098</t>
         </is>
       </c>
-      <c r="DE4" t="inlineStr">
+      <c r="DS4" t="inlineStr">
         <is>
           <t>5098</t>
         </is>
       </c>
-      <c r="DF4" t="inlineStr">
+      <c r="DT4" t="inlineStr">
         <is>
           <t>5098</t>
         </is>
       </c>
-      <c r="DG4" t="inlineStr">
+      <c r="DU4" t="inlineStr">
         <is>
           <t>5098</t>
         </is>
       </c>
-      <c r="DH4" t="inlineStr">
+      <c r="DV4" t="inlineStr">
         <is>
           <t>5098</t>
         </is>
       </c>
-      <c r="DI4" t="inlineStr">
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>5098</t>
+        </is>
+      </c>
+      <c r="DX4" t="inlineStr">
         <is>
           <t>4235</t>
         </is>
       </c>
-      <c r="DJ4" t="inlineStr">
+      <c r="DY4" t="inlineStr">
         <is>
           <t>4235</t>
         </is>
       </c>
-      <c r="DK4" t="inlineStr">
+      <c r="DZ4" t="inlineStr">
         <is>
           <t>4235</t>
         </is>
       </c>
-      <c r="DL4" t="inlineStr">
+      <c r="EA4" t="inlineStr">
         <is>
           <t>4235</t>
         </is>
       </c>
-      <c r="DM4" t="inlineStr">
+      <c r="EB4" t="inlineStr">
         <is>
           <t>4235</t>
         </is>
       </c>
-      <c r="DN4" t="inlineStr">
+      <c r="EC4" t="inlineStr">
         <is>
           <t>4235</t>
         </is>
       </c>
-      <c r="DO4" t="inlineStr">
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="EE4" t="inlineStr">
         <is>
           <t>5293</t>
         </is>
       </c>
-      <c r="DP4" t="inlineStr">
+      <c r="EF4" t="inlineStr">
         <is>
           <t>5293</t>
         </is>
       </c>
-      <c r="DQ4" t="inlineStr">
+      <c r="EG4" t="inlineStr">
         <is>
           <t>5293</t>
         </is>
       </c>
-      <c r="DR4" t="inlineStr">
+      <c r="EH4" t="inlineStr">
         <is>
           <t>5293</t>
         </is>
       </c>
-      <c r="DS4" t="inlineStr">
+      <c r="EI4" t="inlineStr">
         <is>
           <t>5293</t>
         </is>
       </c>
-      <c r="DT4" t="inlineStr">
+      <c r="EJ4" t="inlineStr">
         <is>
           <t>5293</t>
         </is>
       </c>
-      <c r="DU4" t="inlineStr">
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="EL4" t="inlineStr">
         <is>
           <t>8877</t>
         </is>
       </c>
-      <c r="DV4" t="inlineStr">
+      <c r="EM4" t="inlineStr">
         <is>
           <t>8877</t>
         </is>
       </c>
-      <c r="DW4" t="inlineStr">
+      <c r="EN4" t="inlineStr">
         <is>
           <t>8877</t>
         </is>
       </c>
-      <c r="DX4" t="inlineStr">
+      <c r="EO4" t="inlineStr">
         <is>
           <t>8877</t>
         </is>
       </c>
-      <c r="DY4" t="inlineStr">
+      <c r="EP4" t="inlineStr">
         <is>
           <t>8877</t>
         </is>
       </c>
-      <c r="DZ4" t="inlineStr">
+      <c r="EQ4" t="inlineStr">
         <is>
           <t>8877</t>
         </is>
       </c>
-      <c r="EA4" t="inlineStr">
+      <c r="ER4" t="inlineStr">
+        <is>
+          <t>8877</t>
+        </is>
+      </c>
+      <c r="ES4" t="inlineStr">
         <is>
           <t>1651</t>
         </is>
       </c>
-      <c r="EB4" t="inlineStr">
+      <c r="ET4" t="inlineStr">
         <is>
           <t>1651</t>
         </is>
       </c>
-      <c r="EC4" t="inlineStr">
+      <c r="EU4" t="inlineStr">
         <is>
           <t>1651</t>
         </is>
       </c>
-      <c r="ED4" t="inlineStr">
+      <c r="EV4" t="inlineStr">
         <is>
           <t>1651</t>
         </is>
       </c>
-      <c r="EE4" t="inlineStr">
+      <c r="EW4" t="inlineStr">
         <is>
           <t>1651</t>
         </is>
       </c>
-      <c r="EF4" t="inlineStr">
+      <c r="EX4" t="inlineStr">
         <is>
           <t>1651</t>
         </is>
       </c>
-      <c r="EG4" t="inlineStr">
+      <c r="EY4" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="EZ4" t="inlineStr">
         <is>
           <t>9261</t>
         </is>
       </c>
-      <c r="EH4" t="inlineStr">
+      <c r="FA4" t="inlineStr">
         <is>
           <t>9261</t>
         </is>
       </c>
-      <c r="EI4" t="inlineStr">
+      <c r="FB4" t="inlineStr">
         <is>
           <t>9261</t>
         </is>
       </c>
-      <c r="EJ4" t="inlineStr">
+      <c r="FC4" t="inlineStr">
         <is>
           <t>9261</t>
         </is>
       </c>
-      <c r="EK4" t="inlineStr">
+      <c r="FD4" t="inlineStr">
         <is>
           <t>9261</t>
         </is>
       </c>
-      <c r="EL4" t="inlineStr">
+      <c r="FE4" t="inlineStr">
         <is>
           <t>9261</t>
         </is>
       </c>
-      <c r="EM4" t="inlineStr">
+      <c r="FF4" t="inlineStr">
+        <is>
+          <t>9261</t>
+        </is>
+      </c>
+      <c r="FG4" t="inlineStr">
         <is>
           <t>1589</t>
         </is>
       </c>
-      <c r="EN4" t="inlineStr">
+      <c r="FH4" t="inlineStr">
         <is>
           <t>1589</t>
         </is>
       </c>
-      <c r="EO4" t="inlineStr">
+      <c r="FI4" t="inlineStr">
         <is>
           <t>1589</t>
         </is>
       </c>
-      <c r="EP4" t="inlineStr">
+      <c r="FJ4" t="inlineStr">
         <is>
           <t>1589</t>
         </is>
       </c>
-      <c r="EQ4" t="inlineStr">
+      <c r="FK4" t="inlineStr">
         <is>
           <t>1589</t>
         </is>
       </c>
-      <c r="ER4" t="inlineStr">
+      <c r="FL4" t="inlineStr">
         <is>
           <t>1589</t>
         </is>
       </c>
-      <c r="ES4" t="inlineStr">
+      <c r="FM4" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="FN4" t="inlineStr">
         <is>
           <t>5259</t>
         </is>
       </c>
-      <c r="ET4" t="inlineStr">
+      <c r="FO4" t="inlineStr">
         <is>
           <t>5259</t>
         </is>
       </c>
-      <c r="EU4" t="inlineStr">
+      <c r="FP4" t="inlineStr">
         <is>
           <t>5259</t>
         </is>
       </c>
-      <c r="EV4" t="inlineStr">
+      <c r="FQ4" t="inlineStr">
         <is>
           <t>5259</t>
         </is>
       </c>
-      <c r="EW4" t="inlineStr">
+      <c r="FR4" t="inlineStr">
         <is>
           <t>5259</t>
         </is>
       </c>
-      <c r="EX4" t="inlineStr">
+      <c r="FS4" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="FT4" t="inlineStr">
         <is>
           <t>5073</t>
         </is>
       </c>
-      <c r="EY4" t="inlineStr">
+      <c r="FU4" t="inlineStr">
         <is>
           <t>5073</t>
         </is>
       </c>
-      <c r="EZ4" t="inlineStr">
+      <c r="FV4" t="inlineStr">
         <is>
           <t>5073</t>
         </is>
       </c>
-      <c r="FA4" t="inlineStr">
+      <c r="FW4" t="inlineStr">
         <is>
           <t>5073</t>
         </is>
       </c>
-      <c r="FB4" t="inlineStr">
+      <c r="FX4" t="inlineStr">
         <is>
           <t>5073</t>
         </is>
       </c>
-      <c r="FC4" t="inlineStr">
+      <c r="FY4" t="inlineStr">
+        <is>
+          <t>5073</t>
+        </is>
+      </c>
+      <c r="FZ4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="FD4" t="inlineStr">
+      <c r="GA4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="FE4" t="inlineStr">
+      <c r="GB4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="FF4" t="inlineStr">
+      <c r="GC4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="FG4" t="inlineStr">
+      <c r="GD4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="FH4" t="inlineStr">
+      <c r="GE4" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="GF4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="FI4" t="inlineStr">
+      <c r="GG4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="FJ4" t="inlineStr">
+      <c r="GH4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="FK4" t="inlineStr">
+      <c r="GI4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="FL4" t="inlineStr">
+      <c r="GJ4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="FM4" t="inlineStr">
+      <c r="GK4" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="GL4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="FN4" t="inlineStr">
+      <c r="GM4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="FO4" t="inlineStr">
+      <c r="GN4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="FP4" t="inlineStr">
+      <c r="GO4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="FQ4" t="inlineStr">
+      <c r="GP4" t="inlineStr">
+        <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="GQ4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="FR4" t="inlineStr">
+      <c r="GR4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="FS4" t="inlineStr">
+      <c r="GS4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="FT4" t="inlineStr">
+      <c r="GT4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="FU4" t="inlineStr">
+      <c r="GU4" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="GV4" t="inlineStr">
         <is>
           <t>0082</t>
         </is>
       </c>
-      <c r="FV4" t="inlineStr">
+      <c r="GW4" t="inlineStr">
         <is>
           <t>0082</t>
         </is>
       </c>
-      <c r="FW4" t="inlineStr">
+      <c r="GX4" t="inlineStr">
         <is>
           <t>0082</t>
         </is>
       </c>
-      <c r="FX4" t="inlineStr">
+      <c r="GY4" t="inlineStr">
         <is>
           <t>0082</t>
         </is>
       </c>
-      <c r="FY4" t="inlineStr">
+      <c r="GZ4" t="inlineStr">
+        <is>
+          <t>0082</t>
+        </is>
+      </c>
+      <c r="HA4" t="inlineStr">
         <is>
           <t>1538</t>
         </is>
       </c>
-      <c r="FZ4" t="inlineStr">
+      <c r="HB4" t="inlineStr">
         <is>
           <t>1538</t>
         </is>
       </c>
-      <c r="GA4" t="inlineStr">
+      <c r="HC4" t="inlineStr">
         <is>
           <t>1538</t>
         </is>
       </c>
-      <c r="GB4" t="inlineStr">
+      <c r="HD4" t="inlineStr">
+        <is>
+          <t>1538</t>
+        </is>
+      </c>
+      <c r="HE4" t="inlineStr">
         <is>
           <t>9466</t>
         </is>
       </c>
-      <c r="GC4" t="inlineStr">
+      <c r="HF4" t="inlineStr">
         <is>
           <t>9466</t>
         </is>
       </c>
-      <c r="GD4" t="inlineStr">
+      <c r="HG4" t="inlineStr">
+        <is>
+          <t>9466</t>
+        </is>
+      </c>
+      <c r="HH4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="GE4" t="inlineStr">
+      <c r="HI4" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="HJ4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
@@ -3429,875 +3925,1030 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>JTIASA</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>MYNEWS</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>MYNEWS</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MYEG</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>XINHWA</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>XINHWA</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>XINHWA</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="BC5" t="inlineStr">
         <is>
           <t>XINHWA</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
+      <c r="BD5" t="inlineStr">
         <is>
           <t>XINHWA</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
         <is>
           <t>XINHWA</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
         <is>
           <t>XINHWA</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>XINHWA</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>XINHWA</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
+      <c r="BJ5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BK5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BL5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="BG5" t="inlineStr">
+      <c r="BM5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
+      <c r="BN5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="BI5" t="inlineStr">
+      <c r="BO5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
         <is>
           <t>MUHIBAH</t>
         </is>
       </c>
-      <c r="BK5" t="inlineStr">
+      <c r="BR5" t="inlineStr">
         <is>
           <t>MUHIBAH</t>
         </is>
       </c>
-      <c r="BL5" t="inlineStr">
+      <c r="BS5" t="inlineStr">
         <is>
           <t>MUHIBAH</t>
         </is>
       </c>
-      <c r="BM5" t="inlineStr">
+      <c r="BT5" t="inlineStr">
         <is>
           <t>MUHIBAH</t>
         </is>
       </c>
-      <c r="BN5" t="inlineStr">
+      <c r="BU5" t="inlineStr">
         <is>
           <t>MUHIBAH</t>
         </is>
       </c>
-      <c r="BO5" t="inlineStr">
+      <c r="BV5" t="inlineStr">
         <is>
           <t>MUHIBAH</t>
         </is>
       </c>
-      <c r="BP5" t="inlineStr">
+      <c r="BW5" t="inlineStr">
         <is>
           <t>MUHIBAH</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr">
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>MUHIBAH</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr">
+      <c r="BZ5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="BS5" t="inlineStr">
+      <c r="CA5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="BT5" t="inlineStr">
+      <c r="CB5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="BU5" t="inlineStr">
+      <c r="CC5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="BV5" t="inlineStr">
+      <c r="CD5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="BW5" t="inlineStr">
+      <c r="CE5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="BX5" t="inlineStr">
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="BY5" t="inlineStr">
+      <c r="CH5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="BZ5" t="inlineStr">
+      <c r="CI5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="CA5" t="inlineStr">
+      <c r="CJ5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="CB5" t="inlineStr">
+      <c r="CK5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="CC5" t="inlineStr">
+      <c r="CL5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr">
+      <c r="CM5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="CE5" t="inlineStr">
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
         <is>
           <t>GKENT</t>
         </is>
       </c>
-      <c r="CF5" t="inlineStr">
+      <c r="CP5" t="inlineStr">
         <is>
           <t>GKENT</t>
         </is>
       </c>
-      <c r="CG5" t="inlineStr">
+      <c r="CQ5" t="inlineStr">
         <is>
           <t>GKENT</t>
         </is>
       </c>
-      <c r="CH5" t="inlineStr">
+      <c r="CR5" t="inlineStr">
         <is>
           <t>GKENT</t>
         </is>
       </c>
-      <c r="CI5" t="inlineStr">
+      <c r="CS5" t="inlineStr">
         <is>
           <t>GKENT</t>
         </is>
       </c>
-      <c r="CJ5" t="inlineStr">
+      <c r="CT5" t="inlineStr">
         <is>
           <t>GKENT</t>
         </is>
       </c>
-      <c r="CK5" t="inlineStr">
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>GKENT</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr">
         <is>
           <t>YINSON</t>
         </is>
       </c>
-      <c r="CL5" t="inlineStr">
+      <c r="CW5" t="inlineStr">
         <is>
           <t>YINSON</t>
         </is>
       </c>
-      <c r="CM5" t="inlineStr">
+      <c r="CX5" t="inlineStr">
         <is>
           <t>YINSON</t>
         </is>
       </c>
-      <c r="CN5" t="inlineStr">
+      <c r="CY5" t="inlineStr">
         <is>
           <t>YINSON</t>
         </is>
       </c>
-      <c r="CO5" t="inlineStr">
+      <c r="CZ5" t="inlineStr">
         <is>
           <t>YINSON</t>
         </is>
       </c>
-      <c r="CP5" t="inlineStr">
+      <c r="DA5" t="inlineStr">
         <is>
           <t>YINSON</t>
         </is>
       </c>
-      <c r="CQ5" t="inlineStr">
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="DC5" t="inlineStr">
         <is>
           <t>WCT</t>
         </is>
       </c>
-      <c r="CR5" t="inlineStr">
+      <c r="DD5" t="inlineStr">
         <is>
           <t>WCT</t>
         </is>
       </c>
-      <c r="CS5" t="inlineStr">
+      <c r="DE5" t="inlineStr">
         <is>
           <t>WCT</t>
         </is>
       </c>
-      <c r="CT5" t="inlineStr">
+      <c r="DF5" t="inlineStr">
         <is>
           <t>WCT</t>
         </is>
       </c>
-      <c r="CU5" t="inlineStr">
+      <c r="DG5" t="inlineStr">
         <is>
           <t>WCT</t>
         </is>
       </c>
-      <c r="CV5" t="inlineStr">
+      <c r="DH5" t="inlineStr">
         <is>
           <t>WCT</t>
         </is>
       </c>
-      <c r="CW5" t="inlineStr">
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>WCT</t>
+        </is>
+      </c>
+      <c r="DJ5" t="inlineStr">
         <is>
           <t>GBGAQRS</t>
         </is>
       </c>
-      <c r="CX5" t="inlineStr">
+      <c r="DK5" t="inlineStr">
         <is>
           <t>GBGAQRS</t>
         </is>
       </c>
-      <c r="CY5" t="inlineStr">
+      <c r="DL5" t="inlineStr">
         <is>
           <t>GBGAQRS</t>
         </is>
       </c>
-      <c r="CZ5" t="inlineStr">
+      <c r="DM5" t="inlineStr">
         <is>
           <t>GBGAQRS</t>
         </is>
       </c>
-      <c r="DA5" t="inlineStr">
+      <c r="DN5" t="inlineStr">
         <is>
           <t>GBGAQRS</t>
         </is>
       </c>
-      <c r="DB5" t="inlineStr">
+      <c r="DO5" t="inlineStr">
         <is>
           <t>GBGAQRS</t>
         </is>
       </c>
-      <c r="DC5" t="inlineStr">
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="DQ5" t="inlineStr">
         <is>
           <t>MASTEEL</t>
         </is>
       </c>
-      <c r="DD5" t="inlineStr">
+      <c r="DR5" t="inlineStr">
         <is>
           <t>MASTEEL</t>
         </is>
       </c>
-      <c r="DE5" t="inlineStr">
+      <c r="DS5" t="inlineStr">
         <is>
           <t>MASTEEL</t>
         </is>
       </c>
-      <c r="DF5" t="inlineStr">
+      <c r="DT5" t="inlineStr">
         <is>
           <t>MASTEEL</t>
         </is>
       </c>
-      <c r="DG5" t="inlineStr">
+      <c r="DU5" t="inlineStr">
         <is>
           <t>MASTEEL</t>
         </is>
       </c>
-      <c r="DH5" t="inlineStr">
+      <c r="DV5" t="inlineStr">
         <is>
           <t>MASTEEL</t>
         </is>
       </c>
-      <c r="DI5" t="inlineStr">
+      <c r="DW5" t="inlineStr">
+        <is>
+          <t>MASTEEL</t>
+        </is>
+      </c>
+      <c r="DX5" t="inlineStr">
         <is>
           <t>LIONIND</t>
         </is>
       </c>
-      <c r="DJ5" t="inlineStr">
+      <c r="DY5" t="inlineStr">
         <is>
           <t>LIONIND</t>
         </is>
       </c>
-      <c r="DK5" t="inlineStr">
+      <c r="DZ5" t="inlineStr">
         <is>
           <t>LIONIND</t>
         </is>
       </c>
-      <c r="DL5" t="inlineStr">
+      <c r="EA5" t="inlineStr">
         <is>
           <t>LIONIND</t>
         </is>
       </c>
-      <c r="DM5" t="inlineStr">
+      <c r="EB5" t="inlineStr">
         <is>
           <t>LIONIND</t>
         </is>
       </c>
-      <c r="DN5" t="inlineStr">
+      <c r="EC5" t="inlineStr">
         <is>
           <t>LIONIND</t>
         </is>
       </c>
-      <c r="DO5" t="inlineStr">
+      <c r="ED5" t="inlineStr">
+        <is>
+          <t>LIONIND</t>
+        </is>
+      </c>
+      <c r="EE5" t="inlineStr">
         <is>
           <t>AME</t>
         </is>
       </c>
-      <c r="DP5" t="inlineStr">
+      <c r="EF5" t="inlineStr">
         <is>
           <t>AME</t>
         </is>
       </c>
-      <c r="DQ5" t="inlineStr">
+      <c r="EG5" t="inlineStr">
         <is>
           <t>AME</t>
         </is>
       </c>
-      <c r="DR5" t="inlineStr">
+      <c r="EH5" t="inlineStr">
         <is>
           <t>AME</t>
         </is>
       </c>
-      <c r="DS5" t="inlineStr">
+      <c r="EI5" t="inlineStr">
         <is>
           <t>AME</t>
         </is>
       </c>
-      <c r="DT5" t="inlineStr">
+      <c r="EJ5" t="inlineStr">
         <is>
           <t>AME</t>
         </is>
       </c>
-      <c r="DU5" t="inlineStr">
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
         <is>
           <t>EKOVEST</t>
         </is>
       </c>
-      <c r="DV5" t="inlineStr">
+      <c r="EM5" t="inlineStr">
         <is>
           <t>EKOVEST</t>
         </is>
       </c>
-      <c r="DW5" t="inlineStr">
+      <c r="EN5" t="inlineStr">
         <is>
           <t>EKOVEST</t>
         </is>
       </c>
-      <c r="DX5" t="inlineStr">
+      <c r="EO5" t="inlineStr">
         <is>
           <t>EKOVEST</t>
         </is>
       </c>
-      <c r="DY5" t="inlineStr">
+      <c r="EP5" t="inlineStr">
         <is>
           <t>EKOVEST</t>
         </is>
       </c>
-      <c r="DZ5" t="inlineStr">
+      <c r="EQ5" t="inlineStr">
         <is>
           <t>EKOVEST</t>
         </is>
       </c>
-      <c r="EA5" t="inlineStr">
+      <c r="ER5" t="inlineStr">
+        <is>
+          <t>EKOVEST</t>
+        </is>
+      </c>
+      <c r="ES5" t="inlineStr">
         <is>
           <t>MRCB</t>
         </is>
       </c>
-      <c r="EB5" t="inlineStr">
+      <c r="ET5" t="inlineStr">
         <is>
           <t>MRCB</t>
         </is>
       </c>
-      <c r="EC5" t="inlineStr">
+      <c r="EU5" t="inlineStr">
         <is>
           <t>MRCB</t>
         </is>
       </c>
-      <c r="ED5" t="inlineStr">
+      <c r="EV5" t="inlineStr">
         <is>
           <t>MRCB</t>
         </is>
       </c>
-      <c r="EE5" t="inlineStr">
+      <c r="EW5" t="inlineStr">
         <is>
           <t>MRCB</t>
         </is>
       </c>
-      <c r="EF5" t="inlineStr">
+      <c r="EX5" t="inlineStr">
         <is>
           <t>MRCB</t>
         </is>
       </c>
-      <c r="EG5" t="inlineStr">
+      <c r="EY5" t="inlineStr">
+        <is>
+          <t>MRCB</t>
+        </is>
+      </c>
+      <c r="EZ5" t="inlineStr">
         <is>
           <t>GADANG</t>
         </is>
       </c>
-      <c r="EH5" t="inlineStr">
+      <c r="FA5" t="inlineStr">
         <is>
           <t>GADANG</t>
         </is>
       </c>
-      <c r="EI5" t="inlineStr">
+      <c r="FB5" t="inlineStr">
         <is>
           <t>GADANG</t>
         </is>
       </c>
-      <c r="EJ5" t="inlineStr">
+      <c r="FC5" t="inlineStr">
         <is>
           <t>GADANG</t>
         </is>
       </c>
-      <c r="EK5" t="inlineStr">
+      <c r="FD5" t="inlineStr">
         <is>
           <t>GADANG</t>
         </is>
       </c>
-      <c r="EL5" t="inlineStr">
+      <c r="FE5" t="inlineStr">
         <is>
           <t>GADANG</t>
         </is>
       </c>
-      <c r="EM5" t="inlineStr">
+      <c r="FF5" t="inlineStr">
+        <is>
+          <t>GADANG</t>
+        </is>
+      </c>
+      <c r="FG5" t="inlineStr">
         <is>
           <t>IWCITY</t>
         </is>
       </c>
-      <c r="EN5" t="inlineStr">
+      <c r="FH5" t="inlineStr">
         <is>
           <t>IWCITY</t>
         </is>
       </c>
-      <c r="EO5" t="inlineStr">
+      <c r="FI5" t="inlineStr">
         <is>
           <t>IWCITY</t>
         </is>
       </c>
-      <c r="EP5" t="inlineStr">
+      <c r="FJ5" t="inlineStr">
         <is>
           <t>IWCITY</t>
         </is>
       </c>
-      <c r="EQ5" t="inlineStr">
+      <c r="FK5" t="inlineStr">
         <is>
           <t>IWCITY</t>
         </is>
       </c>
-      <c r="ER5" t="inlineStr">
+      <c r="FL5" t="inlineStr">
         <is>
           <t>IWCITY</t>
         </is>
       </c>
-      <c r="ES5" t="inlineStr">
+      <c r="FM5" t="inlineStr">
+        <is>
+          <t>IWCITY</t>
+        </is>
+      </c>
+      <c r="FN5" t="inlineStr">
         <is>
           <t>EATECH</t>
         </is>
       </c>
-      <c r="ET5" t="inlineStr">
+      <c r="FO5" t="inlineStr">
         <is>
           <t>EATECH</t>
         </is>
       </c>
-      <c r="EU5" t="inlineStr">
+      <c r="FP5" t="inlineStr">
         <is>
           <t>EATECH</t>
         </is>
       </c>
-      <c r="EV5" t="inlineStr">
+      <c r="FQ5" t="inlineStr">
         <is>
           <t>EATECH</t>
         </is>
       </c>
-      <c r="EW5" t="inlineStr">
+      <c r="FR5" t="inlineStr">
         <is>
           <t>EATECH</t>
         </is>
       </c>
-      <c r="EX5" t="inlineStr">
+      <c r="FS5" t="inlineStr">
+        <is>
+          <t>EATECH</t>
+        </is>
+      </c>
+      <c r="FT5" t="inlineStr">
         <is>
           <t>NAIM</t>
         </is>
       </c>
-      <c r="EY5" t="inlineStr">
+      <c r="FU5" t="inlineStr">
         <is>
           <t>NAIM</t>
         </is>
       </c>
-      <c r="EZ5" t="inlineStr">
+      <c r="FV5" t="inlineStr">
         <is>
           <t>NAIM</t>
         </is>
       </c>
-      <c r="FA5" t="inlineStr">
+      <c r="FW5" t="inlineStr">
         <is>
           <t>NAIM</t>
         </is>
       </c>
-      <c r="FB5" t="inlineStr">
+      <c r="FX5" t="inlineStr">
         <is>
           <t>NAIM</t>
         </is>
       </c>
-      <c r="FC5" t="inlineStr">
+      <c r="FY5" t="inlineStr">
+        <is>
+          <t>NAIM</t>
+        </is>
+      </c>
+      <c r="FZ5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="FD5" t="inlineStr">
+      <c r="GA5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="FE5" t="inlineStr">
+      <c r="GB5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="FF5" t="inlineStr">
+      <c r="GC5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="FG5" t="inlineStr">
+      <c r="GD5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="FH5" t="inlineStr">
+      <c r="GE5" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="GF5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="FI5" t="inlineStr">
+      <c r="GG5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="FJ5" t="inlineStr">
+      <c r="GH5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="FK5" t="inlineStr">
+      <c r="GI5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="FL5" t="inlineStr">
+      <c r="GJ5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="FM5" t="inlineStr">
+      <c r="GK5" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="GL5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="FN5" t="inlineStr">
+      <c r="GM5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="FO5" t="inlineStr">
+      <c r="GN5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="FP5" t="inlineStr">
+      <c r="GO5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="FQ5" t="inlineStr">
+      <c r="GP5" t="inlineStr">
+        <is>
+          <t>JAKS</t>
+        </is>
+      </c>
+      <c r="GQ5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="FR5" t="inlineStr">
+      <c r="GR5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="FS5" t="inlineStr">
+      <c r="GS5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="FT5" t="inlineStr">
+      <c r="GT5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="FU5" t="inlineStr">
+      <c r="GU5" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="GV5" t="inlineStr">
         <is>
           <t>GPACKET</t>
         </is>
       </c>
-      <c r="FV5" t="inlineStr">
+      <c r="GW5" t="inlineStr">
         <is>
           <t>GPACKET</t>
         </is>
       </c>
-      <c r="FW5" t="inlineStr">
+      <c r="GX5" t="inlineStr">
         <is>
           <t>GPACKET</t>
         </is>
       </c>
-      <c r="FX5" t="inlineStr">
+      <c r="GY5" t="inlineStr">
         <is>
           <t>GPACKET</t>
         </is>
       </c>
-      <c r="FY5" t="inlineStr">
+      <c r="GZ5" t="inlineStr">
+        <is>
+          <t>GPACKET</t>
+        </is>
+      </c>
+      <c r="HA5" t="inlineStr">
         <is>
           <t>SYMLIFE</t>
         </is>
       </c>
-      <c r="FZ5" t="inlineStr">
+      <c r="HB5" t="inlineStr">
         <is>
           <t>SYMLIFE</t>
         </is>
       </c>
-      <c r="GA5" t="inlineStr">
+      <c r="HC5" t="inlineStr">
         <is>
           <t>SYMLIFE</t>
         </is>
       </c>
-      <c r="GB5" t="inlineStr">
+      <c r="HD5" t="inlineStr">
+        <is>
+          <t>SYMLIFE</t>
+        </is>
+      </c>
+      <c r="HE5" t="inlineStr">
         <is>
           <t>KKB</t>
         </is>
       </c>
-      <c r="GC5" t="inlineStr">
+      <c r="HF5" t="inlineStr">
         <is>
           <t>KKB</t>
         </is>
       </c>
-      <c r="GD5" t="inlineStr">
+      <c r="HG5" t="inlineStr">
+        <is>
+          <t>KKB</t>
+        </is>
+      </c>
+      <c r="HH5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="GE5" t="inlineStr">
+      <c r="HI5" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="HJ5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
@@ -4341,529 +4992,622 @@
         <v>0.775</v>
       </c>
       <c r="M6" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.8</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.95</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.945</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.955</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.91</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.905</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0.89</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0.905</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>0.89</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1.16</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>1.32</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>1.33</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>1.35</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
         <v>1.38</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AD6" t="n">
         <v>1.33</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
         <v>1.24</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
         <v>1.28</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AH6" t="n">
         <v>0.855</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>0.925</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AJ6" t="n">
         <v>0.93</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AK6" t="n">
         <v>0.93</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AL6" t="n">
         <v>0.92</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AM6" t="n">
         <v>0.985</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AN6" t="n">
         <v>0.97</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AO6" t="n">
         <v>0.96</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>0.64</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AR6" t="n">
         <v>0.68</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AS6" t="n">
         <v>0.68</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AT6" t="n">
         <v>0.675</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AU6" t="n">
         <v>0.68</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AV6" t="n">
         <v>0.675</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AW6" t="n">
         <v>0.675</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AX6" t="n">
         <v>0.68</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AY6" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>0.5</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="BA6" t="n">
         <v>0.58</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="BB6" t="n">
         <v>0.575</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="BC6" t="n">
         <v>0.585</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="BD6" t="n">
         <v>0.58</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BE6" t="n">
         <v>0.605</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BF6" t="n">
         <v>0.62</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BG6" t="n">
         <v>0.635</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BH6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="BI6" t="n">
         <v>0.545</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BJ6" t="n">
         <v>0.635</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BK6" t="n">
         <v>0.62</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BL6" t="n">
         <v>0.67</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BM6" t="n">
         <v>0.695</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BN6" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BO6" t="n">
         <v>0.72</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BP6" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="BQ6" t="n">
         <v>1.73</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BR6" t="n">
         <v>1.89</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BS6" t="n">
         <v>1.94</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BT6" t="n">
         <v>1.84</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BU6" t="n">
         <v>1.86</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BV6" t="n">
         <v>1.81</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BW6" t="n">
         <v>1.8</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BX6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BY6" t="n">
         <v>3.09</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BZ6" t="n">
         <v>3.35</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="CA6" t="n">
         <v>3.32</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="CB6" t="n">
         <v>3.44</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="CC6" t="n">
         <v>3.37</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="CD6" t="n">
         <v>3.26</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="CE6" t="n">
         <v>3.3</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CF6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="CG6" t="n">
         <v>1.42</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="CH6" t="n">
         <v>1.56</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CI6" t="n">
         <v>1.56</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CJ6" t="n">
         <v>1.61</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CK6" t="n">
         <v>1.53</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CL6" t="n">
         <v>1.5</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CM6" t="n">
         <v>1.51</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CN6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="CO6" t="n">
         <v>0.87</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CP6" t="n">
         <v>0.95</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CQ6" t="n">
         <v>0.945</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CR6" t="n">
         <v>0.925</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CS6" t="n">
         <v>0.905</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CT6" t="n">
         <v>0.905</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CU6" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="CV6" t="n">
         <v>6.42</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CW6" t="n">
         <v>7.06</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CX6" t="n">
         <v>7.01</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CY6" t="n">
         <v>7.1</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CZ6" t="n">
         <v>6.98</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="DA6" t="n">
         <v>7.04</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="DB6" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="DC6" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="DD6" t="n">
         <v>0.755</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="DE6" t="n">
         <v>0.755</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="DF6" t="n">
         <v>0.765</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="DG6" t="n">
         <v>0.755</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="DH6" t="n">
         <v>0.765</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="DI6" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="DJ6" t="n">
         <v>1.02</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="DK6" t="n">
         <v>1.14</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="DL6" t="n">
         <v>1.16</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DM6" t="n">
         <v>1.18</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DN6" t="n">
         <v>1.14</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DO6" t="n">
         <v>1.12</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DP6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="DQ6" t="n">
         <v>0.38</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DR6" t="n">
         <v>0.415</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DS6" t="n">
         <v>0.42</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DT6" t="n">
         <v>0.415</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="DU6" t="n">
         <v>0.41</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DV6" t="n">
         <v>0.405</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DW6" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="DX6" t="n">
         <v>0.37</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DY6" t="n">
         <v>0.395</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DZ6" t="n">
         <v>0.39</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="EA6" t="n">
         <v>0.385</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="EB6" t="n">
         <v>0.37</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="EC6" t="n">
         <v>0.385</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="ED6" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="EE6" t="n">
         <v>1.75</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="EF6" t="n">
         <v>1.91</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="EG6" t="n">
         <v>1.88</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="EH6" t="n">
         <v>1.87</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="EI6" t="n">
         <v>1.84</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="EJ6" t="n">
         <v>1.91</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="EK6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="EL6" t="n">
         <v>0.67</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="EM6" t="n">
         <v>0.745</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="EN6" t="n">
         <v>0.76</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="EO6" t="n">
         <v>0.745</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="EP6" t="n">
         <v>0.72</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EQ6" t="n">
         <v>0.725</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="ER6" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="ES6" t="n">
         <v>0.65</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="ET6" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="EU6" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EV6" t="n">
         <v>0.72</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EW6" t="n">
         <v>0.705</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EX6" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EY6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="EZ6" t="n">
         <v>0.59</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="FA6" t="n">
         <v>0.675</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="FB6" t="n">
         <v>0.67</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="FC6" t="n">
         <v>0.67</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="FD6" t="n">
         <v>0.64</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="FE6" t="n">
         <v>0.64</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="FF6" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="FG6" t="n">
         <v>0.705</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="FH6" t="n">
         <v>0.79</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="FI6" t="n">
         <v>0.785</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="FJ6" t="n">
         <v>0.765</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="FK6" t="n">
         <v>0.735</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="FL6" t="n">
         <v>0.74</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="FM6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="FN6" t="n">
         <v>0.33</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="FO6" t="n">
         <v>0.38</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="FP6" t="n">
         <v>0.37</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="FQ6" t="n">
         <v>0.355</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="FR6" t="n">
         <v>0.375</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="FS6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FT6" t="n">
         <v>1.24</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="FU6" t="n">
         <v>1.36</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FV6" t="n">
         <v>1.33</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FW6" t="n">
         <v>1.33</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FX6" t="n">
         <v>1.38</v>
       </c>
-      <c r="FC6" t="n">
+      <c r="FY6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="FZ6" t="n">
         <v>0.555</v>
       </c>
-      <c r="FD6" t="n">
+      <c r="GA6" t="n">
         <v>0.61</v>
       </c>
-      <c r="FE6" t="n">
+      <c r="GB6" t="n">
         <v>0.605</v>
       </c>
-      <c r="FF6" t="n">
+      <c r="GC6" t="n">
         <v>0.58</v>
       </c>
-      <c r="FG6" t="n">
+      <c r="GD6" t="n">
         <v>0.585</v>
       </c>
-      <c r="FH6" t="n">
+      <c r="GE6" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="GF6" t="n">
         <v>1.15</v>
       </c>
-      <c r="FI6" t="n">
+      <c r="GG6" t="n">
         <v>1.3</v>
       </c>
-      <c r="FJ6" t="n">
+      <c r="GH6" t="n">
         <v>1.28</v>
       </c>
-      <c r="FK6" t="n">
+      <c r="GI6" t="n">
         <v>1.24</v>
       </c>
-      <c r="FL6" t="n">
+      <c r="GJ6" t="n">
         <v>1.37</v>
       </c>
-      <c r="FM6" t="n">
+      <c r="GK6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="GL6" t="n">
         <v>1.47</v>
       </c>
-      <c r="FN6" t="n">
+      <c r="GM6" t="n">
         <v>1.54</v>
       </c>
-      <c r="FO6" t="n">
+      <c r="GN6" t="n">
         <v>1.49</v>
       </c>
-      <c r="FP6" t="n">
+      <c r="GO6" t="n">
         <v>1.53</v>
       </c>
-      <c r="FQ6" t="n">
+      <c r="GP6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="GQ6" t="n">
         <v>0.675</v>
       </c>
-      <c r="FR6" t="n">
+      <c r="GR6" t="n">
         <v>0.74</v>
       </c>
-      <c r="FS6" t="n">
+      <c r="GS6" t="n">
         <v>0.71</v>
       </c>
-      <c r="FT6" t="n">
+      <c r="GT6" t="n">
         <v>0.775</v>
       </c>
-      <c r="FU6" t="n">
+      <c r="GU6" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="GV6" t="n">
         <v>0.745</v>
       </c>
-      <c r="FV6" t="n">
+      <c r="GW6" t="n">
         <v>0.825</v>
       </c>
-      <c r="FW6" t="n">
+      <c r="GX6" t="n">
         <v>0.865</v>
       </c>
-      <c r="FX6" t="n">
+      <c r="GY6" t="n">
         <v>0.88</v>
       </c>
-      <c r="FY6" t="n">
+      <c r="GZ6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="HA6" t="n">
         <v>0.4</v>
       </c>
-      <c r="FZ6" t="n">
+      <c r="HB6" t="n">
         <v>0.455</v>
       </c>
-      <c r="GA6" t="n">
+      <c r="HC6" t="n">
         <v>0.445</v>
       </c>
-      <c r="GB6" t="n">
+      <c r="HD6" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="HE6" t="n">
         <v>2.03</v>
       </c>
-      <c r="GC6" t="n">
+      <c r="HF6" t="n">
         <v>2.24</v>
       </c>
-      <c r="GD6" t="n">
+      <c r="HG6" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="HH6" t="n">
         <v>2.07</v>
       </c>
-      <c r="GE6" t="n">
+      <c r="HI6" t="n">
         <v>2.21</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="7">
@@ -4904,22 +5648,22 @@
         <v>0.78</v>
       </c>
       <c r="M7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.955</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>1.02</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>0.965</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.96</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0.945</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.91</v>
       </c>
       <c r="S7" t="n">
         <v>0.91</v>
@@ -4928,505 +5672,598 @@
         <v>0.91</v>
       </c>
       <c r="U7" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="V7" t="n">
         <v>0.905</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.895</v>
       </c>
-      <c r="W7" t="n">
-        <v>1.37</v>
-      </c>
       <c r="X7" t="n">
-        <v>1.36</v>
+        <v>0.89</v>
       </c>
       <c r="Y7" t="n">
         <v>1.37</v>
       </c>
       <c r="Z7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AB7" t="n">
         <v>1.42</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AC7" t="n">
         <v>1.39</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
         <v>1.33</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AE7" t="n">
         <v>1.26</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AF7" t="n">
         <v>1.31</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH7" t="n">
         <v>0.93</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
         <v>0.965</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AJ7" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AK7" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AL7" t="n">
         <v>0.995</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AM7" t="n">
         <v>0.985</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AN7" t="n">
         <v>1.01</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AO7" t="n">
         <v>0.96</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>0.68</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AR7" t="n">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0.6850000000000001</v>
       </c>
       <c r="AS7" t="n">
         <v>0.68</v>
       </c>
       <c r="AT7" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AX7" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AY7" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>0.58</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="BA7" t="n">
         <v>0.615</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="BB7" t="n">
         <v>0.6</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="BC7" t="n">
         <v>0.585</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="BD7" t="n">
         <v>0.61</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BE7" t="n">
         <v>0.645</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BF7" t="n">
         <v>0.63</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BG7" t="n">
         <v>0.635</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BH7" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="BI7" t="n">
         <v>0.645</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BJ7" t="n">
         <v>0.64</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BK7" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BL7" t="n">
         <v>0.7</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BM7" t="n">
         <v>0.695</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BN7" t="n">
         <v>0.715</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BO7" t="n">
         <v>0.75</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BP7" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BQ7" t="n">
         <v>1.89</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BR7" t="n">
         <v>1.98</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BS7" t="n">
         <v>1.98</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BT7" t="n">
         <v>1.85</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BU7" t="n">
         <v>1.86</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BV7" t="n">
         <v>1.82</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BW7" t="n">
         <v>1.84</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BX7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BY7" t="n">
         <v>3.35</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BZ7" t="n">
         <v>3.44</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="CA7" t="n">
         <v>3.44</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="CB7" t="n">
         <v>3.49</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="CC7" t="n">
         <v>3.37</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="CD7" t="n">
         <v>3.35</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="CE7" t="n">
         <v>3.33</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="CF7" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="CG7" t="n">
         <v>1.6</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="CH7" t="n">
         <v>1.65</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CI7" t="n">
         <v>1.62</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CJ7" t="n">
         <v>1.62</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CK7" t="n">
         <v>1.57</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CL7" t="n">
         <v>1.51</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CM7" t="n">
         <v>1.54</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CN7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="CO7" t="n">
         <v>0.95</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CP7" t="n">
         <v>0.955</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CQ7" t="n">
         <v>0.95</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CR7" t="n">
         <v>0.925</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CS7" t="n">
         <v>0.91</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CT7" t="n">
         <v>0.91</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CU7" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="CV7" t="n">
         <v>6.8</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CW7" t="n">
         <v>7.38</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CX7" t="n">
         <v>7.25</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CY7" t="n">
         <v>7.1</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CZ7" t="n">
         <v>7.05</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="DA7" t="n">
         <v>7.25</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="DB7" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="DC7" t="n">
         <v>0.76</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="DD7" t="n">
         <v>0.775</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="DE7" t="n">
         <v>0.78</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="DF7" t="n">
         <v>0.765</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="DG7" t="n">
         <v>0.775</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="DH7" t="n">
         <v>0.775</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="DI7" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="DJ7" t="n">
         <v>1.11</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="DK7" t="n">
         <v>1.21</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="DL7" t="n">
         <v>1.22</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="DM7" t="n">
         <v>1.19</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DN7" t="n">
         <v>1.14</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DO7" t="n">
         <v>1.13</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DP7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="DQ7" t="n">
         <v>0.42</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DR7" t="n">
         <v>0.44</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DS7" t="n">
         <v>0.44</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DT7" t="n">
         <v>0.43</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="DU7" t="n">
         <v>0.415</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DV7" t="n">
         <v>0.415</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DW7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DX7" t="n">
         <v>0.4</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DY7" t="n">
         <v>0.4</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DZ7" t="n">
         <v>0.405</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="EA7" t="n">
         <v>0.4</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="EB7" t="n">
         <v>0.38</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="EC7" t="n">
         <v>0.385</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="ED7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="EE7" t="n">
         <v>1.93</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="EF7" t="n">
         <v>1.96</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="EG7" t="n">
         <v>1.92</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="EH7" t="n">
         <v>1.87</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="EI7" t="n">
         <v>1.9</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="EJ7" t="n">
         <v>1.92</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="EK7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="EL7" t="n">
         <v>0.745</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="EM7" t="n">
         <v>0.765</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="EN7" t="n">
         <v>0.775</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="EO7" t="n">
         <v>0.745</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="EP7" t="n">
         <v>0.735</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EQ7" t="n">
         <v>0.74</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="ER7" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="ES7" t="n">
         <v>0.695</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="ET7" t="n">
         <v>0.695</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="EU7" t="n">
         <v>0.73</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EV7" t="n">
         <v>0.72</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EW7" t="n">
         <v>0.715</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EX7" t="n">
         <v>0.7</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EY7" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="EZ7" t="n">
         <v>0.67</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="FA7" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="FB7" t="n">
         <v>0.675</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="FC7" t="n">
         <v>0.67</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="FD7" t="n">
         <v>0.655</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="FE7" t="n">
         <v>0.65</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="FF7" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="FG7" t="n">
         <v>0.79</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="FH7" t="n">
         <v>0.805</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="FI7" t="n">
         <v>0.805</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="FJ7" t="n">
         <v>0.765</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="FK7" t="n">
         <v>0.755</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="FL7" t="n">
         <v>0.765</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="FM7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="FN7" t="n">
         <v>0.385</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="FO7" t="n">
         <v>0.39</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="FP7" t="n">
         <v>0.37</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="FQ7" t="n">
         <v>0.38</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="FR7" t="n">
         <v>0.375</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="FS7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FT7" t="n">
         <v>1.37</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="FU7" t="n">
         <v>1.41</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FV7" t="n">
         <v>1.36</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FW7" t="n">
         <v>1.38</v>
       </c>
-      <c r="FB7" t="n">
+      <c r="FX7" t="n">
         <v>1.38</v>
       </c>
-      <c r="FC7" t="n">
+      <c r="FY7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="FZ7" t="n">
         <v>0.61</v>
       </c>
-      <c r="FD7" t="n">
+      <c r="GA7" t="n">
         <v>0.63</v>
       </c>
-      <c r="FE7" t="n">
+      <c r="GB7" t="n">
         <v>0.61</v>
       </c>
-      <c r="FF7" t="n">
+      <c r="GC7" t="n">
         <v>0.595</v>
       </c>
-      <c r="FG7" t="n">
+      <c r="GD7" t="n">
         <v>0.65</v>
       </c>
-      <c r="FH7" t="n">
+      <c r="GE7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="GF7" t="n">
         <v>1.33</v>
       </c>
-      <c r="FI7" t="n">
+      <c r="GG7" t="n">
         <v>1.33</v>
       </c>
-      <c r="FJ7" t="n">
+      <c r="GH7" t="n">
         <v>1.28</v>
       </c>
-      <c r="FK7" t="n">
+      <c r="GI7" t="n">
         <v>1.38</v>
       </c>
-      <c r="FL7" t="n">
+      <c r="GJ7" t="n">
         <v>1.38</v>
       </c>
-      <c r="FM7" t="n">
+      <c r="GK7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="GL7" t="n">
         <v>1.55</v>
       </c>
-      <c r="FN7" t="n">
+      <c r="GM7" t="n">
         <v>1.55</v>
       </c>
-      <c r="FO7" t="n">
+      <c r="GN7" t="n">
         <v>1.53</v>
       </c>
-      <c r="FP7" t="n">
+      <c r="GO7" t="n">
         <v>1.57</v>
       </c>
-      <c r="FQ7" t="n">
+      <c r="GP7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="GQ7" t="n">
         <v>0.74</v>
       </c>
-      <c r="FR7" t="n">
+      <c r="GR7" t="n">
         <v>0.745</v>
       </c>
-      <c r="FS7" t="n">
+      <c r="GS7" t="n">
         <v>0.78</v>
       </c>
-      <c r="FT7" t="n">
+      <c r="GT7" t="n">
         <v>0.795</v>
       </c>
-      <c r="FU7" t="n">
+      <c r="GU7" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="GV7" t="n">
         <v>0.82</v>
       </c>
-      <c r="FV7" t="n">
+      <c r="GW7" t="n">
         <v>0.9</v>
       </c>
-      <c r="FW7" t="n">
+      <c r="GX7" t="n">
         <v>0.88</v>
       </c>
-      <c r="FX7" t="n">
+      <c r="GY7" t="n">
         <v>0.915</v>
       </c>
-      <c r="FY7" t="n">
+      <c r="GZ7" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="HA7" t="n">
         <v>0.465</v>
       </c>
-      <c r="FZ7" t="n">
+      <c r="HB7" t="n">
         <v>0.46</v>
       </c>
-      <c r="GA7" t="n">
+      <c r="HC7" t="n">
         <v>0.45</v>
       </c>
-      <c r="GB7" t="n">
+      <c r="HD7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="HE7" t="n">
         <v>2.26</v>
       </c>
-      <c r="GC7" t="n">
+      <c r="HF7" t="n">
         <v>2.24</v>
       </c>
-      <c r="GD7" t="n">
+      <c r="HG7" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="HH7" t="n">
         <v>2.21</v>
       </c>
-      <c r="GE7" t="n">
+      <c r="HI7" t="n">
         <v>2.32</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="8">
@@ -5467,97 +6304,97 @@
         <v>0.75</v>
       </c>
       <c r="M8" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.8</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.895</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0.9350000000000001</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.92</v>
       </c>
       <c r="Q8" t="n">
         <v>0.92</v>
       </c>
       <c r="R8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S8" t="n">
         <v>0.9</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.88</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.89</v>
       </c>
       <c r="U8" t="n">
         <v>0.89</v>
       </c>
       <c r="V8" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W8" t="n">
         <v>0.885</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Y8" t="n">
         <v>1.15</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>1.3</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.33</v>
       </c>
       <c r="AA8" t="n">
         <v>1.32</v>
       </c>
       <c r="AB8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD8" t="n">
         <v>1.21</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AE8" t="n">
         <v>1.21</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AF8" t="n">
         <v>1.25</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AH8" t="n">
         <v>0.855</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>0.925</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
         <v>0.9</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AK8" t="n">
         <v>0.915</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AL8" t="n">
         <v>0.92</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AM8" t="n">
         <v>0.945</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AN8" t="n">
         <v>0.95</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AO8" t="n">
         <v>0.915</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>0.64</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.665</v>
       </c>
       <c r="AR8" t="n">
         <v>0.675</v>
@@ -5566,430 +6403,523 @@
         <v>0.67</v>
       </c>
       <c r="AT8" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AX8" t="n">
         <v>0.68</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AY8" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>0.495</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="BA8" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="BB8" t="n">
         <v>0.575</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="BC8" t="n">
         <v>0.57</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="BD8" t="n">
         <v>0.58</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BE8" t="n">
         <v>0.605</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BF8" t="n">
         <v>0.61</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BG8" t="n">
         <v>0.61</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BH8" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="BI8" t="n">
         <v>0.535</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BJ8" t="n">
         <v>0.615</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BK8" t="n">
         <v>0.62</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BL8" t="n">
         <v>0.66</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BM8" t="n">
         <v>0.67</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BN8" t="n">
         <v>0.68</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BO8" t="n">
         <v>0.72</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BP8" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="BQ8" t="n">
         <v>1.73</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BR8" t="n">
         <v>1.85</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BS8" t="n">
         <v>1.83</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BT8" t="n">
         <v>1.77</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BU8" t="n">
         <v>1.81</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BV8" t="n">
         <v>1.77</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BW8" t="n">
         <v>1.79</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BX8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BY8" t="n">
         <v>3.09</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BZ8" t="n">
         <v>3.3</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="CA8" t="n">
         <v>3.24</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="CB8" t="n">
         <v>3.36</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="CC8" t="n">
         <v>3.23</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="CD8" t="n">
         <v>3.26</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="CE8" t="n">
         <v>3.21</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="CF8" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="CG8" t="n">
         <v>1.42</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="CH8" t="n">
         <v>1.55</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CI8" t="n">
         <v>1.53</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CJ8" t="n">
         <v>1.53</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CK8" t="n">
         <v>1.49</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CL8" t="n">
         <v>1.47</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CM8" t="n">
         <v>1.51</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CN8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CO8" t="n">
         <v>0.87</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CP8" t="n">
         <v>0.93</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CQ8" t="n">
         <v>0.92</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CR8" t="n">
         <v>0.895</v>
       </c>
-      <c r="CI8" t="n">
+      <c r="CS8" t="n">
         <v>0.89</v>
       </c>
-      <c r="CJ8" t="n">
+      <c r="CT8" t="n">
         <v>0.9</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CU8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="CV8" t="n">
         <v>6.4</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CW8" t="n">
         <v>6.91</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CX8" t="n">
         <v>7.01</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="CY8" t="n">
         <v>6.98</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CZ8" t="n">
         <v>6.98</v>
       </c>
-      <c r="CP8" t="n">
+      <c r="DA8" t="n">
         <v>6.9</v>
       </c>
-      <c r="CQ8" t="n">
+      <c r="DB8" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="DC8" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="DD8" t="n">
         <v>0.74</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="DE8" t="n">
         <v>0.755</v>
       </c>
-      <c r="CT8" t="n">
+      <c r="DF8" t="n">
         <v>0.75</v>
       </c>
-      <c r="CU8" t="n">
+      <c r="DG8" t="n">
         <v>0.755</v>
       </c>
-      <c r="CV8" t="n">
+      <c r="DH8" t="n">
         <v>0.745</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="DI8" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="DJ8" t="n">
         <v>1.02</v>
       </c>
-      <c r="CX8" t="n">
+      <c r="DK8" t="n">
         <v>1.13</v>
       </c>
-      <c r="CY8" t="n">
+      <c r="DL8" t="n">
         <v>1.16</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="DM8" t="n">
         <v>1.13</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DN8" t="n">
         <v>1.11</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DO8" t="n">
         <v>1.09</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DP8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="DQ8" t="n">
         <v>0.375</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DR8" t="n">
         <v>0.4</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DS8" t="n">
         <v>0.415</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="DT8" t="n">
         <v>0.4</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="DU8" t="n">
         <v>0.405</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="DV8" t="n">
         <v>0.4</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DW8" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="DX8" t="n">
         <v>0.37</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DY8" t="n">
         <v>0.385</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DZ8" t="n">
         <v>0.385</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="EA8" t="n">
         <v>0.375</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="EB8" t="n">
         <v>0.37</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="EC8" t="n">
         <v>0.375</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="ED8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="EE8" t="n">
         <v>1.72</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="EF8" t="n">
         <v>1.86</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="EG8" t="n">
         <v>1.87</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="EH8" t="n">
         <v>1.81</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="EI8" t="n">
         <v>1.82</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="EJ8" t="n">
         <v>1.88</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="EK8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="EL8" t="n">
         <v>0.665</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="EM8" t="n">
         <v>0.73</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="EN8" t="n">
         <v>0.745</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="EO8" t="n">
         <v>0.715</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="EP8" t="n">
         <v>0.71</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EQ8" t="n">
         <v>0.715</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="ER8" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="ES8" t="n">
         <v>0.645</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="ET8" t="n">
         <v>0.675</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="EU8" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EV8" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EW8" t="n">
         <v>0.68</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EX8" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EY8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="EZ8" t="n">
         <v>0.59</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="FA8" t="n">
         <v>0.66</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="FB8" t="n">
         <v>0.655</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="FC8" t="n">
         <v>0.64</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="FD8" t="n">
         <v>0.64</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="FE8" t="n">
         <v>0.63</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="FF8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="FG8" t="n">
         <v>0.695</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="FH8" t="n">
         <v>0.775</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="FI8" t="n">
         <v>0.76</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="FJ8" t="n">
         <v>0.73</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="FK8" t="n">
         <v>0.725</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="FL8" t="n">
         <v>0.73</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="FM8" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="FN8" t="n">
         <v>0.33</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="FO8" t="n">
         <v>0.365</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="FP8" t="n">
         <v>0.35</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="FQ8" t="n">
         <v>0.355</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="FR8" t="n">
         <v>0.36</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="FS8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="FT8" t="n">
         <v>1.24</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="FU8" t="n">
         <v>1.33</v>
       </c>
-      <c r="EZ8" t="n">
+      <c r="FV8" t="n">
         <v>1.31</v>
       </c>
-      <c r="FA8" t="n">
+      <c r="FW8" t="n">
         <v>1.33</v>
       </c>
-      <c r="FB8" t="n">
+      <c r="FX8" t="n">
         <v>1.34</v>
       </c>
-      <c r="FC8" t="n">
+      <c r="FY8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="FZ8" t="n">
         <v>0.555</v>
       </c>
-      <c r="FD8" t="n">
+      <c r="GA8" t="n">
         <v>0.585</v>
       </c>
-      <c r="FE8" t="n">
+      <c r="GB8" t="n">
         <v>0.575</v>
       </c>
-      <c r="FF8" t="n">
+      <c r="GC8" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="FG8" t="n">
+      <c r="GD8" t="n">
         <v>0.575</v>
       </c>
-      <c r="FH8" t="n">
+      <c r="GE8" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="GF8" t="n">
         <v>1.13</v>
       </c>
-      <c r="FI8" t="n">
+      <c r="GG8" t="n">
         <v>1.27</v>
       </c>
-      <c r="FJ8" t="n">
+      <c r="GH8" t="n">
         <v>1.22</v>
       </c>
-      <c r="FK8" t="n">
+      <c r="GI8" t="n">
         <v>1.24</v>
       </c>
-      <c r="FL8" t="n">
+      <c r="GJ8" t="n">
         <v>1.29</v>
       </c>
-      <c r="FM8" t="n">
+      <c r="GK8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="GL8" t="n">
         <v>1.46</v>
       </c>
-      <c r="FN8" t="n">
+      <c r="GM8" t="n">
         <v>1.47</v>
       </c>
-      <c r="FO8" t="n">
+      <c r="GN8" t="n">
         <v>1.49</v>
       </c>
-      <c r="FP8" t="n">
+      <c r="GO8" t="n">
         <v>1.51</v>
       </c>
-      <c r="FQ8" t="n">
+      <c r="GP8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="GQ8" t="n">
         <v>0.675</v>
       </c>
-      <c r="FR8" t="n">
+      <c r="GR8" t="n">
         <v>0.71</v>
       </c>
-      <c r="FS8" t="n">
+      <c r="GS8" t="n">
         <v>0.71</v>
       </c>
-      <c r="FT8" t="n">
+      <c r="GT8" t="n">
         <v>0.755</v>
       </c>
-      <c r="FU8" t="n">
+      <c r="GU8" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="GV8" t="n">
         <v>0.74</v>
       </c>
-      <c r="FV8" t="n">
+      <c r="GW8" t="n">
         <v>0.82</v>
       </c>
-      <c r="FW8" t="n">
+      <c r="GX8" t="n">
         <v>0.865</v>
       </c>
-      <c r="FX8" t="n">
+      <c r="GY8" t="n">
         <v>0.875</v>
       </c>
-      <c r="FY8" t="n">
+      <c r="GZ8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="HA8" t="n">
         <v>0.4</v>
       </c>
-      <c r="FZ8" t="n">
+      <c r="HB8" t="n">
         <v>0.445</v>
       </c>
-      <c r="GA8" t="n">
+      <c r="HC8" t="n">
         <v>0.435</v>
       </c>
-      <c r="GB8" t="n">
+      <c r="HD8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HE8" t="n">
         <v>2.01</v>
       </c>
-      <c r="GC8" t="n">
+      <c r="HF8" t="n">
         <v>2.05</v>
       </c>
-      <c r="GD8" t="n">
+      <c r="HG8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="HH8" t="n">
         <v>2.04</v>
       </c>
-      <c r="GE8" t="n">
+      <c r="HI8" t="n">
         <v>2.17</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="9">
@@ -6030,529 +6960,622 @@
         <v>0.775</v>
       </c>
       <c r="M9" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>0.945</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>0.955</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.925</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.92</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.91</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.89</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.91</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.89</v>
       </c>
       <c r="V9" t="n">
         <v>0.89</v>
       </c>
       <c r="W9" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.33</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.32</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
         <v>1.35</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>1.37</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
         <v>1.33</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
         <v>1.24</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
         <v>1.23</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
         <v>1.29</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0.925</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AJ9" t="n">
         <v>0.93</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AK9" t="n">
         <v>0.92</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AL9" t="n">
         <v>0.975</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AM9" t="n">
         <v>0.95</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AN9" t="n">
         <v>0.96</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AO9" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AM9" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.675</v>
-      </c>
       <c r="AP9" t="n">
-        <v>0.675</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.675</v>
       </c>
       <c r="AR9" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AS9" t="n">
         <v>0.675</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AT9" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AW9" t="n">
         <v>0.68</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AX9" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AY9" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>0.58</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="BA9" t="n">
         <v>0.575</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="BB9" t="n">
         <v>0.585</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="BC9" t="n">
         <v>0.575</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="BD9" t="n">
         <v>0.6</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="BE9" t="n">
         <v>0.62</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BF9" t="n">
         <v>0.63</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BG9" t="n">
         <v>0.625</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BH9" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="BI9" t="n">
         <v>0.625</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BJ9" t="n">
         <v>0.62</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BK9" t="n">
         <v>0.67</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BL9" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BM9" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BN9" t="n">
         <v>0.715</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BO9" t="n">
         <v>0.745</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BP9" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BQ9" t="n">
         <v>1.87</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BR9" t="n">
         <v>1.96</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BS9" t="n">
         <v>1.84</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BT9" t="n">
         <v>1.84</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BU9" t="n">
         <v>1.83</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BV9" t="n">
         <v>1.8</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BW9" t="n">
         <v>1.83</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BX9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BY9" t="n">
         <v>3.32</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BZ9" t="n">
         <v>3.34</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="CA9" t="n">
         <v>3.44</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="CB9" t="n">
         <v>3.37</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="CC9" t="n">
         <v>3.26</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="CD9" t="n">
         <v>3.29</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="CE9" t="n">
         <v>3.29</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="CF9" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="CG9" t="n">
         <v>1.57</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="CH9" t="n">
         <v>1.56</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CI9" t="n">
         <v>1.6</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CJ9" t="n">
         <v>1.54</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CK9" t="n">
         <v>1.5</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CL9" t="n">
         <v>1.51</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CM9" t="n">
         <v>1.52</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CN9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="CO9" t="n">
         <v>0.93</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CP9" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CQ9" t="n">
         <v>0.925</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CR9" t="n">
         <v>0.905</v>
       </c>
-      <c r="CI9" t="n">
+      <c r="CS9" t="n">
         <v>0.9</v>
       </c>
-      <c r="CJ9" t="n">
+      <c r="CT9" t="n">
         <v>0.905</v>
       </c>
-      <c r="CK9" t="n">
+      <c r="CU9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="CV9" t="n">
         <v>6.8</v>
       </c>
-      <c r="CL9" t="n">
+      <c r="CW9" t="n">
         <v>7</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="CX9" t="n">
         <v>7.09</v>
       </c>
-      <c r="CN9" t="n">
+      <c r="CY9" t="n">
         <v>7</v>
       </c>
-      <c r="CO9" t="n">
+      <c r="CZ9" t="n">
         <v>7</v>
       </c>
-      <c r="CP9" t="n">
+      <c r="DA9" t="n">
         <v>7.24</v>
       </c>
-      <c r="CQ9" t="n">
+      <c r="DB9" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="DC9" t="n">
         <v>0.755</v>
       </c>
-      <c r="CR9" t="n">
+      <c r="DD9" t="n">
         <v>0.755</v>
       </c>
-      <c r="CS9" t="n">
+      <c r="DE9" t="n">
         <v>0.76</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="DF9" t="n">
         <v>0.755</v>
       </c>
-      <c r="CU9" t="n">
+      <c r="DG9" t="n">
         <v>0.765</v>
       </c>
-      <c r="CV9" t="n">
+      <c r="DH9" t="n">
         <v>0.75</v>
       </c>
-      <c r="CW9" t="n">
+      <c r="DI9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="DJ9" t="n">
         <v>1.11</v>
       </c>
-      <c r="CX9" t="n">
+      <c r="DK9" t="n">
         <v>1.15</v>
       </c>
-      <c r="CY9" t="n">
+      <c r="DL9" t="n">
         <v>1.18</v>
       </c>
-      <c r="CZ9" t="n">
+      <c r="DM9" t="n">
         <v>1.14</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DN9" t="n">
         <v>1.12</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DO9" t="n">
         <v>1.1</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DP9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="DQ9" t="n">
         <v>0.415</v>
       </c>
-      <c r="DD9" t="n">
+      <c r="DR9" t="n">
         <v>0.425</v>
       </c>
-      <c r="DE9" t="n">
+      <c r="DS9" t="n">
         <v>0.42</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="DT9" t="n">
         <v>0.41</v>
       </c>
-      <c r="DG9" t="n">
+      <c r="DU9" t="n">
         <v>0.405</v>
       </c>
-      <c r="DH9" t="n">
+      <c r="DV9" t="n">
         <v>0.405</v>
       </c>
-      <c r="DI9" t="n">
+      <c r="DW9" t="n">
         <v>0.395</v>
       </c>
-      <c r="DJ9" t="n">
+      <c r="DX9" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="DY9" t="n">
         <v>0.39</v>
       </c>
-      <c r="DK9" t="n">
+      <c r="DZ9" t="n">
         <v>0.39</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="EA9" t="n">
         <v>0.375</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="EB9" t="n">
         <v>0.38</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="EC9" t="n">
         <v>0.38</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="ED9" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="EE9" t="n">
         <v>1.93</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="EF9" t="n">
         <v>1.9</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="EG9" t="n">
         <v>1.87</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="EH9" t="n">
         <v>1.83</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="EI9" t="n">
         <v>1.89</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="EJ9" t="n">
         <v>1.89</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="EK9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="EL9" t="n">
         <v>0.745</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="EM9" t="n">
         <v>0.76</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="EN9" t="n">
         <v>0.745</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="EO9" t="n">
         <v>0.72</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="EP9" t="n">
         <v>0.72</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>0.665</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="EM9" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="EN9" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="EO9" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>0.735</v>
       </c>
       <c r="EQ9" t="n">
         <v>0.735</v>
       </c>
       <c r="ER9" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="FL9" t="n">
         <v>0.755</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="FM9" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="FN9" t="n">
         <v>0.385</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="FO9" t="n">
         <v>0.37</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="FP9" t="n">
         <v>0.35</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="FQ9" t="n">
         <v>0.365</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="FR9" t="n">
         <v>0.37</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="FS9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="FT9" t="n">
         <v>1.36</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="FU9" t="n">
         <v>1.34</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="FV9" t="n">
         <v>1.33</v>
       </c>
-      <c r="FA9" t="n">
+      <c r="FW9" t="n">
         <v>1.36</v>
       </c>
-      <c r="FB9" t="n">
+      <c r="FX9" t="n">
         <v>1.35</v>
       </c>
-      <c r="FC9" t="n">
+      <c r="FY9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="FZ9" t="n">
         <v>0.6</v>
       </c>
-      <c r="FD9" t="n">
+      <c r="GA9" t="n">
         <v>0.6</v>
       </c>
-      <c r="FE9" t="n">
+      <c r="GB9" t="n">
         <v>0.58</v>
       </c>
-      <c r="FF9" t="n">
+      <c r="GC9" t="n">
         <v>0.58</v>
       </c>
-      <c r="FG9" t="n">
+      <c r="GD9" t="n">
         <v>0.635</v>
       </c>
-      <c r="FH9" t="n">
+      <c r="GE9" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="GF9" t="n">
         <v>1.29</v>
       </c>
-      <c r="FI9" t="n">
+      <c r="GG9" t="n">
         <v>1.28</v>
       </c>
-      <c r="FJ9" t="n">
+      <c r="GH9" t="n">
         <v>1.23</v>
       </c>
-      <c r="FK9" t="n">
+      <c r="GI9" t="n">
         <v>1.37</v>
       </c>
-      <c r="FL9" t="n">
+      <c r="GJ9" t="n">
         <v>1.31</v>
       </c>
-      <c r="FM9" t="n">
+      <c r="GK9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="GL9" t="n">
         <v>1.54</v>
       </c>
-      <c r="FN9" t="n">
+      <c r="GM9" t="n">
         <v>1.49</v>
       </c>
-      <c r="FO9" t="n">
+      <c r="GN9" t="n">
         <v>1.52</v>
       </c>
-      <c r="FP9" t="n">
+      <c r="GO9" t="n">
         <v>1.53</v>
       </c>
-      <c r="FQ9" t="n">
+      <c r="GP9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="GQ9" t="n">
         <v>0.735</v>
       </c>
-      <c r="FR9" t="n">
+      <c r="GR9" t="n">
         <v>0.715</v>
       </c>
-      <c r="FS9" t="n">
+      <c r="GS9" t="n">
         <v>0.775</v>
       </c>
-      <c r="FT9" t="n">
+      <c r="GT9" t="n">
         <v>0.76</v>
       </c>
-      <c r="FU9" t="n">
+      <c r="GU9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="GV9" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="FV9" t="n">
+      <c r="GW9" t="n">
         <v>0.86</v>
       </c>
-      <c r="FW9" t="n">
+      <c r="GX9" t="n">
         <v>0.875</v>
       </c>
-      <c r="FX9" t="n">
+      <c r="GY9" t="n">
         <v>0.89</v>
       </c>
-      <c r="FY9" t="n">
+      <c r="GZ9" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="HA9" t="n">
         <v>0.46</v>
       </c>
-      <c r="FZ9" t="n">
+      <c r="HB9" t="n">
         <v>0.45</v>
       </c>
-      <c r="GA9" t="n">
+      <c r="HC9" t="n">
         <v>0.435</v>
       </c>
-      <c r="GB9" t="n">
+      <c r="HD9" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="HE9" t="n">
         <v>2.24</v>
       </c>
-      <c r="GC9" t="n">
+      <c r="HF9" t="n">
         <v>2.09</v>
       </c>
-      <c r="GD9" t="n">
+      <c r="HG9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="HH9" t="n">
         <v>2.21</v>
       </c>
-      <c r="GE9" t="n">
+      <c r="HI9" t="n">
         <v>2.31</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row r="10">
@@ -6593,529 +7616,622 @@
         <v>31035</v>
       </c>
       <c r="M10" t="n">
+        <v>17080</v>
+      </c>
+      <c r="N10" t="n">
         <v>71037</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>52158</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>2175</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>40612</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>17231</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>11268</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>19289</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>5799</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>9998</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>7434</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
+        <v>8381</v>
+      </c>
+      <c r="Y10" t="n">
         <v>2810032</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>1062992</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
         <v>555854</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>1198027</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
         <v>390142</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
         <v>1174379</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
         <v>671449</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
         <v>868048</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
+        <v>241284</v>
+      </c>
+      <c r="AH10" t="n">
         <v>639668</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
         <v>441600</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="n">
         <v>117658</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AK10" t="n">
         <v>77590</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AL10" t="n">
         <v>468016</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AM10" t="n">
         <v>171724</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AN10" t="n">
         <v>555483</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AO10" t="n">
         <v>195357</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
+        <v>207059</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>135679</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AR10" t="n">
         <v>81749</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AS10" t="n">
         <v>34434</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AT10" t="n">
         <v>44074</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AU10" t="n">
         <v>40711</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AV10" t="n">
         <v>44930</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AW10" t="n">
         <v>33567</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AX10" t="n">
         <v>59386</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AY10" t="n">
+        <v>39478</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>109117</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="BA10" t="n">
         <v>135376</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="BB10" t="n">
         <v>70191</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="BC10" t="n">
         <v>13492</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="BD10" t="n">
         <v>84169</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="BE10" t="n">
         <v>99790</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BF10" t="n">
         <v>28896</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BG10" t="n">
         <v>37277</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BH10" t="n">
+        <v>111053</v>
+      </c>
+      <c r="BI10" t="n">
         <v>78068</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BJ10" t="n">
         <v>19648</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BK10" t="n">
         <v>25747</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BL10" t="n">
         <v>46782</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BM10" t="n">
         <v>22550</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BN10" t="n">
         <v>39684</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BO10" t="n">
         <v>21277</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BP10" t="n">
+        <v>44211</v>
+      </c>
+      <c r="BQ10" t="n">
         <v>45519</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BR10" t="n">
         <v>24544</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BS10" t="n">
         <v>24264</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BT10" t="n">
         <v>26182</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BU10" t="n">
         <v>11418</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BV10" t="n">
         <v>18566</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BW10" t="n">
         <v>14298</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BX10" t="n">
+        <v>6495</v>
+      </c>
+      <c r="BY10" t="n">
         <v>54760</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BZ10" t="n">
         <v>44751</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="CA10" t="n">
         <v>37710</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="CB10" t="n">
         <v>24458</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="CC10" t="n">
         <v>29544</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="CD10" t="n">
         <v>18795</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="CE10" t="n">
         <v>15774</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="CF10" t="n">
+        <v>36127</v>
+      </c>
+      <c r="CG10" t="n">
         <v>76674</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="CH10" t="n">
         <v>59297</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CI10" t="n">
         <v>21659</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CJ10" t="n">
         <v>13236</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CK10" t="n">
         <v>15556</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CL10" t="n">
         <v>6536</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CM10" t="n">
         <v>4814</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CN10" t="n">
+        <v>6282</v>
+      </c>
+      <c r="CO10" t="n">
         <v>68675</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CP10" t="n">
         <v>33187</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CQ10" t="n">
         <v>12632</v>
       </c>
-      <c r="CH10" t="n">
+      <c r="CR10" t="n">
         <v>10886</v>
       </c>
-      <c r="CI10" t="n">
+      <c r="CS10" t="n">
         <v>9338</v>
       </c>
-      <c r="CJ10" t="n">
+      <c r="CT10" t="n">
         <v>3736</v>
       </c>
-      <c r="CK10" t="n">
+      <c r="CU10" t="n">
+        <v>8533</v>
+      </c>
+      <c r="CV10" t="n">
         <v>50715</v>
       </c>
-      <c r="CL10" t="n">
+      <c r="CW10" t="n">
         <v>87044</v>
       </c>
-      <c r="CM10" t="n">
+      <c r="CX10" t="n">
         <v>39015</v>
       </c>
-      <c r="CN10" t="n">
+      <c r="CY10" t="n">
         <v>48634</v>
       </c>
-      <c r="CO10" t="n">
+      <c r="CZ10" t="n">
         <v>48096</v>
       </c>
-      <c r="CP10" t="n">
+      <c r="DA10" t="n">
         <v>56384</v>
       </c>
-      <c r="CQ10" t="n">
+      <c r="DB10" t="n">
+        <v>33081</v>
+      </c>
+      <c r="DC10" t="n">
         <v>148469</v>
       </c>
-      <c r="CR10" t="n">
+      <c r="DD10" t="n">
         <v>73619</v>
       </c>
-      <c r="CS10" t="n">
+      <c r="DE10" t="n">
         <v>71010</v>
       </c>
-      <c r="CT10" t="n">
+      <c r="DF10" t="n">
         <v>22721</v>
       </c>
-      <c r="CU10" t="n">
+      <c r="DG10" t="n">
         <v>29335</v>
       </c>
-      <c r="CV10" t="n">
+      <c r="DH10" t="n">
         <v>39900</v>
       </c>
-      <c r="CW10" t="n">
+      <c r="DI10" t="n">
+        <v>31604</v>
+      </c>
+      <c r="DJ10" t="n">
         <v>40948</v>
       </c>
-      <c r="CX10" t="n">
+      <c r="DK10" t="n">
         <v>35738</v>
       </c>
-      <c r="CY10" t="n">
+      <c r="DL10" t="n">
         <v>47923</v>
       </c>
-      <c r="CZ10" t="n">
+      <c r="DM10" t="n">
         <v>16224</v>
       </c>
-      <c r="DA10" t="n">
+      <c r="DN10" t="n">
         <v>11375</v>
       </c>
-      <c r="DB10" t="n">
+      <c r="DO10" t="n">
         <v>12405</v>
       </c>
-      <c r="DC10" t="n">
+      <c r="DP10" t="n">
+        <v>13352</v>
+      </c>
+      <c r="DQ10" t="n">
         <v>100293</v>
       </c>
-      <c r="DD10" t="n">
+      <c r="DR10" t="n">
         <v>119536</v>
       </c>
-      <c r="DE10" t="n">
+      <c r="DS10" t="n">
         <v>84871</v>
       </c>
-      <c r="DF10" t="n">
+      <c r="DT10" t="n">
         <v>48821</v>
       </c>
-      <c r="DG10" t="n">
+      <c r="DU10" t="n">
         <v>32052</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="DV10" t="n">
         <v>20185</v>
       </c>
-      <c r="DI10" t="n">
+      <c r="DW10" t="n">
+        <v>25191</v>
+      </c>
+      <c r="DX10" t="n">
         <v>112446</v>
       </c>
-      <c r="DJ10" t="n">
+      <c r="DY10" t="n">
         <v>57905</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="DZ10" t="n">
         <v>51608</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="EA10" t="n">
         <v>56793</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="EB10" t="n">
         <v>12372</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="EC10" t="n">
         <v>17160</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="ED10" t="n">
+        <v>16224</v>
+      </c>
+      <c r="EE10" t="n">
         <v>40514</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="EF10" t="n">
         <v>11071</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="EG10" t="n">
         <v>14136</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="EH10" t="n">
         <v>11455</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="EI10" t="n">
         <v>12715</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="EJ10" t="n">
         <v>11924</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="EK10" t="n">
+        <v>8197</v>
+      </c>
+      <c r="EL10" t="n">
         <v>573079</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="EM10" t="n">
         <v>911225</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="EN10" t="n">
         <v>339716</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="EO10" t="n">
         <v>158199</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="EP10" t="n">
         <v>187879</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EQ10" t="n">
         <v>226617</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="ER10" t="n">
+        <v>312281</v>
+      </c>
+      <c r="ES10" t="n">
         <v>483325</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="ET10" t="n">
         <v>196973</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="EU10" t="n">
         <v>198897</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EV10" t="n">
         <v>116976</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EW10" t="n">
         <v>73158</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EX10" t="n">
         <v>27828</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EY10" t="n">
+        <v>49129</v>
+      </c>
+      <c r="EZ10" t="n">
         <v>79627</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="FA10" t="n">
         <v>79601</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="FB10" t="n">
         <v>20226</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="FC10" t="n">
         <v>17213</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="FD10" t="n">
         <v>18962</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="FE10" t="n">
         <v>38277</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="FF10" t="n">
+        <v>23455</v>
+      </c>
+      <c r="FG10" t="n">
         <v>408576</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="FH10" t="n">
         <v>307444</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="FI10" t="n">
         <v>143536</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="FJ10" t="n">
         <v>60819</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="FK10" t="n">
         <v>68828</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="FL10" t="n">
         <v>86865</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="FM10" t="n">
+        <v>101615</v>
+      </c>
+      <c r="FN10" t="n">
         <v>83977</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="FO10" t="n">
         <v>49244</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="FP10" t="n">
         <v>34472</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="FQ10" t="n">
         <v>30872</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="FR10" t="n">
         <v>11607</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="FS10" t="n">
+        <v>20362</v>
+      </c>
+      <c r="FT10" t="n">
         <v>236252</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="FU10" t="n">
         <v>98265</v>
       </c>
-      <c r="EZ10" t="n">
+      <c r="FV10" t="n">
         <v>30101</v>
       </c>
-      <c r="FA10" t="n">
+      <c r="FW10" t="n">
         <v>41693</v>
       </c>
-      <c r="FB10" t="n">
+      <c r="FX10" t="n">
         <v>64098</v>
       </c>
-      <c r="FC10" t="n">
+      <c r="FY10" t="n">
+        <v>53415</v>
+      </c>
+      <c r="FZ10" t="n">
         <v>121218</v>
       </c>
-      <c r="FD10" t="n">
+      <c r="GA10" t="n">
         <v>109651</v>
       </c>
-      <c r="FE10" t="n">
+      <c r="GB10" t="n">
         <v>29570</v>
       </c>
-      <c r="FF10" t="n">
+      <c r="GC10" t="n">
         <v>45137</v>
       </c>
-      <c r="FG10" t="n">
+      <c r="GD10" t="n">
         <v>310373</v>
       </c>
-      <c r="FH10" t="n">
+      <c r="GE10" t="n">
+        <v>91577</v>
+      </c>
+      <c r="GF10" t="n">
         <v>388994</v>
       </c>
-      <c r="FI10" t="n">
+      <c r="GG10" t="n">
         <v>148260</v>
       </c>
-      <c r="FJ10" t="n">
+      <c r="GH10" t="n">
         <v>54969</v>
       </c>
-      <c r="FK10" t="n">
+      <c r="GI10" t="n">
         <v>216869</v>
       </c>
-      <c r="FL10" t="n">
+      <c r="GJ10" t="n">
         <v>136401</v>
       </c>
-      <c r="FM10" t="n">
+      <c r="GK10" t="n">
+        <v>194385</v>
+      </c>
+      <c r="GL10" t="n">
         <v>252788</v>
       </c>
-      <c r="FN10" t="n">
+      <c r="GM10" t="n">
         <v>151765</v>
       </c>
-      <c r="FO10" t="n">
+      <c r="GN10" t="n">
         <v>91240</v>
       </c>
-      <c r="FP10" t="n">
+      <c r="GO10" t="n">
         <v>148370</v>
       </c>
-      <c r="FQ10" t="n">
+      <c r="GP10" t="n">
+        <v>91324</v>
+      </c>
+      <c r="GQ10" t="n">
         <v>139048</v>
       </c>
-      <c r="FR10" t="n">
+      <c r="GR10" t="n">
         <v>38926</v>
       </c>
-      <c r="FS10" t="n">
+      <c r="GS10" t="n">
         <v>112753</v>
       </c>
-      <c r="FT10" t="n">
+      <c r="GT10" t="n">
         <v>59314</v>
       </c>
-      <c r="FU10" t="n">
+      <c r="GU10" t="n">
+        <v>49475</v>
+      </c>
+      <c r="GV10" t="n">
         <v>157314</v>
       </c>
-      <c r="FV10" t="n">
+      <c r="GW10" t="n">
         <v>516909</v>
       </c>
-      <c r="FW10" t="n">
+      <c r="GX10" t="n">
         <v>173554</v>
       </c>
-      <c r="FX10" t="n">
+      <c r="GY10" t="n">
         <v>384741</v>
       </c>
-      <c r="FY10" t="n">
+      <c r="GZ10" t="n">
+        <v>200225</v>
+      </c>
+      <c r="HA10" t="n">
         <v>56745</v>
       </c>
-      <c r="FZ10" t="n">
+      <c r="HB10" t="n">
         <v>14960</v>
       </c>
-      <c r="GA10" t="n">
+      <c r="HC10" t="n">
         <v>8750</v>
       </c>
-      <c r="GB10" t="n">
+      <c r="HD10" t="n">
+        <v>11995</v>
+      </c>
+      <c r="HE10" t="n">
         <v>38086</v>
       </c>
-      <c r="GC10" t="n">
+      <c r="HF10" t="n">
         <v>22247</v>
       </c>
-      <c r="GD10" t="n">
+      <c r="HG10" t="n">
+        <v>13856</v>
+      </c>
+      <c r="HH10" t="n">
         <v>77447</v>
       </c>
-      <c r="GE10" t="n">
+      <c r="HI10" t="n">
         <v>71120</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>296167</v>
       </c>
     </row>
   </sheetData>

--- a/module/monitor.xlsx
+++ b/module/monitor.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG10"/>
+  <dimension ref="A1:DU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,175 +428,175 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AK1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AT1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BF1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BL1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BN1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BO1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BP1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BQ1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BR1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BS1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BT1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BU1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BV1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="BN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="BT1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="BU1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="BV1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="BW1" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BX1" s="1" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BY1" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="BZ1" s="1" t="n">
         <v>0</v>
@@ -608,18 +608,138 @@
         <v>2</v>
       </c>
       <c r="CC1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="CG1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="CH1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="CI1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="CJ1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CL1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CM1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="CQ1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="CR1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CS1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CT1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="CX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="DC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="DF1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="DH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="DL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -685,199 +805,319 @@
         <v>1583366400</v>
       </c>
       <c r="U2" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="X2" t="n">
         <v>1581379200</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>1581465600</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>1581552000</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AE2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AF2" t="n">
         <v>1582243200</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="n">
         <v>1582502400</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AH2" t="n">
         <v>1582588800</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
         <v>1582675200</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
         <v>1582761600</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AK2" t="n">
         <v>1582848000</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AL2" t="n">
         <v>1583107200</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AM2" t="n">
         <v>1583193600</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AN2" t="n">
         <v>1583280000</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AO2" t="n">
         <v>1583366400</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="AS2" t="n">
         <v>1581638400</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AT2" t="n">
         <v>1581897600</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AU2" t="n">
         <v>1581984000</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AV2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AW2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AX2" t="n">
         <v>1582243200</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AY2" t="n">
         <v>1582502400</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AZ2" t="n">
         <v>1582588800</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="BA2" t="n">
         <v>1582675200</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="BB2" t="n">
         <v>1582761600</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="BC2" t="n">
         <v>1582848000</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BD2" t="n">
         <v>1583107200</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="BE2" t="n">
         <v>1583193600</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BF2" t="n">
         <v>1583280000</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BG2" t="n">
         <v>1583366400</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BH2" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="BK2" t="n">
         <v>1582070400</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BL2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BM2" t="n">
         <v>1582243200</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BN2" t="n">
         <v>1582502400</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BO2" t="n">
         <v>1582588800</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BP2" t="n">
         <v>1582675200</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BQ2" t="n">
         <v>1582761600</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BR2" t="n">
         <v>1582848000</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BS2" t="n">
         <v>1583107200</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BT2" t="n">
         <v>1583193600</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BU2" t="n">
         <v>1583280000</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BV2" t="n">
         <v>1583366400</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BW2" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>1582588800</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="CA2" t="n">
         <v>1582675200</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="CB2" t="n">
         <v>1582761600</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CC2" t="n">
         <v>1582848000</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="CD2" t="n">
         <v>1583107200</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CE2" t="n">
         <v>1583193600</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CF2" t="n">
         <v>1583280000</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1583366400</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>1583107200</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1583193600</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1583280000</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1583366400</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1583193600</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1583280000</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1583366400</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1583280000</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1583366400</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1583280000</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1583366400</v>
       </c>
       <c r="CG2" t="n">
         <v>1583366400</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1583798400</v>
       </c>
     </row>
     <row r="3">
@@ -983,327 +1223,527 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2020-02-12</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>2020-02-21</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>2020-02-24</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2020-02-25</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>2020-02-26</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>2020-02-27</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>2020-02-28</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>2020-03-02</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>2020-03-03</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>2020-03-04</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>2020-02-17</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>2020-02-18</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>2020-02-21</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>2020-02-24</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>2020-02-25</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>2020-02-26</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>2020-02-27</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="BC3" t="inlineStr">
         <is>
           <t>2020-02-28</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="BD3" t="inlineStr">
         <is>
           <t>2020-03-02</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="BE3" t="inlineStr">
         <is>
           <t>2020-03-03</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
         <is>
           <t>2020-03-04</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
         <is>
           <t>2020-02-19</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BL3" t="inlineStr">
         <is>
           <t>2020-02-20</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
+      <c r="BM3" t="inlineStr">
         <is>
           <t>2020-02-21</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BN3" t="inlineStr">
         <is>
           <t>2020-02-24</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BO3" t="inlineStr">
         <is>
           <t>2020-02-25</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr">
+      <c r="BP3" t="inlineStr">
         <is>
           <t>2020-02-26</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>2020-02-27</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BR3" t="inlineStr">
         <is>
           <t>2020-02-28</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
+      <c r="BS3" t="inlineStr">
         <is>
           <t>2020-03-02</t>
         </is>
       </c>
-      <c r="BK3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
         <is>
           <t>2020-03-03</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
+      <c r="BU3" t="inlineStr">
         <is>
           <t>2020-03-04</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
+      <c r="BV3" t="inlineStr">
         <is>
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="BN3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
         <is>
           <t>2020-02-25</t>
         </is>
       </c>
-      <c r="BO3" t="inlineStr">
+      <c r="CA3" t="inlineStr">
         <is>
           <t>2020-02-26</t>
         </is>
       </c>
-      <c r="BP3" t="inlineStr">
+      <c r="CB3" t="inlineStr">
         <is>
           <t>2020-02-27</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="CC3" t="inlineStr">
         <is>
           <t>2020-02-28</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="CD3" t="inlineStr">
         <is>
           <t>2020-03-02</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="CE3" t="inlineStr">
         <is>
           <t>2020-03-03</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="CF3" t="inlineStr">
         <is>
           <t>2020-03-04</t>
         </is>
       </c>
-      <c r="BU3" t="inlineStr">
+      <c r="CG3" t="inlineStr">
         <is>
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr">
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
         <is>
           <t>2020-03-02</t>
         </is>
       </c>
-      <c r="BW3" t="inlineStr">
+      <c r="CL3" t="inlineStr">
         <is>
           <t>2020-03-03</t>
         </is>
       </c>
-      <c r="BX3" t="inlineStr">
+      <c r="CM3" t="inlineStr">
         <is>
           <t>2020-03-04</t>
         </is>
       </c>
-      <c r="BY3" t="inlineStr">
+      <c r="CN3" t="inlineStr">
         <is>
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr">
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
         <is>
           <t>2020-03-03</t>
         </is>
       </c>
-      <c r="CA3" t="inlineStr">
+      <c r="CS3" t="inlineStr">
         <is>
           <t>2020-03-04</t>
         </is>
       </c>
-      <c r="CB3" t="inlineStr">
+      <c r="CT3" t="inlineStr">
         <is>
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="CC3" t="inlineStr">
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="CX3" t="inlineStr">
         <is>
           <t>2020-03-04</t>
         </is>
       </c>
-      <c r="CD3" t="inlineStr">
+      <c r="CY3" t="inlineStr">
         <is>
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="CE3" t="inlineStr">
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
         <is>
           <t>2020-03-04</t>
         </is>
       </c>
-      <c r="CF3" t="inlineStr">
+      <c r="DD3" t="inlineStr">
         <is>
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="CG3" t="inlineStr">
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
         <is>
           <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
         </is>
       </c>
     </row>
@@ -1410,327 +1850,527 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>5275</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>5275</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>5275</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>7095</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>7095</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>7095</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>7095</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="BC4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>9008</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>9008</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BL4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
+      <c r="BM4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BO4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BR4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BS4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BU4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BV4" t="inlineStr">
         <is>
           <t>5286</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
         <is>
           <t>0202</t>
         </is>
       </c>
-      <c r="BO4" t="inlineStr">
+      <c r="CA4" t="inlineStr">
         <is>
           <t>0202</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
+      <c r="CB4" t="inlineStr">
         <is>
           <t>0202</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="CC4" t="inlineStr">
         <is>
           <t>0202</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="CD4" t="inlineStr">
         <is>
           <t>0202</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="CE4" t="inlineStr">
         <is>
           <t>0202</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="CF4" t="inlineStr">
         <is>
           <t>0202</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr">
+      <c r="CG4" t="inlineStr">
         <is>
           <t>0202</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr">
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
         <is>
           <t>1724</t>
         </is>
       </c>
-      <c r="BW4" t="inlineStr">
+      <c r="CL4" t="inlineStr">
         <is>
           <t>1724</t>
         </is>
       </c>
-      <c r="BX4" t="inlineStr">
+      <c r="CM4" t="inlineStr">
         <is>
           <t>1724</t>
         </is>
       </c>
-      <c r="BY4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
         <is>
           <t>1724</t>
         </is>
       </c>
-      <c r="BZ4" t="inlineStr">
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
         <is>
           <t>7803</t>
         </is>
       </c>
-      <c r="CA4" t="inlineStr">
+      <c r="CS4" t="inlineStr">
         <is>
           <t>7803</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr">
+      <c r="CT4" t="inlineStr">
         <is>
           <t>7803</t>
         </is>
       </c>
-      <c r="CC4" t="inlineStr">
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>7803</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>7803</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>7803</t>
+        </is>
+      </c>
+      <c r="CX4" t="inlineStr">
         <is>
           <t>0049</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr">
+      <c r="CY4" t="inlineStr">
         <is>
           <t>0049</t>
         </is>
       </c>
-      <c r="CE4" t="inlineStr">
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
         <is>
           <t>7080</t>
         </is>
       </c>
-      <c r="CF4" t="inlineStr">
+      <c r="DD4" t="inlineStr">
         <is>
           <t>7080</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>7080</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>7080</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>7080</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
         <is>
           <t>3336</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
+      </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
+      </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>0083</t>
+        </is>
+      </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>9466</t>
+        </is>
+      </c>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="DQ4" t="inlineStr">
+        <is>
+          <t>5292</t>
+        </is>
+      </c>
+      <c r="DR4" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="DS4" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="DT4" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="DU4" t="inlineStr">
+        <is>
+          <t>0128</t>
         </is>
       </c>
     </row>
@@ -1837,327 +2477,527 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
+          <t>MYNEWS</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>MYNEWS</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>MYNEWS</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>PIE</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="BC5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="BD5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>OMESTI</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>OMESTI</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr">
+      <c r="BL5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
+      <c r="BM5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BN5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BO5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BG5" t="inlineStr">
+      <c r="BP5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
+      <c r="BQ5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BI5" t="inlineStr">
+      <c r="BR5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
+      <c r="BS5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BK5" t="inlineStr">
+      <c r="BT5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BL5" t="inlineStr">
+      <c r="BU5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BM5" t="inlineStr">
+      <c r="BV5" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="BN5" t="inlineStr">
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
         <is>
           <t>RGTECH</t>
         </is>
       </c>
-      <c r="BO5" t="inlineStr">
+      <c r="CA5" t="inlineStr">
         <is>
           <t>RGTECH</t>
         </is>
       </c>
-      <c r="BP5" t="inlineStr">
+      <c r="CB5" t="inlineStr">
         <is>
           <t>RGTECH</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr">
+      <c r="CC5" t="inlineStr">
         <is>
           <t>RGTECH</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr">
+      <c r="CD5" t="inlineStr">
         <is>
           <t>RGTECH</t>
         </is>
       </c>
-      <c r="BS5" t="inlineStr">
+      <c r="CE5" t="inlineStr">
         <is>
           <t>RGTECH</t>
         </is>
       </c>
-      <c r="BT5" t="inlineStr">
+      <c r="CF5" t="inlineStr">
         <is>
           <t>RGTECH</t>
         </is>
       </c>
-      <c r="BU5" t="inlineStr">
+      <c r="CG5" t="inlineStr">
         <is>
           <t>RGTECH</t>
         </is>
       </c>
-      <c r="BV5" t="inlineStr">
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>RGTECH</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
         <is>
           <t>PARAMON</t>
         </is>
       </c>
-      <c r="BW5" t="inlineStr">
+      <c r="CL5" t="inlineStr">
         <is>
           <t>PARAMON</t>
         </is>
       </c>
-      <c r="BX5" t="inlineStr">
+      <c r="CM5" t="inlineStr">
         <is>
           <t>PARAMON</t>
         </is>
       </c>
-      <c r="BY5" t="inlineStr">
+      <c r="CN5" t="inlineStr">
         <is>
           <t>PARAMON</t>
         </is>
       </c>
-      <c r="BZ5" t="inlineStr">
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>PARAMON</t>
+        </is>
+      </c>
+      <c r="CP5" t="inlineStr">
+        <is>
+          <t>PARAMON</t>
+        </is>
+      </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>PARAMON</t>
+        </is>
+      </c>
+      <c r="CR5" t="inlineStr">
         <is>
           <t>RUBEREX</t>
         </is>
       </c>
-      <c r="CA5" t="inlineStr">
+      <c r="CS5" t="inlineStr">
         <is>
           <t>RUBEREX</t>
         </is>
       </c>
-      <c r="CB5" t="inlineStr">
+      <c r="CT5" t="inlineStr">
         <is>
           <t>RUBEREX</t>
         </is>
       </c>
-      <c r="CC5" t="inlineStr">
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>RUBEREX</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>RUBEREX</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>RUBEREX</t>
+        </is>
+      </c>
+      <c r="CX5" t="inlineStr">
         <is>
           <t>OCNCASH</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr">
+      <c r="CY5" t="inlineStr">
         <is>
           <t>OCNCASH</t>
         </is>
       </c>
-      <c r="CE5" t="inlineStr">
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="DC5" t="inlineStr">
         <is>
           <t>PERMAJU</t>
         </is>
       </c>
-      <c r="CF5" t="inlineStr">
+      <c r="DD5" t="inlineStr">
         <is>
           <t>PERMAJU</t>
         </is>
       </c>
-      <c r="CG5" t="inlineStr">
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>PERMAJU</t>
+        </is>
+      </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>PERMAJU</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>PERMAJU</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr">
         <is>
           <t>IJM</t>
+        </is>
+      </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>IJM</t>
+        </is>
+      </c>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>IJM</t>
+        </is>
+      </c>
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>IJM</t>
+        </is>
+      </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>JAKS</t>
+        </is>
+      </c>
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>NOTION</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>KKB</t>
+        </is>
+      </c>
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="DQ5" t="inlineStr">
+        <is>
+          <t>UWC</t>
+        </is>
+      </c>
+      <c r="DR5" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="DS5" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="DT5" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="DU5" t="inlineStr">
+        <is>
+          <t>FRONTKN</t>
         </is>
       </c>
     </row>
@@ -2223,199 +3063,319 @@
         <v>0.86</v>
       </c>
       <c r="U6" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X6" t="n">
         <v>1.29</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Y6" t="n">
         <v>1.42</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
         <v>1.56</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
         <v>1.56</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AB6" t="n">
         <v>1.61</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
         <v>1.53</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
         <v>1.51</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AF6" t="n">
         <v>1.52</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
         <v>1.47</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
         <v>1.35</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>1.38</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AJ6" t="n">
         <v>1.44</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AK6" t="n">
         <v>1.4</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AL6" t="n">
         <v>1.31</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AM6" t="n">
         <v>1.34</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AN6" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AO6" t="n">
         <v>1.32</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS6" t="n">
         <v>0.555</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AT6" t="n">
         <v>0.61</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AU6" t="n">
         <v>0.605</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AV6" t="n">
         <v>0.58</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AW6" t="n">
         <v>0.585</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AX6" t="n">
         <v>0.635</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AY6" t="n">
         <v>0.6</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AZ6" t="n">
         <v>0.605</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="BA6" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="BB6" t="n">
         <v>0.68</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="BC6" t="n">
         <v>0.645</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="BD6" t="n">
         <v>0.615</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="BE6" t="n">
         <v>0.655</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BF6" t="n">
         <v>0.645</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BG6" t="n">
         <v>0.66</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BH6" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BK6" t="n">
         <v>2.07</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BL6" t="n">
         <v>2.21</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BM6" t="n">
         <v>2.36</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BN6" t="n">
         <v>2.5</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BO6" t="n">
         <v>2.61</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BP6" t="n">
         <v>2.96</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BQ6" t="n">
         <v>2.93</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BR6" t="n">
         <v>2.68</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BS6" t="n">
         <v>2.68</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BT6" t="n">
         <v>2.92</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BU6" t="n">
         <v>2.73</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BV6" t="n">
         <v>2.8</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BW6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BZ6" t="n">
         <v>0.305</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="CA6" t="n">
         <v>0.33</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="CB6" t="n">
         <v>0.37</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="CC6" t="n">
         <v>0.345</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="CD6" t="n">
         <v>0.32</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="CE6" t="n">
         <v>0.37</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="CF6" t="n">
         <v>0.335</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="CG6" t="n">
         <v>0.375</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="CH6" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="CK6" t="n">
         <v>1.33</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="CL6" t="n">
         <v>1.42</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CM6" t="n">
         <v>1.36</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="CN6" t="n">
         <v>1.38</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CO6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="CR6" t="n">
         <v>0.75</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CS6" t="n">
         <v>0.825</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CT6" t="n">
         <v>0.83</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CU6" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CX6" t="n">
         <v>0.47</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CY6" t="n">
         <v>0.55</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CZ6" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="DC6" t="n">
         <v>0.835</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="DD6" t="n">
         <v>0.86</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="DE6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="DH6" t="n">
         <v>1.96</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="7">
@@ -2480,199 +3440,319 @@
         <v>0.865</v>
       </c>
       <c r="U7" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="X7" t="n">
         <v>1.42</v>
       </c>
-      <c r="V7" t="n">
+      <c r="Y7" t="n">
         <v>1.6</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>1.65</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>1.62</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AB7" t="n">
         <v>1.62</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
         <v>1.57</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
         <v>1.51</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
         <v>1.54</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.43</v>
       </c>
       <c r="AF7" t="n">
         <v>1.52</v>
       </c>
       <c r="AG7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>1.44</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AK7" t="n">
         <v>1.4</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AL7" t="n">
         <v>1.35</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AM7" t="n">
         <v>1.35</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AN7" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AO7" t="n">
         <v>1.34</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS7" t="n">
         <v>0.61</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AT7" t="n">
         <v>0.63</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AU7" t="n">
         <v>0.61</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AV7" t="n">
         <v>0.595</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AW7" t="n">
         <v>0.65</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AX7" t="n">
         <v>0.65</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AY7" t="n">
         <v>0.63</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AZ7" t="n">
         <v>0.715</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="BA7" t="n">
         <v>0.705</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="BB7" t="n">
         <v>0.695</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="BC7" t="n">
         <v>0.655</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="BD7" t="n">
         <v>0.64</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="BE7" t="n">
         <v>0.66</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BF7" t="n">
         <v>0.665</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BG7" t="n">
         <v>0.68</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BH7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BK7" t="n">
         <v>2.21</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BL7" t="n">
         <v>2.32</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BM7" t="n">
         <v>2.81</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BN7" t="n">
         <v>2.85</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BO7" t="n">
         <v>2.98</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BP7" t="n">
         <v>3.11</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BQ7" t="n">
         <v>2.93</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BR7" t="n">
         <v>2.75</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BS7" t="n">
         <v>2.8</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BT7" t="n">
         <v>2.94</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BU7" t="n">
         <v>2.85</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BV7" t="n">
         <v>2.93</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BW7" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BZ7" t="n">
         <v>0.33</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="CA7" t="n">
         <v>0.385</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="CB7" t="n">
         <v>0.385</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="CC7" t="n">
         <v>0.35</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="CD7" t="n">
         <v>0.355</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="CE7" t="n">
         <v>0.37</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="CF7" t="n">
         <v>0.38</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="CG7" t="n">
         <v>0.39</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="CH7" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CK7" t="n">
         <v>1.41</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="CL7" t="n">
         <v>1.43</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="CM7" t="n">
         <v>1.38</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="CN7" t="n">
         <v>1.39</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CO7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="CR7" t="n">
         <v>0.85</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CS7" t="n">
         <v>0.88</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CT7" t="n">
         <v>0.845</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CU7" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="CX7" t="n">
         <v>0.555</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CY7" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CZ7" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DC7" t="n">
         <v>0.865</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="DD7" t="n">
         <v>0.905</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="DE7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="DH7" t="n">
         <v>2.02</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="8">
@@ -2737,199 +3817,319 @@
         <v>0.86</v>
       </c>
       <c r="U8" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X8" t="n">
         <v>1.29</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>1.42</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>1.55</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
         <v>1.53</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
         <v>1.53</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AC8" t="n">
         <v>1.49</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
         <v>1.47</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
         <v>1.51</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AF8" t="n">
         <v>1.5</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AG8" t="n">
         <v>1.38</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AH8" t="n">
         <v>1.35</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>1.38</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
         <v>1.39</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AK8" t="n">
         <v>1.31</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AL8" t="n">
         <v>1.26</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AM8" t="n">
         <v>1.32</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AN8" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AO8" t="n">
         <v>1.31</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS8" t="n">
         <v>0.555</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AT8" t="n">
         <v>0.585</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AU8" t="n">
         <v>0.575</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AV8" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AW8" t="n">
         <v>0.575</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AX8" t="n">
         <v>0.62</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AY8" t="n">
         <v>0.58</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AZ8" t="n">
         <v>0.605</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="BA8" t="n">
         <v>0.66</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="BB8" t="n">
         <v>0.66</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="BC8" t="n">
         <v>0.59</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="BD8" t="n">
         <v>0.575</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="BE8" t="n">
         <v>0.64</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BF8" t="n">
         <v>0.625</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BG8" t="n">
         <v>0.635</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BH8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="BK8" t="n">
         <v>2.04</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BL8" t="n">
         <v>2.17</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BM8" t="n">
         <v>2.36</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BN8" t="n">
         <v>2.5</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BO8" t="n">
         <v>2.61</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BP8" t="n">
         <v>2.93</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BQ8" t="n">
         <v>2.74</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BR8" t="n">
         <v>2.5</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BS8" t="n">
         <v>2.58</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BT8" t="n">
         <v>2.73</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BU8" t="n">
         <v>2.67</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BV8" t="n">
         <v>2.79</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BW8" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BZ8" t="n">
         <v>0.3</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="CA8" t="n">
         <v>0.32</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="CB8" t="n">
         <v>0.34</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="CC8" t="n">
         <v>0.305</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="CD8" t="n">
         <v>0.315</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="CE8" t="n">
         <v>0.335</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="CF8" t="n">
         <v>0.33</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="CG8" t="n">
         <v>0.355</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="CH8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="CK8" t="n">
         <v>1.33</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="CL8" t="n">
         <v>1.36</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="CM8" t="n">
         <v>1.36</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="CN8" t="n">
         <v>1.37</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CO8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="CR8" t="n">
         <v>0.75</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CS8" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CT8" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CU8" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="CX8" t="n">
         <v>0.465</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CY8" t="n">
         <v>0.52</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CZ8" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="DC8" t="n">
         <v>0.835</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="DD8" t="n">
         <v>0.855</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="DE8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="DH8" t="n">
         <v>1.95</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="9">
@@ -2994,199 +4194,319 @@
         <v>0.86</v>
       </c>
       <c r="U9" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.41</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Y9" t="n">
         <v>1.57</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>1.56</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
         <v>1.6</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AB9" t="n">
         <v>1.54</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AC9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AD9" t="n">
         <v>1.51</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AE9" t="n">
         <v>1.52</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AF9" t="n">
         <v>1.52</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1.44</v>
       </c>
       <c r="AG9" t="n">
         <v>1.4</v>
       </c>
       <c r="AH9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK9" t="n">
         <v>1.39</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AL9" t="n">
         <v>1.33</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AM9" t="n">
         <v>1.35</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AN9" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AO9" t="n">
         <v>1.31</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS9" t="n">
         <v>0.6</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AT9" t="n">
         <v>0.6</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AU9" t="n">
         <v>0.58</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AV9" t="n">
         <v>0.58</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AW9" t="n">
         <v>0.635</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AX9" t="n">
         <v>0.645</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AY9" t="n">
         <v>0.61</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AZ9" t="n">
         <v>0.68</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="BA9" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="BB9" t="n">
         <v>0.665</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="BC9" t="n">
         <v>0.615</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="BD9" t="n">
         <v>0.64</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="BE9" t="n">
         <v>0.645</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="BF9" t="n">
         <v>0.655</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BG9" t="n">
         <v>0.64</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BH9" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="BK9" t="n">
         <v>2.21</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BL9" t="n">
         <v>2.31</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BM9" t="n">
         <v>2.69</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BN9" t="n">
         <v>2.67</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BO9" t="n">
         <v>2.97</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BP9" t="n">
         <v>2.95</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BQ9" t="n">
         <v>2.8</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BR9" t="n">
         <v>2.68</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BS9" t="n">
         <v>2.8</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BT9" t="n">
         <v>2.77</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BU9" t="n">
         <v>2.8</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BV9" t="n">
         <v>2.87</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BW9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BZ9" t="n">
         <v>0.33</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="CA9" t="n">
         <v>0.36</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="CB9" t="n">
         <v>0.355</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="CC9" t="n">
         <v>0.325</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="CD9" t="n">
         <v>0.355</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="CE9" t="n">
         <v>0.34</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="CF9" t="n">
         <v>0.37</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="CG9" t="n">
         <v>0.355</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="CH9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="CK9" t="n">
         <v>1.4</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="CL9" t="n">
         <v>1.36</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="CM9" t="n">
         <v>1.37</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="CN9" t="n">
         <v>1.38</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CO9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="CR9" t="n">
         <v>0.84</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CS9" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CT9" t="n">
         <v>0.825</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CU9" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="CX9" t="n">
         <v>0.55</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CY9" t="n">
         <v>0.53</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CZ9" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DC9" t="n">
         <v>0.86</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="DD9" t="n">
         <v>0.9</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="DE9" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="DH9" t="n">
         <v>2.01</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row r="10">
@@ -3251,199 +4571,319 @@
         <v>5017</v>
       </c>
       <c r="U10" t="n">
+        <v>5277</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7414</v>
+      </c>
+      <c r="W10" t="n">
+        <v>21217</v>
+      </c>
+      <c r="X10" t="n">
         <v>18403</v>
       </c>
-      <c r="V10" t="n">
+      <c r="Y10" t="n">
         <v>76674</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>59297</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AA10" t="n">
         <v>21659</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AB10" t="n">
         <v>13236</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AC10" t="n">
         <v>15556</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
         <v>6536</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AE10" t="n">
         <v>4814</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
         <v>6282</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AG10" t="n">
         <v>21845</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
         <v>10353</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
         <v>12893</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="n">
         <v>11944</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AK10" t="n">
         <v>10411</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AL10" t="n">
         <v>12415</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AM10" t="n">
         <v>6019</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AN10" t="n">
         <v>6074</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AO10" t="n">
         <v>2046</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
+        <v>4097</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>12190</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>5113</v>
+      </c>
+      <c r="AS10" t="n">
         <v>121218</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AT10" t="n">
         <v>109651</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AU10" t="n">
         <v>29570</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AV10" t="n">
         <v>45137</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AW10" t="n">
         <v>310373</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AX10" t="n">
         <v>91577</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AY10" t="n">
         <v>105503</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AZ10" t="n">
         <v>407625</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="BA10" t="n">
         <v>204984</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="BB10" t="n">
         <v>69914</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="BC10" t="n">
         <v>111960</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="BD10" t="n">
         <v>128316</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="BE10" t="n">
         <v>98455</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="BF10" t="n">
         <v>72032</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BG10" t="n">
         <v>69531</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BH10" t="n">
+        <v>35945</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>96978</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>71794</v>
+      </c>
+      <c r="BK10" t="n">
         <v>77447</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BL10" t="n">
         <v>71120</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BM10" t="n">
         <v>296167</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BN10" t="n">
         <v>160575</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BO10" t="n">
         <v>158015</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BP10" t="n">
         <v>127782</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BQ10" t="n">
         <v>119516</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BR10" t="n">
         <v>234176</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BS10" t="n">
         <v>103463</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BT10" t="n">
         <v>81416</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BU10" t="n">
         <v>78095</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BV10" t="n">
         <v>79553</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BW10" t="n">
+        <v>73366</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>133471</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>136016</v>
+      </c>
+      <c r="BZ10" t="n">
         <v>157057</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="CA10" t="n">
         <v>678386</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="CB10" t="n">
         <v>213649</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="CC10" t="n">
         <v>174610</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="CD10" t="n">
         <v>184434</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="CE10" t="n">
         <v>211712</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="CF10" t="n">
         <v>221786</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="CG10" t="n">
         <v>267584</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="CH10" t="n">
+        <v>65772</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>243833</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>267830</v>
+      </c>
+      <c r="CK10" t="n">
         <v>36114</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="CL10" t="n">
         <v>22959</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="CM10" t="n">
         <v>16531</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="CN10" t="n">
         <v>16760</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CO10" t="n">
+        <v>19983</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>20450</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>10811</v>
+      </c>
+      <c r="CR10" t="n">
         <v>149190</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CS10" t="n">
         <v>95484</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CT10" t="n">
         <v>77207</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CU10" t="n">
+        <v>98314</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>70455</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>15586</v>
+      </c>
+      <c r="CX10" t="n">
         <v>271120</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CY10" t="n">
         <v>129863</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CZ10" t="n">
+        <v>338851</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>149435</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>84889</v>
+      </c>
+      <c r="DC10" t="n">
         <v>98592</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="DD10" t="n">
         <v>54408</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="DE10" t="n">
+        <v>155703</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>71045</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>66217</v>
+      </c>
+      <c r="DH10" t="n">
         <v>41556</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>72753</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>58384</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>72088</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>559190</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>180936</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>46896</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>184073</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>304322</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>119168</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>50574</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>194547</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>142014</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>136506</v>
       </c>
     </row>
   </sheetData>

--- a/module/monitor.xlsx
+++ b/module/monitor.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,16 +374,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="F1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="n">
         <v>0</v>
@@ -392,16 +392,16 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="n">
         <v>0</v>
@@ -410,16 +410,16 @@
         <v>1</v>
       </c>
       <c r="O1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="R1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S1" s="1" t="n">
         <v>0</v>
@@ -428,10 +428,46 @@
         <v>1</v>
       </c>
       <c r="U1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -442,16 +478,16 @@
         <v>1583884800</v>
       </c>
       <c r="C2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="D2" t="n">
         <v>1583798400</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1583884800</v>
       </c>
-      <c r="E2" t="n">
-        <v>1583798400</v>
-      </c>
       <c r="F2" t="n">
-        <v>1583884800</v>
+        <v>1583971200</v>
       </c>
       <c r="G2" t="n">
         <v>1583798400</v>
@@ -460,16 +496,16 @@
         <v>1583884800</v>
       </c>
       <c r="I2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="J2" t="n">
         <v>1583798400</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1583884800</v>
       </c>
-      <c r="K2" t="n">
-        <v>1583798400</v>
-      </c>
       <c r="L2" t="n">
-        <v>1583884800</v>
+        <v>1583971200</v>
       </c>
       <c r="M2" t="n">
         <v>1583798400</v>
@@ -478,16 +514,16 @@
         <v>1583884800</v>
       </c>
       <c r="O2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="P2" t="n">
         <v>1583798400</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>1583884800</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1583798400</v>
-      </c>
       <c r="R2" t="n">
-        <v>1583884800</v>
+        <v>1583971200</v>
       </c>
       <c r="S2" t="n">
         <v>1583798400</v>
@@ -496,10 +532,46 @@
         <v>1583884800</v>
       </c>
       <c r="U2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="V2" t="n">
         <v>1583798400</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>1583884800</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1583971200</v>
       </c>
     </row>
     <row r="3">
@@ -515,102 +587,162 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
         </is>
       </c>
     </row>
@@ -627,102 +759,162 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0083</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>9466</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>9466</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>9466</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>5292</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>5292</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>5292</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>0176</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>0176</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>0128</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>5273</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>5273</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>1996</t>
         </is>
       </c>
     </row>
@@ -739,102 +931,162 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>JAKS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NOTION</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>KKB</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>KKB</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>KKB</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>UWC</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>UWC</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>UWC</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>KRONO</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>KRONO</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>FRONTKN</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>CHINHIN</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>KRETAM</t>
         </is>
       </c>
     </row>
@@ -846,64 +1098,100 @@
         <v>1.07</v>
       </c>
       <c r="C6" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.72</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.845</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.6</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>1.77</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.785</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>0.925</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.67</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>0.735</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.13</v>
       </c>
-      <c r="L6" t="n">
+      <c r="Q6" t="n">
         <v>2.38</v>
       </c>
-      <c r="M6" t="n">
+      <c r="R6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.65</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>3.07</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.485</v>
       </c>
-      <c r="P6" t="n">
+      <c r="W6" t="n">
         <v>0.525</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="X6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" t="n">
         <v>0.58</v>
       </c>
-      <c r="R6" t="n">
+      <c r="Z6" t="n">
         <v>0.665</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AA6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.78</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AC6" t="n">
         <v>2.06</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AD6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AE6" t="n">
         <v>0.52</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AF6" t="n">
         <v>0.5600000000000001</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.315</v>
       </c>
     </row>
     <row r="7">
@@ -914,64 +1202,100 @@
         <v>1.1</v>
       </c>
       <c r="C7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.84</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.88</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.79</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>1.91</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.92</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>0.995</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.745</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
         <v>0.765</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.37</v>
       </c>
-      <c r="L7" t="n">
+      <c r="Q7" t="n">
         <v>2.44</v>
       </c>
-      <c r="M7" t="n">
+      <c r="R7" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.05</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>3.13</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V7" t="n">
         <v>0.54</v>
       </c>
-      <c r="P7" t="n">
+      <c r="W7" t="n">
         <v>0.55</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="X7" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.67</v>
       </c>
-      <c r="R7" t="n">
+      <c r="Z7" t="n">
         <v>0.7</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AA7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AB7" t="n">
         <v>2.06</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AC7" t="n">
         <v>2.07</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AD7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AE7" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AF7" t="n">
         <v>0.5649999999999999</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
@@ -982,64 +1306,100 @@
         <v>1.04</v>
       </c>
       <c r="C8" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.715</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.8</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.6</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>1.77</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.785</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>0.9</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.645</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="P8" t="n">
         <v>2.1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Q8" t="n">
         <v>2.18</v>
       </c>
-      <c r="M8" t="n">
+      <c r="R8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.62</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>2.87</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.48</v>
       </c>
-      <c r="P8" t="n">
+      <c r="W8" t="n">
         <v>0.51</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="X8" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.575</v>
       </c>
-      <c r="R8" t="n">
+      <c r="Z8" t="n">
         <v>0.66</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AA8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB8" t="n">
         <v>1.72</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AC8" t="n">
         <v>1.94</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AD8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0.52</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AF8" t="n">
         <v>0.5600000000000001</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -1050,64 +1410,100 @@
         <v>1.05</v>
       </c>
       <c r="C9" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.835</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.8</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.74</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>1.89</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.91</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>0.91</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.745</v>
       </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="P9" t="n">
         <v>2.36</v>
       </c>
-      <c r="L9" t="n">
+      <c r="Q9" t="n">
         <v>2.19</v>
       </c>
-      <c r="M9" t="n">
+      <c r="R9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S9" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>2.88</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V9" t="n">
         <v>0.53</v>
       </c>
-      <c r="P9" t="n">
+      <c r="W9" t="n">
         <v>0.515</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="X9" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.665</v>
       </c>
-      <c r="R9" t="n">
+      <c r="Z9" t="n">
         <v>0.68</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AA9" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB9" t="n">
         <v>2.03</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AC9" t="n">
         <v>1.99</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AD9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AE9" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AF9" t="n">
         <v>0.5649999999999999</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.375</v>
       </c>
     </row>
     <row r="10">
@@ -1118,64 +1514,100 @@
         <v>307508</v>
       </c>
       <c r="C10" t="n">
+        <v>882187</v>
+      </c>
+      <c r="D10" t="n">
         <v>180936</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>182935</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>79996</v>
+      </c>
+      <c r="G10" t="n">
         <v>46896</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>34195</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
+        <v>19681</v>
+      </c>
+      <c r="J10" t="n">
         <v>184073</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>211190</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
+        <v>131196</v>
+      </c>
+      <c r="M10" t="n">
         <v>304322</v>
       </c>
-      <c r="J10" t="n">
+      <c r="N10" t="n">
         <v>284168</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
+        <v>212709</v>
+      </c>
+      <c r="P10" t="n">
         <v>119168</v>
       </c>
-      <c r="L10" t="n">
+      <c r="Q10" t="n">
         <v>97137</v>
       </c>
-      <c r="M10" t="n">
+      <c r="R10" t="n">
+        <v>229494</v>
+      </c>
+      <c r="S10" t="n">
         <v>50574</v>
       </c>
-      <c r="N10" t="n">
+      <c r="T10" t="n">
         <v>30556</v>
       </c>
-      <c r="O10" t="n">
+      <c r="U10" t="n">
+        <v>86150</v>
+      </c>
+      <c r="V10" t="n">
         <v>194547</v>
       </c>
-      <c r="P10" t="n">
+      <c r="W10" t="n">
         <v>131818</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="X10" t="n">
+        <v>103795</v>
+      </c>
+      <c r="Y10" t="n">
         <v>142014</v>
       </c>
-      <c r="R10" t="n">
+      <c r="Z10" t="n">
         <v>117873</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AA10" t="n">
+        <v>48231</v>
+      </c>
+      <c r="AB10" t="n">
         <v>136506</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AC10" t="n">
         <v>79433</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AD10" t="n">
+        <v>92928</v>
+      </c>
+      <c r="AE10" t="n">
         <v>6397</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AF10" t="n">
         <v>44108</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>50667</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>33240</v>
       </c>
     </row>
   </sheetData>

--- a/module/monitor.xlsx
+++ b/module/monitor.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,40 +377,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="I1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N1" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P1" s="1" t="n">
         <v>0</v>
@@ -422,40 +422,40 @@
         <v>2</v>
       </c>
       <c r="S1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="X1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AC1" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE1" s="1" t="n">
         <v>0</v>
@@ -467,7 +467,109 @@
         <v>2</v>
       </c>
       <c r="AH1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -481,40 +583,40 @@
         <v>1583971200</v>
       </c>
       <c r="D2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="F2" t="n">
         <v>1583798400</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>1583884800</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>1583971200</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="K2" t="n">
         <v>1583798400</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>1583884800</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>1583971200</v>
       </c>
-      <c r="J2" t="n">
-        <v>1583798400</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1583884800</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1583971200</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1583798400</v>
-      </c>
       <c r="N2" t="n">
-        <v>1583884800</v>
+        <v>1584057600</v>
       </c>
       <c r="O2" t="n">
-        <v>1583971200</v>
+        <v>1584316800</v>
       </c>
       <c r="P2" t="n">
         <v>1583798400</v>
@@ -526,40 +628,40 @@
         <v>1583971200</v>
       </c>
       <c r="S2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="U2" t="n">
         <v>1583798400</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>1583884800</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>1583971200</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="Z2" t="n">
         <v>1583798400</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AA2" t="n">
         <v>1583884800</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
         <v>1583971200</v>
       </c>
-      <c r="Y2" t="n">
-        <v>1583798400</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1583884800</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1583971200</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1583798400</v>
-      </c>
       <c r="AC2" t="n">
-        <v>1583884800</v>
+        <v>1584057600</v>
       </c>
       <c r="AD2" t="n">
-        <v>1583971200</v>
+        <v>1584316800</v>
       </c>
       <c r="AE2" t="n">
         <v>1583798400</v>
@@ -571,7 +673,109 @@
         <v>1583971200</v>
       </c>
       <c r="AH2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="AL2" t="n">
         <v>1583971200</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1584316800</v>
       </c>
     </row>
     <row r="3">
@@ -592,157 +796,327 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
         <is>
           <t>2020-03-10</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
         <is>
           <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
         </is>
       </c>
     </row>
@@ -764,157 +1138,327 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0083</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0083</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>9466</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>9466</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>9466</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>9466</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>9466</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>5292</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>5292</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>5292</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>5292</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>5292</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>0176</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>0176</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>0176</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>0128</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>0128</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
         <is>
           <t>5273</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>5273</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>5273</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
         <is>
           <t>1996</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>5247</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>5247</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>5151</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>5151</t>
         </is>
       </c>
     </row>
@@ -936,157 +1480,327 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>JAKS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>JAKS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>NOTION</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>NOTION</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>KKB</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>KKB</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>KKB</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>KKB</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>KKB</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>UWC</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>UWC</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>UWC</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>UWC</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>UWC</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>KRONO</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>KRONO</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>KRONO</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>FRONTKN</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>FRONTKN</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>CHINHIN</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>CHINHIN</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>CHINHIN</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
         <is>
           <t>KRETAM</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>KRETAM</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>KRETAM</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>EWINT</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>KAREX</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>KAREX</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>HEXTAR</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>HEXTAR</t>
         </is>
       </c>
     </row>
@@ -1101,97 +1815,199 @@
         <v>0.985</v>
       </c>
       <c r="D6" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.72</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.845</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.775</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K6" t="n">
         <v>1.6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>1.77</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>1.86</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P6" t="n">
         <v>0.785</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Q6" t="n">
         <v>0.925</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.875</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.67</v>
       </c>
-      <c r="N6" t="n">
+      <c r="V6" t="n">
         <v>0.735</v>
       </c>
-      <c r="O6" t="n">
+      <c r="W6" t="n">
         <v>0.67</v>
       </c>
-      <c r="P6" t="n">
+      <c r="X6" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Z6" t="n">
         <v>2.13</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AA6" t="n">
         <v>2.38</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AB6" t="n">
         <v>2.08</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AC6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AE6" t="n">
         <v>2.65</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AF6" t="n">
         <v>3.07</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AG6" t="n">
         <v>2.8</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AH6" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>0.485</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AK6" t="n">
         <v>0.525</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AL6" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AM6" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AO6" t="n">
         <v>0.58</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AP6" t="n">
         <v>0.665</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AQ6" t="n">
         <v>0.66</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AR6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="AT6" t="n">
         <v>1.78</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AU6" t="n">
         <v>2.06</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AV6" t="n">
         <v>1.91</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AW6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY6" t="n">
         <v>0.52</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AZ6" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="BA6" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="BB6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BD6" t="n">
         <v>0.315</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1205,97 +2021,199 @@
         <v>0.99</v>
       </c>
       <c r="D7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.84</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.88</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.78</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="K7" t="n">
         <v>1.79</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
         <v>1.91</v>
       </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
         <v>1.86</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P7" t="n">
         <v>0.92</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Q7" t="n">
         <v>0.995</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.885</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.745</v>
       </c>
-      <c r="N7" t="n">
+      <c r="V7" t="n">
         <v>0.765</v>
       </c>
-      <c r="O7" t="n">
+      <c r="W7" t="n">
         <v>0.675</v>
       </c>
-      <c r="P7" t="n">
+      <c r="X7" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="Z7" t="n">
         <v>2.37</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AA7" t="n">
         <v>2.44</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AB7" t="n">
         <v>2.09</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AC7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AE7" t="n">
         <v>3.05</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AF7" t="n">
         <v>3.13</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AG7" t="n">
         <v>2.8</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AH7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>0.54</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AK7" t="n">
         <v>0.55</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AL7" t="n">
         <v>0.505</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AM7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="AO7" t="n">
         <v>0.67</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AP7" t="n">
         <v>0.7</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AQ7" t="n">
         <v>0.66</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AR7" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="AT7" t="n">
         <v>2.06</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AU7" t="n">
         <v>2.07</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AV7" t="n">
         <v>1.95</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AW7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY7" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AZ7" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="BA7" t="n">
         <v>0.575</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="BB7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BD7" t="n">
         <v>0.38</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1309,97 +2227,199 @@
         <v>0.865</v>
       </c>
       <c r="D8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.715</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0.735</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K8" t="n">
         <v>1.6</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
         <v>1.77</v>
       </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
         <v>1.76</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.785</v>
       </c>
-      <c r="K8" t="n">
+      <c r="Q8" t="n">
         <v>0.9</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.8</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.645</v>
       </c>
-      <c r="N8" t="n">
+      <c r="V8" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="O8" t="n">
+      <c r="W8" t="n">
         <v>0.615</v>
       </c>
-      <c r="P8" t="n">
+      <c r="X8" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="Z8" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AA8" t="n">
         <v>2.18</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AB8" t="n">
         <v>1.83</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AC8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AE8" t="n">
         <v>2.62</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AF8" t="n">
         <v>2.87</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AG8" t="n">
         <v>2.47</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AH8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>0.48</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AK8" t="n">
         <v>0.51</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AL8" t="n">
         <v>0.47</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AM8" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AO8" t="n">
         <v>0.575</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AP8" t="n">
         <v>0.66</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AQ8" t="n">
         <v>0.63</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AR8" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="AT8" t="n">
         <v>1.72</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AU8" t="n">
         <v>1.94</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AV8" t="n">
         <v>1.86</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AW8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY8" t="n">
         <v>0.52</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AZ8" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="BA8" t="n">
         <v>0.55</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="BB8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="BD8" t="n">
         <v>0.3</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.475</v>
       </c>
     </row>
     <row r="9">
@@ -1413,97 +2433,199 @@
         <v>0.87</v>
       </c>
       <c r="D9" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.835</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.8</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0.74</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K9" t="n">
         <v>1.74</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
         <v>1.89</v>
       </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
         <v>1.77</v>
       </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.91</v>
       </c>
-      <c r="K9" t="n">
+      <c r="Q9" t="n">
         <v>0.91</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.745</v>
       </c>
-      <c r="N9" t="n">
+      <c r="V9" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="O9" t="n">
+      <c r="W9" t="n">
         <v>0.625</v>
       </c>
-      <c r="P9" t="n">
+      <c r="X9" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>2.36</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AA9" t="n">
         <v>2.19</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AB9" t="n">
         <v>1.87</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AC9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AE9" t="n">
         <v>3</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AF9" t="n">
         <v>2.88</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AG9" t="n">
         <v>2.47</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AH9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>0.53</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AK9" t="n">
         <v>0.515</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AL9" t="n">
         <v>0.47</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AM9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AO9" t="n">
         <v>0.665</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AP9" t="n">
         <v>0.68</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AQ9" t="n">
         <v>0.64</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AR9" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AT9" t="n">
         <v>2.03</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AU9" t="n">
         <v>1.99</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AV9" t="n">
         <v>1.89</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AW9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY9" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AZ9" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="BA9" t="n">
         <v>0.575</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="BB9" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BD9" t="n">
         <v>0.375</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="10">
@@ -1517,97 +2639,199 @@
         <v>882187</v>
       </c>
       <c r="D10" t="n">
+        <v>1254679</v>
+      </c>
+      <c r="E10" t="n">
+        <v>761115</v>
+      </c>
+      <c r="F10" t="n">
         <v>180936</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>182935</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>79996</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
+        <v>202201</v>
+      </c>
+      <c r="J10" t="n">
+        <v>141571</v>
+      </c>
+      <c r="K10" t="n">
         <v>46896</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
         <v>34195</v>
       </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
         <v>19681</v>
       </c>
-      <c r="J10" t="n">
+      <c r="N10" t="n">
+        <v>12642</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16882</v>
+      </c>
+      <c r="P10" t="n">
         <v>184073</v>
       </c>
-      <c r="K10" t="n">
+      <c r="Q10" t="n">
         <v>211190</v>
       </c>
-      <c r="L10" t="n">
+      <c r="R10" t="n">
         <v>131196</v>
       </c>
-      <c r="M10" t="n">
+      <c r="S10" t="n">
+        <v>124393</v>
+      </c>
+      <c r="T10" t="n">
+        <v>101143</v>
+      </c>
+      <c r="U10" t="n">
         <v>304322</v>
       </c>
-      <c r="N10" t="n">
+      <c r="V10" t="n">
         <v>284168</v>
       </c>
-      <c r="O10" t="n">
+      <c r="W10" t="n">
         <v>212709</v>
       </c>
-      <c r="P10" t="n">
+      <c r="X10" t="n">
+        <v>357125</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>219799</v>
+      </c>
+      <c r="Z10" t="n">
         <v>119168</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AA10" t="n">
         <v>97137</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AB10" t="n">
         <v>229494</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AC10" t="n">
+        <v>481778</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>167678</v>
+      </c>
+      <c r="AE10" t="n">
         <v>50574</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AF10" t="n">
         <v>30556</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AG10" t="n">
         <v>86150</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AH10" t="n">
+        <v>70678</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>51686</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>194547</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AK10" t="n">
         <v>131818</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AL10" t="n">
         <v>103795</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AM10" t="n">
+        <v>170199</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>94919</v>
+      </c>
+      <c r="AO10" t="n">
         <v>142014</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AP10" t="n">
         <v>117873</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AQ10" t="n">
         <v>48231</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AR10" t="n">
+        <v>202246</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126777</v>
+      </c>
+      <c r="AT10" t="n">
         <v>136506</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AU10" t="n">
         <v>79433</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AV10" t="n">
         <v>92928</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AW10" t="n">
+        <v>230653</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>112685</v>
+      </c>
+      <c r="AY10" t="n">
         <v>6397</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AZ10" t="n">
         <v>44108</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="BA10" t="n">
         <v>50667</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="BB10" t="n">
+        <v>48674</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>5565</v>
+      </c>
+      <c r="BD10" t="n">
         <v>33240</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>22723</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>31267</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>52866</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>68281</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>62238</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>56573</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>37780</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>7179</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>50440</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>58905</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>35006</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>17536</v>
       </c>
     </row>
   </sheetData>

--- a/module/monitor.xlsx
+++ b/module/monitor.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:BT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,105 +380,207 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I1" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AJ1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AL1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -496,106 +598,208 @@
         <v>1584403200</v>
       </c>
       <c r="E2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="F2" t="n">
         <v>1584057600</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1584316800</v>
       </c>
-      <c r="G2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="H2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="J2" t="n">
         <v>1584316800</v>
       </c>
-      <c r="I2" t="n">
-        <v>1584403200</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="K2" t="n">
         <v>1584403200</v>
       </c>
       <c r="L2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="M2" t="n">
         <v>1584403200</v>
       </c>
       <c r="N2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="O2" t="n">
         <v>1584403200</v>
       </c>
       <c r="P2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="Q2" t="n">
         <v>1584403200</v>
       </c>
       <c r="R2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="S2" t="n">
         <v>1584403200</v>
       </c>
       <c r="T2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="U2" t="n">
         <v>1584403200</v>
       </c>
       <c r="V2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="W2" t="n">
         <v>1584403200</v>
       </c>
       <c r="X2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="Y2" t="n">
         <v>1584403200</v>
       </c>
       <c r="Z2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="AA2" t="n">
         <v>1584403200</v>
       </c>
       <c r="AB2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="AC2" t="n">
         <v>1584403200</v>
       </c>
       <c r="AD2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="AE2" t="n">
         <v>1584403200</v>
       </c>
       <c r="AF2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="AG2" t="n">
         <v>1584403200</v>
       </c>
       <c r="AH2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="AI2" t="n">
         <v>1584403200</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
       </c>
       <c r="AK2" t="n">
         <v>1584403200</v>
       </c>
       <c r="AL2" t="n">
-        <v>1584403200</v>
+        <v>1584489600</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1584489600</v>
       </c>
     </row>
     <row r="3">
@@ -621,34 +825,34 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2020-03-16</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2020-03-17</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>2020-03-16</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2020-03-17</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2020-03-17</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
@@ -656,7 +860,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -666,7 +870,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -676,7 +880,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -686,7 +890,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -696,7 +900,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -706,7 +910,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -716,7 +920,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -726,7 +930,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -736,7 +940,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -746,7 +950,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -756,7 +960,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -766,7 +970,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -776,7 +980,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -786,7 +990,177 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
         </is>
       </c>
     </row>
@@ -813,172 +1187,342 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>5151</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>5151</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>5151</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5151</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>5285</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>5285</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>5285</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>5216</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>3069</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0128</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0138</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>1562</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>7160</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>7160</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>5398</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>5398</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>4715</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>4715</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>1619</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>5246</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>7148</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>7293</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>7106</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>7106</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>4197</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
         <is>
           <t>1015</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>0083</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
         <is>
           <t>9466</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>9466</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
         <is>
           <t>5292</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>5292</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
         <is>
           <t>0176</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
         <is>
           <t>5273</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
         <is>
           <t>5247</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>5247</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>5264</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>5106</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>7277</t>
         </is>
       </c>
     </row>
@@ -1005,172 +1549,342 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>KRETAM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>HEXTAR</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>HEXTAR</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>HEXTAR</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HEXTAR</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>SIMEPLT</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>SIMEPLT</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SIMEPLT</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DSONIC</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>MFCB</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>FRONTKN</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>MYEG</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>BJTOTO</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>BJTOTO</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>PENTA</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>PENTA</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>GAMUDA</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>GAMUDA</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>GENM</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>GENM</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>DRBHCOM</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>DRBHCOM</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>WPRTS</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>DPHARMA</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
         <is>
           <t>YINSON</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>SUPERMX</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>SUPERMX</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>SIME</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>SIME</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
         <is>
           <t>AMBANK</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>AMBANK</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>JAKS</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>NOTION</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>KKB</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>KKB</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
         <is>
           <t>UWC</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>UWC</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
         <is>
           <t>KRONO</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
         <is>
           <t>CHINHIN</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
         <is>
           <t>KAREX</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>KAREX</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
         <is>
           <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>AXREIT</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>DIALOG</t>
         </is>
       </c>
     </row>
@@ -1188,106 +1902,208 @@
         <v>0.325</v>
       </c>
       <c r="E6" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.55</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.545</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.91</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.675</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.45</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3.43</v>
       </c>
-      <c r="M6" t="n">
+      <c r="R6" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.35</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.78</v>
       </c>
-      <c r="O6" t="n">
+      <c r="V6" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.05</v>
       </c>
-      <c r="P6" t="n">
+      <c r="X6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Y6" t="n">
         <v>2.82</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Z6" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AB6" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AC6" t="n">
         <v>2.45</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AD6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE6" t="n">
         <v>1.9</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AF6" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AG6" t="n">
         <v>1.16</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AH6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI6" t="n">
         <v>2.97</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AJ6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AK6" t="n">
         <v>1.05</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AL6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM6" t="n">
         <v>4.98</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AN6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO6" t="n">
         <v>1.35</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AP6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.6</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AR6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS6" t="n">
         <v>2.84</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AT6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU6" t="n">
         <v>0.645</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AV6" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="AW6" t="n">
         <v>0.545</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AX6" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="AY6" t="n">
         <v>1.38</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AZ6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BA6" t="n">
         <v>0.62</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="BB6" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="BC6" t="n">
         <v>1.35</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="BD6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE6" t="n">
         <v>1.73</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="BF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG6" t="n">
         <v>0.33</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="BH6" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="BI6" t="n">
         <v>0.405</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="BJ6" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="BK6" t="n">
         <v>0.45</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="BL6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BM6" t="n">
         <v>0.285</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="BN6" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="BO6" t="n">
         <v>0.335</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="BP6" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="BQ6" t="n">
         <v>0.695</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>2.84</v>
       </c>
     </row>
     <row r="7">
@@ -1304,106 +2120,208 @@
         <v>0.345</v>
       </c>
       <c r="E7" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.58</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.55</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J7" t="n">
         <v>4.23</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>4.29</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.8</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.545</v>
       </c>
-      <c r="L7" t="n">
+      <c r="P7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4.01</v>
       </c>
-      <c r="M7" t="n">
+      <c r="R7" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.67</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.93</v>
       </c>
-      <c r="O7" t="n">
+      <c r="V7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W7" t="n">
         <v>2.2</v>
       </c>
-      <c r="P7" t="n">
+      <c r="X7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y7" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Z7" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.61</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.78</v>
       </c>
       <c r="AB7" t="n">
         <v>0.635</v>
       </c>
       <c r="AC7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AY7" t="n">
         <v>1.63</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AZ7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA7" t="n">
         <v>0.725</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="BB7" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BC7" t="n">
         <v>1.64</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="BD7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE7" t="n">
         <v>2.08</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="BF7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG7" t="n">
         <v>0.395</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="BH7" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="BI7" t="n">
         <v>0.48</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="BJ7" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="BK7" t="n">
         <v>0.5</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="BL7" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="BM7" t="n">
         <v>0.325</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="BN7" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="BO7" t="n">
         <v>0.415</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="BP7" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="BQ7" t="n">
         <v>0.72</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="8">
@@ -1420,106 +2338,208 @@
         <v>0.32</v>
       </c>
       <c r="E8" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.535</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.475</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.535</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.82</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>3.89</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.67</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.45</v>
       </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3.3</v>
       </c>
-      <c r="M8" t="n">
+      <c r="R8" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.35</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.78</v>
       </c>
-      <c r="O8" t="n">
+      <c r="V8" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.94</v>
       </c>
-      <c r="P8" t="n">
+      <c r="X8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Y8" t="n">
         <v>2.71</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Z8" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.545</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AB8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AC8" t="n">
         <v>2.36</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AD8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE8" t="n">
         <v>1.89</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AF8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AG8" t="n">
         <v>1.12</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AH8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AI8" t="n">
         <v>2.97</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AJ8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AK8" t="n">
         <v>1.05</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AL8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM8" t="n">
         <v>4.88</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AN8" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AO8" t="n">
         <v>1.3</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AP8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>1.58</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AR8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS8" t="n">
         <v>2.82</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AT8" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU8" t="n">
         <v>0.62</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AV8" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AW8" t="n">
         <v>0.54</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AX8" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="AY8" t="n">
         <v>1.37</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AZ8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA8" t="n">
         <v>0.6</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="BB8" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="BC8" t="n">
         <v>1.3</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="BD8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BE8" t="n">
         <v>1.66</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="BF8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG8" t="n">
         <v>0.325</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="BH8" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="BI8" t="n">
         <v>0.33</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="BJ8" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="BK8" t="n">
         <v>0.4</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="BL8" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="BM8" t="n">
         <v>0.285</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="BN8" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="BO8" t="n">
         <v>0.32</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="BP8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BQ8" t="n">
         <v>0.675</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="9">
@@ -1536,106 +2556,208 @@
         <v>0.34</v>
       </c>
       <c r="E9" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.58</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.55</v>
       </c>
       <c r="G9" t="n">
         <v>0.55</v>
       </c>
       <c r="H9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J9" t="n">
         <v>4.2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>4.16</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.785</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.53</v>
       </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.97</v>
       </c>
-      <c r="M9" t="n">
+      <c r="R9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.61</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.915</v>
       </c>
-      <c r="O9" t="n">
+      <c r="V9" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="W9" t="n">
         <v>2.18</v>
       </c>
-      <c r="P9" t="n">
+      <c r="X9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y9" t="n">
         <v>3.16</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Z9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.6</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AB9" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AC9" t="n">
         <v>2.7</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AD9" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE9" t="n">
         <v>2.1</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AF9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AG9" t="n">
         <v>1.28</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AH9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI9" t="n">
         <v>3.3</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AJ9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AK9" t="n">
         <v>1.16</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AL9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM9" t="n">
         <v>5.31</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>1.51</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AP9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>1.71</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AR9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS9" t="n">
         <v>3.05</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AT9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU9" t="n">
         <v>0.755</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AV9" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="AW9" t="n">
         <v>0.595</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AX9" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AY9" t="n">
         <v>1.6</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AZ9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA9" t="n">
         <v>0.665</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="BB9" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="BC9" t="n">
         <v>1.56</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="BD9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BE9" t="n">
         <v>2</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="BF9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG9" t="n">
         <v>0.38</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="BH9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BI9" t="n">
         <v>0.445</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="BJ9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BK9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="BL9" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BM9" t="n">
         <v>0.32</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="BN9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BO9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="BP9" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="BQ9" t="n">
         <v>0.7</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="10">
@@ -1652,106 +2774,208 @@
         <v>21289</v>
       </c>
       <c r="E10" t="n">
+        <v>8762</v>
+      </c>
+      <c r="F10" t="n">
         <v>35006</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>17536</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>3530</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
+        <v>14379</v>
+      </c>
+      <c r="J10" t="n">
         <v>92680</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>80137</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
+        <v>157581</v>
+      </c>
+      <c r="M10" t="n">
         <v>532786</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
+        <v>343094</v>
+      </c>
+      <c r="O10" t="n">
         <v>246129</v>
       </c>
-      <c r="L10" t="n">
+      <c r="P10" t="n">
+        <v>222498</v>
+      </c>
+      <c r="Q10" t="n">
         <v>49609</v>
       </c>
-      <c r="M10" t="n">
+      <c r="R10" t="n">
+        <v>28621</v>
+      </c>
+      <c r="S10" t="n">
         <v>112775</v>
       </c>
-      <c r="N10" t="n">
+      <c r="T10" t="n">
+        <v>110586</v>
+      </c>
+      <c r="U10" t="n">
         <v>809529</v>
       </c>
-      <c r="O10" t="n">
+      <c r="V10" t="n">
+        <v>463980</v>
+      </c>
+      <c r="W10" t="n">
         <v>37145</v>
       </c>
-      <c r="P10" t="n">
+      <c r="X10" t="n">
+        <v>45857</v>
+      </c>
+      <c r="Y10" t="n">
         <v>72702</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Z10" t="n">
+        <v>50239</v>
+      </c>
+      <c r="AA10" t="n">
         <v>99343</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AB10" t="n">
+        <v>87776</v>
+      </c>
+      <c r="AC10" t="n">
         <v>85053</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AD10" t="n">
+        <v>68080</v>
+      </c>
+      <c r="AE10" t="n">
         <v>478041</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AF10" t="n">
+        <v>270883</v>
+      </c>
+      <c r="AG10" t="n">
         <v>72561</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AH10" t="n">
+        <v>129822</v>
+      </c>
+      <c r="AI10" t="n">
         <v>31420</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AJ10" t="n">
+        <v>30478</v>
+      </c>
+      <c r="AK10" t="n">
         <v>41580</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AL10" t="n">
+        <v>16465</v>
+      </c>
+      <c r="AM10" t="n">
         <v>49660</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AN10" t="n">
+        <v>35967</v>
+      </c>
+      <c r="AO10" t="n">
         <v>174436</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AP10" t="n">
+        <v>155372</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>148835</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AR10" t="n">
+        <v>170694</v>
+      </c>
+      <c r="AS10" t="n">
         <v>96591</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AT10" t="n">
+        <v>45973</v>
+      </c>
+      <c r="AU10" t="n">
         <v>833571</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AV10" t="n">
+        <v>547824</v>
+      </c>
+      <c r="AW10" t="n">
         <v>153072</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AX10" t="n">
+        <v>116782</v>
+      </c>
+      <c r="AY10" t="n">
         <v>12141</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AZ10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BA10" t="n">
         <v>100171</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="BB10" t="n">
+        <v>74921</v>
+      </c>
+      <c r="BC10" t="n">
         <v>190401</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="BD10" t="n">
+        <v>236734</v>
+      </c>
+      <c r="BE10" t="n">
         <v>61053</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="BF10" t="n">
+        <v>28382</v>
+      </c>
+      <c r="BG10" t="n">
         <v>97368</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="BH10" t="n">
+        <v>65255</v>
+      </c>
+      <c r="BI10" t="n">
         <v>190679</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="BJ10" t="n">
+        <v>70531</v>
+      </c>
+      <c r="BK10" t="n">
         <v>2791</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="BL10" t="n">
+        <v>3720</v>
+      </c>
+      <c r="BM10" t="n">
         <v>46545</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="BN10" t="n">
+        <v>37460</v>
+      </c>
+      <c r="BO10" t="n">
         <v>15091</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="BP10" t="n">
+        <v>10996</v>
+      </c>
+      <c r="BQ10" t="n">
         <v>48631</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>30984</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>110997</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>198000</v>
       </c>
     </row>
   </sheetData>

--- a/module/monitor.xlsx
+++ b/module/monitor.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT10"/>
+  <dimension ref="A1:DH10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,43 +383,43 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="R1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S1" s="1" t="n">
         <v>0</v>
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="U1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="X1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y1" s="1" t="n">
         <v>0</v>
@@ -446,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="AA1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AC1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AD1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE1" s="1" t="n">
         <v>0</v>
@@ -464,16 +464,16 @@
         <v>1</v>
       </c>
       <c r="AG1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AI1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK1" s="1" t="n">
         <v>0</v>
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="AM1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AO1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AP1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ1" s="1" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         <v>1</v>
       </c>
       <c r="AS1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AU1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AV1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW1" s="1" t="n">
         <v>0</v>
@@ -518,16 +518,16 @@
         <v>1</v>
       </c>
       <c r="AY1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BA1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="BB1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC1" s="1" t="n">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>1</v>
       </c>
       <c r="BE1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BG1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="BH1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI1" s="1" t="n">
         <v>0</v>
@@ -554,16 +554,16 @@
         <v>1</v>
       </c>
       <c r="BK1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BM1" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="BN1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO1" s="1" t="n">
         <v>0</v>
@@ -572,16 +572,136 @@
         <v>1</v>
       </c>
       <c r="BQ1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BS1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BT1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BV1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX1" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH1" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -601,25 +721,25 @@
         <v>1584489600</v>
       </c>
       <c r="F2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="G2" t="n">
         <v>1584057600</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1584316800</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1584403200</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1584489600</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="L2" t="n">
         <v>1584316800</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1584403200</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1584489600</v>
       </c>
       <c r="M2" t="n">
         <v>1584403200</v>
@@ -628,16 +748,16 @@
         <v>1584489600</v>
       </c>
       <c r="O2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="P2" t="n">
         <v>1584403200</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>1584489600</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="R2" t="n">
-        <v>1584489600</v>
+        <v>1584576000</v>
       </c>
       <c r="S2" t="n">
         <v>1584403200</v>
@@ -646,16 +766,16 @@
         <v>1584489600</v>
       </c>
       <c r="U2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="V2" t="n">
         <v>1584403200</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>1584489600</v>
       </c>
-      <c r="W2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="X2" t="n">
-        <v>1584489600</v>
+        <v>1584576000</v>
       </c>
       <c r="Y2" t="n">
         <v>1584403200</v>
@@ -664,16 +784,16 @@
         <v>1584489600</v>
       </c>
       <c r="AA2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>1584403200</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>1584489600</v>
       </c>
-      <c r="AC2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="AD2" t="n">
-        <v>1584489600</v>
+        <v>1584576000</v>
       </c>
       <c r="AE2" t="n">
         <v>1584403200</v>
@@ -682,16 +802,16 @@
         <v>1584489600</v>
       </c>
       <c r="AG2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="AH2" t="n">
         <v>1584403200</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>1584489600</v>
       </c>
-      <c r="AI2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>1584489600</v>
+        <v>1584576000</v>
       </c>
       <c r="AK2" t="n">
         <v>1584403200</v>
@@ -700,16 +820,16 @@
         <v>1584489600</v>
       </c>
       <c r="AM2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>1584403200</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>1584489600</v>
       </c>
-      <c r="AO2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="AP2" t="n">
-        <v>1584489600</v>
+        <v>1584576000</v>
       </c>
       <c r="AQ2" t="n">
         <v>1584403200</v>
@@ -718,16 +838,16 @@
         <v>1584489600</v>
       </c>
       <c r="AS2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="AT2" t="n">
         <v>1584403200</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>1584489600</v>
       </c>
-      <c r="AU2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="AV2" t="n">
-        <v>1584489600</v>
+        <v>1584576000</v>
       </c>
       <c r="AW2" t="n">
         <v>1584403200</v>
@@ -736,16 +856,16 @@
         <v>1584489600</v>
       </c>
       <c r="AY2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>1584403200</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>1584489600</v>
       </c>
-      <c r="BA2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="BB2" t="n">
-        <v>1584489600</v>
+        <v>1584576000</v>
       </c>
       <c r="BC2" t="n">
         <v>1584403200</v>
@@ -754,16 +874,16 @@
         <v>1584489600</v>
       </c>
       <c r="BE2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="BF2" t="n">
         <v>1584403200</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>1584489600</v>
       </c>
-      <c r="BG2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="BH2" t="n">
-        <v>1584489600</v>
+        <v>1584576000</v>
       </c>
       <c r="BI2" t="n">
         <v>1584403200</v>
@@ -772,16 +892,16 @@
         <v>1584489600</v>
       </c>
       <c r="BK2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="BL2" t="n">
         <v>1584403200</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BM2" t="n">
         <v>1584489600</v>
       </c>
-      <c r="BM2" t="n">
-        <v>1584403200</v>
-      </c>
       <c r="BN2" t="n">
-        <v>1584489600</v>
+        <v>1584576000</v>
       </c>
       <c r="BO2" t="n">
         <v>1584403200</v>
@@ -790,16 +910,136 @@
         <v>1584489600</v>
       </c>
       <c r="BQ2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="BR2" t="n">
         <v>1584403200</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1584489600</v>
       </c>
       <c r="BS2" t="n">
         <v>1584489600</v>
       </c>
       <c r="BT2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BV2" t="n">
         <v>1584489600</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1584576000</v>
       </c>
     </row>
     <row r="3">
@@ -830,337 +1070,537 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>2020-03-16</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>2020-03-16</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="BD3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="BM3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="BP3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="BS3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BV3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
+      <c r="BY3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
+      <c r="CB3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="CE3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr">
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
+      <c r="CH3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr">
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
+      <c r="CK3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BK3" t="inlineStr">
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
+      <c r="CN3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="BN3" t="inlineStr">
+      <c r="CQ3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BO3" t="inlineStr">
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="BP3" t="inlineStr">
+      <c r="CT3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="CW3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="CZ3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
         <is>
           <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
         </is>
       </c>
     </row>
@@ -1192,335 +1632,535 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>5151</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>5151</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>5151</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>5151</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>5151</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>5285</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>5285</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>5285</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>5285</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>5216</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>5216</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>5277</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>3069</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>3069</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>0128</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0128</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0138</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>0138</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>1562</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>1562</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
         <is>
           <t>7160</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>7160</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>7160</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>8419</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>5398</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>5398</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>5398</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
         <is>
           <t>4715</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>4715</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>4715</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>1619</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>1619</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
         <is>
           <t>5246</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
         <is>
           <t>5246</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
         <is>
           <t>7148</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>7148</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
         <is>
           <t>7293</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="BJ4" t="inlineStr">
         <is>
           <t>7293</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
         <is>
           <t>7106</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="BM4" t="inlineStr">
         <is>
           <t>7106</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>7106</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
         <is>
           <t>4197</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
         <is>
           <t>4197</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
         <is>
           <t>1015</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="BS4" t="inlineStr">
         <is>
           <t>1015</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="BV4" t="inlineStr">
         <is>
           <t>4723</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="BY4" t="inlineStr">
         <is>
           <t>0083</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>0083</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
         <is>
           <t>9466</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="CB4" t="inlineStr">
         <is>
           <t>9466</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>9466</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="CE4" t="inlineStr">
         <is>
           <t>0215</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>0215</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
         <is>
           <t>5292</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
+      <c r="CH4" t="inlineStr">
         <is>
           <t>5292</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>5292</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="CK4" t="inlineStr">
         <is>
           <t>0208</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr">
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
         <is>
           <t>0176</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
         <is>
           <t>0176</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="CP4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="CQ4" t="inlineStr">
         <is>
           <t>0198</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr">
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>0198</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
         <is>
           <t>5273</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="CT4" t="inlineStr">
         <is>
           <t>5273</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
         <is>
           <t>5247</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr">
+      <c r="CW4" t="inlineStr">
         <is>
           <t>5247</t>
         </is>
       </c>
-      <c r="BO4" t="inlineStr">
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>5247</t>
+        </is>
+      </c>
+      <c r="CY4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
+      <c r="CZ4" t="inlineStr">
         <is>
           <t>0157</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="DB4" t="inlineStr">
         <is>
           <t>5264</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="DC4" t="inlineStr">
         <is>
           <t>5264</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr">
         <is>
           <t>5106</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>5106</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
         <is>
           <t>7277</t>
         </is>
@@ -1554,335 +2194,535 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>KRETAM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>HEXTAR</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>HEXTAR</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>HEXTAR</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>HEXTAR</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>HEXTAR</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>SIMEPLT</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>SIMEPLT</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>SIMEPLT</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>SIMEPLT</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>IJM</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>IJM</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>IJM</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>YTL</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>YTL</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>YTL</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>DSONIC</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>DSONIC</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>FPGROUP</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>FPGROUP</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>MFCB</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>MFCB</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>FRONTKN</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>FRONTKN</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>MYEG</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>MYEG</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>BJTOTO</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>BJTOTO</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>BJTOTO</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
         <is>
           <t>PENTA</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>PENTA</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>PENTA</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>PANSAR</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>GAMUDA</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>GAMUDA</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>GAMUDA</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
         <is>
           <t>GENM</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>GENM</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>GENM</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>DRBHCOM</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>DRBHCOM</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>DRBHCOM</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
         <is>
           <t>WPRTS</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="BD5" t="inlineStr">
         <is>
           <t>WPRTS</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
         <is>
           <t>DPHARMA</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>DPHARMA</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>DPHARMA</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
         <is>
           <t>YINSON</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="BJ5" t="inlineStr">
         <is>
           <t>YINSON</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>YINSON</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
         <is>
           <t>SUPERMX</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="BM5" t="inlineStr">
         <is>
           <t>SUPERMX</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>SUPERMX</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
         <is>
           <t>SIME</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="BP5" t="inlineStr">
         <is>
           <t>SIME</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>SIME</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
         <is>
           <t>AMBANK</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="BS5" t="inlineStr">
         <is>
           <t>AMBANK</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>AMBANK</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="BV5" t="inlineStr">
         <is>
           <t>JAKS</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>JAKS</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="BY5" t="inlineStr">
         <is>
           <t>NOTION</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>NOTION</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
         <is>
           <t>KKB</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="CB5" t="inlineStr">
         <is>
           <t>KKB</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>KKB</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
+      <c r="CE5" t="inlineStr">
         <is>
           <t>SLVEST</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr">
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>SLVEST</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
         <is>
           <t>UWC</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
+      <c r="CH5" t="inlineStr">
         <is>
           <t>UWC</t>
         </is>
       </c>
-      <c r="BE5" t="inlineStr">
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>UWC</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="CK5" t="inlineStr">
         <is>
           <t>GREATEC</t>
         </is>
       </c>
-      <c r="BG5" t="inlineStr">
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>GREATEC</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
         <is>
           <t>KRONO</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
+      <c r="CN5" t="inlineStr">
         <is>
           <t>KRONO</t>
         </is>
       </c>
-      <c r="BI5" t="inlineStr">
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="CP5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
+      <c r="CQ5" t="inlineStr">
         <is>
           <t>GDB</t>
         </is>
       </c>
-      <c r="BK5" t="inlineStr">
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>GDB</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr">
         <is>
           <t>CHINHIN</t>
         </is>
       </c>
-      <c r="BL5" t="inlineStr">
+      <c r="CT5" t="inlineStr">
         <is>
           <t>CHINHIN</t>
         </is>
       </c>
-      <c r="BM5" t="inlineStr">
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>CHINHIN</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr">
         <is>
           <t>KAREX</t>
         </is>
       </c>
-      <c r="BN5" t="inlineStr">
+      <c r="CW5" t="inlineStr">
         <is>
           <t>KAREX</t>
         </is>
       </c>
-      <c r="BO5" t="inlineStr">
+      <c r="CX5" t="inlineStr">
+        <is>
+          <t>KAREX</t>
+        </is>
+      </c>
+      <c r="CY5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="BP5" t="inlineStr">
+      <c r="CZ5" t="inlineStr">
         <is>
           <t>FOCUSP</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr">
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="DB5" t="inlineStr">
         <is>
           <t>MALAKOF</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr">
+      <c r="DC5" t="inlineStr">
         <is>
           <t>MALAKOF</t>
         </is>
       </c>
-      <c r="BS5" t="inlineStr">
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>MALAKOF</t>
+        </is>
+      </c>
+      <c r="DE5" t="inlineStr">
         <is>
           <t>AXREIT</t>
         </is>
       </c>
-      <c r="BT5" t="inlineStr">
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>AXREIT</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>DIALOG</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr">
         <is>
           <t>DIALOG</t>
         </is>
@@ -1905,205 +2745,325 @@
         <v>0.335</v>
       </c>
       <c r="F6" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.55</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.545</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.51</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.91</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>4.16</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.675</v>
       </c>
-      <c r="N6" t="n">
+      <c r="W6" t="n">
         <v>0.775</v>
       </c>
-      <c r="O6" t="n">
+      <c r="X6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Y6" t="n">
         <v>0.45</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Z6" t="n">
         <v>0.545</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AA6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AB6" t="n">
         <v>3.43</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AC6" t="n">
         <v>3.97</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AD6" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE6" t="n">
         <v>1.35</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AF6" t="n">
         <v>1.62</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AG6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH6" t="n">
         <v>0.78</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AI6" t="n">
         <v>0.915</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AJ6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AK6" t="n">
         <v>2.05</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AL6" t="n">
         <v>2.18</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AM6" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AN6" t="n">
         <v>2.82</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AO6" t="n">
         <v>3.17</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AP6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AR6" t="n">
         <v>0.635</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AS6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AT6" t="n">
         <v>2.45</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AU6" t="n">
         <v>2.8</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AV6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AW6" t="n">
         <v>1.9</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AX6" t="n">
         <v>2.11</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AY6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>1.16</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="BA6" t="n">
         <v>1.28</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="BB6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC6" t="n">
         <v>2.97</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="BD6" t="n">
         <v>3.3</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="BE6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF6" t="n">
         <v>1.05</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="BG6" t="n">
         <v>1.17</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="BH6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BI6" t="n">
         <v>4.98</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="BJ6" t="n">
         <v>5.3</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="BK6" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BL6" t="n">
         <v>1.35</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="BM6" t="n">
         <v>1.54</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="BN6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO6" t="n">
         <v>1.6</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="BP6" t="n">
         <v>1.72</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="BQ6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BR6" t="n">
         <v>2.84</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="BS6" t="n">
         <v>3.05</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="BT6" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BU6" t="n">
         <v>0.645</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="BV6" t="n">
         <v>0.755</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="BW6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BX6" t="n">
         <v>0.545</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="BY6" t="n">
         <v>0.595</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="BZ6" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="CA6" t="n">
         <v>1.38</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="CB6" t="n">
         <v>1.63</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="CC6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="CD6" t="n">
         <v>0.62</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="CE6" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="CF6" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="CG6" t="n">
         <v>1.35</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="CH6" t="n">
         <v>1.58</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="CI6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="CJ6" t="n">
         <v>1.73</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="CK6" t="n">
         <v>2</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="CL6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="CM6" t="n">
         <v>0.33</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="CN6" t="n">
         <v>0.365</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="CO6" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="CP6" t="n">
         <v>0.405</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="CQ6" t="n">
         <v>0.465</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="CR6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CS6" t="n">
         <v>0.45</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="CT6" t="n">
         <v>0.46</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="CU6" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="CV6" t="n">
         <v>0.285</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="CW6" t="n">
         <v>0.325</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="CX6" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="CY6" t="n">
         <v>0.335</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="CZ6" t="n">
         <v>0.425</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="DA6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="DB6" t="n">
         <v>0.695</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="DC6" t="n">
         <v>0.71</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="DD6" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="DE6" t="n">
         <v>1.71</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="DF6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="DG6" t="n">
         <v>2.84</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
@@ -2123,205 +3083,325 @@
         <v>0.335</v>
       </c>
       <c r="F7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.58</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.55</v>
       </c>
       <c r="I7" t="n">
         <v>0.55</v>
       </c>
       <c r="J7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L7" t="n">
         <v>4.23</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>4.29</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>4.54</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="V7" t="n">
         <v>0.8</v>
       </c>
-      <c r="N7" t="n">
+      <c r="W7" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="O7" t="n">
+      <c r="X7" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.545</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Z7" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AA7" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="AB7" t="n">
         <v>4.01</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AC7" t="n">
         <v>3.97</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AD7" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE7" t="n">
         <v>1.67</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AF7" t="n">
         <v>1.65</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AG7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH7" t="n">
         <v>0.93</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AI7" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AJ7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AK7" t="n">
         <v>2.2</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AL7" t="n">
         <v>2.2</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AM7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.25</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
         <v>3.24</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>0.61</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AR7" t="n">
         <v>0.635</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AS7" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AT7" t="n">
         <v>2.77</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AU7" t="n">
         <v>2.82</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AV7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AW7" t="n">
         <v>2.16</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AX7" t="n">
         <v>2.15</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AY7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>1.29</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="BA7" t="n">
         <v>1.31</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="BB7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BC7" t="n">
         <v>3.31</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="BD7" t="n">
         <v>3.31</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="BE7" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BF7" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="BG7" t="n">
         <v>1.21</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="BH7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BI7" t="n">
         <v>5.35</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="BJ7" t="n">
         <v>5.4</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="BK7" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BL7" t="n">
         <v>1.52</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="BM7" t="n">
         <v>1.62</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="BN7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO7" t="n">
         <v>1.72</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="BP7" t="n">
         <v>1.76</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="BQ7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BR7" t="n">
         <v>3.1</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="BS7" t="n">
         <v>3.09</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="BT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU7" t="n">
         <v>0.78</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="BV7" t="n">
         <v>0.79</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="BW7" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="BX7" t="n">
         <v>0.635</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="BY7" t="n">
         <v>0.61</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="BZ7" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CA7" t="n">
         <v>1.63</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="CB7" t="n">
         <v>1.7</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="CC7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="CD7" t="n">
         <v>0.725</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="CE7" t="n">
         <v>0.71</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="CF7" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="CG7" t="n">
         <v>1.64</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="CH7" t="n">
         <v>1.65</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="CI7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="CJ7" t="n">
         <v>2.08</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="CK7" t="n">
         <v>2.1</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="CL7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="CM7" t="n">
         <v>0.395</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="CN7" t="n">
         <v>0.395</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="CO7" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CP7" t="n">
         <v>0.48</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="CQ7" t="n">
         <v>0.475</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="CR7" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="CS7" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="CT7" t="n">
         <v>0.485</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="CU7" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CV7" t="n">
         <v>0.325</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="CW7" t="n">
         <v>0.325</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="CX7" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="CY7" t="n">
         <v>0.415</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="CZ7" t="n">
         <v>0.425</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="DA7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="DB7" t="n">
         <v>0.72</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="DC7" t="n">
         <v>0.71</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="DD7" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="DE7" t="n">
         <v>1.88</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="DF7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="DG7" t="n">
         <v>2.98</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row r="8">
@@ -2341,205 +3421,325 @@
         <v>0.32</v>
       </c>
       <c r="F8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.535</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.475</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.535</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.82</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>3.89</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>4.01</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.67</v>
       </c>
-      <c r="N8" t="n">
+      <c r="W8" t="n">
         <v>0.65</v>
       </c>
-      <c r="O8" t="n">
+      <c r="X8" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.45</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Z8" t="n">
         <v>0.45</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AA8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AB8" t="n">
         <v>3.3</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AC8" t="n">
         <v>3.53</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AD8" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE8" t="n">
         <v>1.35</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AF8" t="n">
         <v>1.32</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AG8" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="AH8" t="n">
         <v>0.78</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AI8" t="n">
         <v>0.845</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AJ8" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="AK8" t="n">
         <v>1.94</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AL8" t="n">
         <v>2.06</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AM8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN8" t="n">
         <v>2.71</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AO8" t="n">
         <v>2.83</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AP8" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>0.545</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AR8" t="n">
         <v>0.58</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AS8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AT8" t="n">
         <v>2.36</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AU8" t="n">
         <v>2.55</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AV8" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AW8" t="n">
         <v>1.89</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AX8" t="n">
         <v>2.02</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AY8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>1.12</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="BA8" t="n">
         <v>1.05</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="BB8" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="BC8" t="n">
         <v>2.97</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="BD8" t="n">
         <v>3.25</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="BE8" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF8" t="n">
         <v>1.05</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="BG8" t="n">
         <v>1.07</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="BH8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BI8" t="n">
         <v>4.88</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="BJ8" t="n">
         <v>4.98</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="BK8" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BL8" t="n">
         <v>1.3</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="BM8" t="n">
         <v>1.44</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="BN8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO8" t="n">
         <v>1.58</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="BP8" t="n">
         <v>1.66</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="BQ8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BR8" t="n">
         <v>2.82</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="BS8" t="n">
         <v>2.97</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="BT8" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BU8" t="n">
         <v>0.62</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="BV8" t="n">
         <v>0.675</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="BW8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BX8" t="n">
         <v>0.54</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="BY8" t="n">
         <v>0.515</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="BZ8" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="CA8" t="n">
         <v>1.37</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="CB8" t="n">
         <v>1.5</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="CC8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="CD8" t="n">
         <v>0.6</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="CE8" t="n">
         <v>0.615</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="CF8" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="CG8" t="n">
         <v>1.3</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="CH8" t="n">
         <v>1.24</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="CI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ8" t="n">
         <v>1.66</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="CK8" t="n">
         <v>1.75</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="CL8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="CM8" t="n">
         <v>0.325</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="CN8" t="n">
         <v>0.355</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="CO8" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="CP8" t="n">
         <v>0.33</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="CQ8" t="n">
         <v>0.395</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="CR8" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="CS8" t="n">
         <v>0.4</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="CT8" t="n">
         <v>0.445</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="CU8" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="CV8" t="n">
         <v>0.285</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="CW8" t="n">
         <v>0.295</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="CX8" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CY8" t="n">
         <v>0.32</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="CZ8" t="n">
         <v>0.38</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="DA8" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="DB8" t="n">
         <v>0.675</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="DC8" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="DD8" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="DE8" t="n">
         <v>1.71</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="DF8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="DG8" t="n">
         <v>2.83</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
@@ -2559,10 +3759,10 @@
         <v>0.32</v>
       </c>
       <c r="F9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.55</v>
       </c>
       <c r="H9" t="n">
         <v>0.55</v>
@@ -2571,193 +3771,313 @@
         <v>0.55</v>
       </c>
       <c r="J9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L9" t="n">
         <v>4.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>4.16</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>4.07</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V9" t="n">
         <v>0.785</v>
       </c>
-      <c r="N9" t="n">
+      <c r="W9" t="n">
         <v>0.65</v>
       </c>
-      <c r="O9" t="n">
+      <c r="X9" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.53</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Z9" t="n">
         <v>0.45</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AA9" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="AB9" t="n">
         <v>3.97</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AC9" t="n">
         <v>3.6</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AD9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1.61</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AF9" t="n">
         <v>1.34</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AG9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0.915</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AI9" t="n">
         <v>0.86</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AJ9" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="AK9" t="n">
         <v>2.18</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AL9" t="n">
         <v>2.1</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AM9" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AN9" t="n">
         <v>3.16</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AO9" t="n">
         <v>2.86</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AP9" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>0.6</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AR9" t="n">
         <v>0.62</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AS9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT9" t="n">
         <v>2.7</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AU9" t="n">
         <v>2.65</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AV9" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AW9" t="n">
         <v>2.1</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AX9" t="n">
         <v>2.12</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AY9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>1.28</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="BA9" t="n">
         <v>1.1</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="BB9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BC9" t="n">
         <v>3.3</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="BD9" t="n">
         <v>3.3</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="BE9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BF9" t="n">
         <v>1.16</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="BG9" t="n">
         <v>1.16</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="BH9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BI9" t="n">
         <v>5.31</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="BJ9" t="n">
         <v>5</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="BK9" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="BL9" t="n">
         <v>1.51</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="BM9" t="n">
         <v>1.49</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="BN9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO9" t="n">
         <v>1.71</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="BP9" t="n">
         <v>1.68</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="BQ9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BR9" t="n">
         <v>3.05</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="BS9" t="n">
         <v>3.05</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="BT9" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BU9" t="n">
         <v>0.755</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="BV9" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="BW9" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="BX9" t="n">
         <v>0.595</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="BY9" t="n">
         <v>0.525</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="BZ9" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="CA9" t="n">
         <v>1.6</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="CB9" t="n">
         <v>1.51</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="CC9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="CD9" t="n">
         <v>0.665</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="CE9" t="n">
         <v>0.615</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="CF9" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="CG9" t="n">
         <v>1.56</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="CH9" t="n">
         <v>1.24</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="CI9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CJ9" t="n">
         <v>2</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="CK9" t="n">
         <v>1.75</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="CL9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="CM9" t="n">
         <v>0.38</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="CN9" t="n">
         <v>0.36</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="CO9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="CP9" t="n">
         <v>0.445</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="CQ9" t="n">
         <v>0.4</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="CR9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="CS9" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="CT9" t="n">
         <v>0.46</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="CU9" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CV9" t="n">
         <v>0.32</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="CW9" t="n">
         <v>0.3</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="CX9" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="CY9" t="n">
         <v>0.4</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="CZ9" t="n">
         <v>0.385</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="DA9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DB9" t="n">
         <v>0.7</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="DC9" t="n">
         <v>0.7</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="DD9" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="DE9" t="n">
         <v>1.85</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="DF9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="DG9" t="n">
         <v>2.98</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -2777,205 +4097,325 @@
         <v>8762</v>
       </c>
       <c r="F10" t="n">
+        <v>15507</v>
+      </c>
+      <c r="G10" t="n">
         <v>35006</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>17536</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>3530</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>14379</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>25663</v>
+      </c>
+      <c r="L10" t="n">
         <v>92680</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>80137</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>157581</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
+        <v>82551</v>
+      </c>
+      <c r="P10" t="n">
+        <v>77026</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>56836</v>
+      </c>
+      <c r="R10" t="n">
+        <v>68872</v>
+      </c>
+      <c r="S10" t="n">
+        <v>107047</v>
+      </c>
+      <c r="T10" t="n">
+        <v>39875</v>
+      </c>
+      <c r="U10" t="n">
+        <v>65646</v>
+      </c>
+      <c r="V10" t="n">
         <v>532786</v>
       </c>
-      <c r="N10" t="n">
+      <c r="W10" t="n">
         <v>343094</v>
       </c>
-      <c r="O10" t="n">
+      <c r="X10" t="n">
+        <v>377610</v>
+      </c>
+      <c r="Y10" t="n">
         <v>246129</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Z10" t="n">
         <v>222498</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AA10" t="n">
+        <v>187617</v>
+      </c>
+      <c r="AB10" t="n">
         <v>49609</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AC10" t="n">
         <v>28621</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AD10" t="n">
+        <v>45001</v>
+      </c>
+      <c r="AE10" t="n">
         <v>112775</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AF10" t="n">
         <v>110586</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AG10" t="n">
+        <v>416497</v>
+      </c>
+      <c r="AH10" t="n">
         <v>809529</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AI10" t="n">
         <v>463980</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AJ10" t="n">
+        <v>666739</v>
+      </c>
+      <c r="AK10" t="n">
         <v>37145</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AL10" t="n">
         <v>45857</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AM10" t="n">
+        <v>32300</v>
+      </c>
+      <c r="AN10" t="n">
         <v>72702</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AO10" t="n">
         <v>50239</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AP10" t="n">
+        <v>102364</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>99343</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AR10" t="n">
         <v>87776</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AS10" t="n">
+        <v>100607</v>
+      </c>
+      <c r="AT10" t="n">
         <v>85053</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AU10" t="n">
         <v>68080</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AV10" t="n">
+        <v>96667</v>
+      </c>
+      <c r="AW10" t="n">
         <v>478041</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AX10" t="n">
         <v>270883</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AY10" t="n">
+        <v>255067</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>72561</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="BA10" t="n">
         <v>129822</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="BB10" t="n">
+        <v>78238</v>
+      </c>
+      <c r="BC10" t="n">
         <v>31420</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="BD10" t="n">
         <v>30478</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="BE10" t="n">
+        <v>36062</v>
+      </c>
+      <c r="BF10" t="n">
         <v>41580</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="BG10" t="n">
         <v>16465</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="BH10" t="n">
+        <v>25008</v>
+      </c>
+      <c r="BI10" t="n">
         <v>49660</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="BJ10" t="n">
         <v>35967</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="BK10" t="n">
+        <v>50501</v>
+      </c>
+      <c r="BL10" t="n">
         <v>174436</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="BM10" t="n">
         <v>155372</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="BN10" t="n">
+        <v>116093</v>
+      </c>
+      <c r="BO10" t="n">
         <v>148835</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="BP10" t="n">
         <v>170694</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="BQ10" t="n">
+        <v>174628</v>
+      </c>
+      <c r="BR10" t="n">
         <v>96591</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="BS10" t="n">
         <v>45973</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="BT10" t="n">
+        <v>43537</v>
+      </c>
+      <c r="BU10" t="n">
         <v>833571</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="BV10" t="n">
         <v>547824</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="BW10" t="n">
+        <v>437715</v>
+      </c>
+      <c r="BX10" t="n">
         <v>153072</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="BY10" t="n">
         <v>116782</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="BZ10" t="n">
+        <v>149873</v>
+      </c>
+      <c r="CA10" t="n">
         <v>12141</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="CB10" t="n">
         <v>6500</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="CC10" t="n">
+        <v>6563</v>
+      </c>
+      <c r="CD10" t="n">
         <v>100171</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="CE10" t="n">
         <v>74921</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="CF10" t="n">
+        <v>80336</v>
+      </c>
+      <c r="CG10" t="n">
         <v>190401</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="CH10" t="n">
         <v>236734</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="CI10" t="n">
+        <v>553484</v>
+      </c>
+      <c r="CJ10" t="n">
         <v>61053</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="CK10" t="n">
         <v>28382</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="CL10" t="n">
+        <v>85660</v>
+      </c>
+      <c r="CM10" t="n">
         <v>97368</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="CN10" t="n">
         <v>65255</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="CO10" t="n">
+        <v>94407</v>
+      </c>
+      <c r="CP10" t="n">
         <v>190679</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="CQ10" t="n">
         <v>70531</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="CR10" t="n">
+        <v>64408</v>
+      </c>
+      <c r="CS10" t="n">
         <v>2791</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="CT10" t="n">
         <v>3720</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="CU10" t="n">
+        <v>11820</v>
+      </c>
+      <c r="CV10" t="n">
         <v>46545</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="CW10" t="n">
         <v>37460</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="CX10" t="n">
+        <v>29157</v>
+      </c>
+      <c r="CY10" t="n">
         <v>15091</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="CZ10" t="n">
         <v>10996</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="DA10" t="n">
+        <v>5773</v>
+      </c>
+      <c r="DB10" t="n">
         <v>48631</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="DC10" t="n">
         <v>30984</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="DD10" t="n">
+        <v>57586</v>
+      </c>
+      <c r="DE10" t="n">
         <v>110997</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="DF10" t="n">
+        <v>165056</v>
+      </c>
+      <c r="DG10" t="n">
         <v>198000</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>206931</v>
       </c>
     </row>
   </sheetData>

--- a/module/monitor.xlsx
+++ b/module/monitor.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMZ10"/>
+  <dimension ref="A1:ANP10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3487,6 +3487,54 @@
       <c r="AMZ1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="ANA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANB1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ANC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AND1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ANE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANF1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ANG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ANP1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -6609,6 +6657,54 @@
       <c r="AMZ2" t="n">
         <v>1586995200</v>
       </c>
+      <c r="ANA2" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="ANB2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANC2" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="AND2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANE2" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="ANF2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANG2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANH2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANI2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANJ2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANK2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANL2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANM2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANN2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANO2" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="ANP2" t="n">
+        <v>1586995200</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11811,6 +11907,86 @@
           <t>2020-04-16</t>
         </is>
       </c>
+      <c r="ANA3" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="ANB3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANC3" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="AND3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANE3" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="ANF3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANG3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANH3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANI3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANJ3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANK3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANL3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANM3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANN3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANO3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="ANP3" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17013,6 +17189,86 @@
           <t>5014</t>
         </is>
       </c>
+      <c r="ANA4" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="ANB4" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="ANC4" t="inlineStr">
+        <is>
+          <t>7180</t>
+        </is>
+      </c>
+      <c r="AND4" t="inlineStr">
+        <is>
+          <t>7180</t>
+        </is>
+      </c>
+      <c r="ANE4" t="inlineStr">
+        <is>
+          <t>7579</t>
+        </is>
+      </c>
+      <c r="ANF4" t="inlineStr">
+        <is>
+          <t>7579</t>
+        </is>
+      </c>
+      <c r="ANG4" t="inlineStr">
+        <is>
+          <t>5284</t>
+        </is>
+      </c>
+      <c r="ANH4" t="inlineStr">
+        <is>
+          <t>7803</t>
+        </is>
+      </c>
+      <c r="ANI4" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="ANJ4" t="inlineStr">
+        <is>
+          <t>5143</t>
+        </is>
+      </c>
+      <c r="ANK4" t="inlineStr">
+        <is>
+          <t>7191</t>
+        </is>
+      </c>
+      <c r="ANL4" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="ANM4" t="inlineStr">
+        <is>
+          <t>0176</t>
+        </is>
+      </c>
+      <c r="ANN4" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="ANO4" t="inlineStr">
+        <is>
+          <t>0138</t>
+        </is>
+      </c>
+      <c r="ANP4" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -22213,6 +22469,86 @@
       <c r="AMZ5" t="inlineStr">
         <is>
           <t>AIRPORT</t>
+        </is>
+      </c>
+      <c r="ANA5" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="ANB5" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="ANC5" t="inlineStr">
+        <is>
+          <t>SERNKOU</t>
+        </is>
+      </c>
+      <c r="AND5" t="inlineStr">
+        <is>
+          <t>SERNKOU</t>
+        </is>
+      </c>
+      <c r="ANE5" t="inlineStr">
+        <is>
+          <t>AWC</t>
+        </is>
+      </c>
+      <c r="ANF5" t="inlineStr">
+        <is>
+          <t>AWC</t>
+        </is>
+      </c>
+      <c r="ANG5" t="inlineStr">
+        <is>
+          <t>LCTITAN</t>
+        </is>
+      </c>
+      <c r="ANH5" t="inlineStr">
+        <is>
+          <t>RUBEREX</t>
+        </is>
+      </c>
+      <c r="ANI5" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="ANJ5" t="inlineStr">
+        <is>
+          <t>LUXCHEM</t>
+        </is>
+      </c>
+      <c r="ANK5" t="inlineStr">
+        <is>
+          <t>ADVENTA</t>
+        </is>
+      </c>
+      <c r="ANL5" t="inlineStr">
+        <is>
+          <t>MTAG</t>
+        </is>
+      </c>
+      <c r="ANM5" t="inlineStr">
+        <is>
+          <t>KRONO</t>
+        </is>
+      </c>
+      <c r="ANN5" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="ANO5" t="inlineStr">
+        <is>
+          <t>MYEG</t>
+        </is>
+      </c>
+      <c r="ANP5" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
         </is>
       </c>
     </row>
@@ -25337,6 +25673,54 @@
       <c r="AMZ6" t="n">
         <v>5.15</v>
       </c>
+      <c r="ANA6" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="ANB6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="ANC6" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="AND6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="ANE6" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="ANF6" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="ANG6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="ANH6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="ANI6" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="ANJ6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="ANK6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="ANL6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="ANM6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="ANN6" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="ANO6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="ANP6" t="n">
+        <v>0.695</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -28459,6 +28843,54 @@
       <c r="AMZ7" t="n">
         <v>5.16</v>
       </c>
+      <c r="ANA7" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="ANB7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="ANC7" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="AND7" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="ANE7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="ANF7" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="ANG7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="ANH7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="ANI7" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="ANJ7" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="ANK7" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="ANL7" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="ANM7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="ANN7" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="ANO7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="ANP7" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -31581,6 +32013,54 @@
       <c r="AMZ8" t="n">
         <v>5.02</v>
       </c>
+      <c r="ANA8" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="ANB8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="ANC8" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="AND8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="ANE8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="ANF8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="ANG8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="ANH8" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="ANI8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="ANJ8" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="ANK8" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="ANL8" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="ANM8" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="ANN8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="ANO8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="ANP8" t="n">
+        <v>0.695</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -34703,6 +35183,54 @@
       <c r="AMZ9" t="n">
         <v>5.03</v>
       </c>
+      <c r="ANA9" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ANB9" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ANC9" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AND9" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="ANE9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="ANF9" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="ANG9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="ANH9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="ANI9" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="ANJ9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="ANK9" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="ANL9" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="ANM9" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="ANN9" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="ANO9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="ANP9" t="n">
+        <v>0.775</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -37824,6 +38352,54 @@
       </c>
       <c r="AMZ10" t="n">
         <v>73908</v>
+      </c>
+      <c r="ANA10" t="n">
+        <v>94253</v>
+      </c>
+      <c r="ANB10" t="n">
+        <v>32359</v>
+      </c>
+      <c r="ANC10" t="n">
+        <v>30906</v>
+      </c>
+      <c r="AND10" t="n">
+        <v>25551</v>
+      </c>
+      <c r="ANE10" t="n">
+        <v>208455</v>
+      </c>
+      <c r="ANF10" t="n">
+        <v>154146</v>
+      </c>
+      <c r="ANG10" t="n">
+        <v>453663</v>
+      </c>
+      <c r="ANH10" t="n">
+        <v>279303</v>
+      </c>
+      <c r="ANI10" t="n">
+        <v>237210</v>
+      </c>
+      <c r="ANJ10" t="n">
+        <v>86652</v>
+      </c>
+      <c r="ANK10" t="n">
+        <v>67056</v>
+      </c>
+      <c r="ANL10" t="n">
+        <v>192296</v>
+      </c>
+      <c r="ANM10" t="n">
+        <v>362250</v>
+      </c>
+      <c r="ANN10" t="n">
+        <v>752899</v>
+      </c>
+      <c r="ANO10" t="n">
+        <v>490709</v>
+      </c>
+      <c r="ANP10" t="n">
+        <v>137918</v>
       </c>
     </row>
   </sheetData>
